--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48235266" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58163396" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ08361281" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18440063" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28367323" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38282077" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48278471" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58247594" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08437861" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45596795" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ54307975" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ03859591" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ11665252" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19378542" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30904350" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42791849" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ53533809" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03543543" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11207.34213200332</v>
+        <v>9775.768023736131</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.075684542651179e-255</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1199.309280742866</v>
+        <v>-1149.246552810493</v>
       </c>
       <c r="C3" t="n">
-        <v>1.334193667735675e-22</v>
+        <v>1.053692263298837e-20</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-663.1770145058782</v>
+        <v>-623.2866425669056</v>
       </c>
       <c r="C4" t="n">
-        <v>1.5474434851193e-18</v>
+        <v>1.678400148541322e-16</v>
       </c>
     </row>
     <row r="5">
@@ -505,205 +505,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-182.4092800463173</v>
+        <v>-134.3993086671417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007909047540906133</v>
+        <v>0.05076352485662478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1940.869576140798</v>
+        <v>10.45997317822565</v>
       </c>
       <c r="C6" t="n">
-        <v>2.403556020845172e-52</v>
+        <v>0.8889591708601026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1062.936635407346</v>
+        <v>-160.937130642773</v>
       </c>
       <c r="C7" t="n">
-        <v>1.299137102075547e-16</v>
+        <v>0.1079085032676634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1596.787837670336</v>
+        <v>-379.3116428226595</v>
       </c>
       <c r="C8" t="n">
-        <v>6.624130277888038e-32</v>
+        <v>4.532566148135785e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.47750612496931</v>
+        <v>-1820.218281795273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2122314421918047</v>
+        <v>1.229999153549695e-44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1181.712344663031</v>
+        <v>-1103.354676352577</v>
       </c>
       <c r="C10" t="n">
-        <v>1.135792717124529e-175</v>
+        <v>1.405422033159878e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.45728926092628</v>
+        <v>-1673.575758853573</v>
       </c>
       <c r="C11" t="n">
-        <v>1.700821060539906e-27</v>
+        <v>7.752010702783338e-32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.7906342819526</v>
+        <v>5.654694354318963</v>
       </c>
       <c r="C12" t="n">
-        <v>1.188140075870272e-37</v>
+        <v>0.7430442749630252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367.0654533960453</v>
+        <v>-1212.548588852925</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.126930980609474e-184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02173965223264489</v>
+        <v>-18.33605363761876</v>
       </c>
       <c r="C14" t="n">
-        <v>5.547698802151018e-10</v>
+        <v>1.623509060681682e-24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.582869824116963e-06</v>
+        <v>155.6255857099081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4375284108383042</v>
+        <v>1.049910286596362e-47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.33310593948897</v>
+        <v>371.2212237734104</v>
       </c>
       <c r="C16" t="n">
-        <v>4.286119104076671e-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.479233880475968</v>
+        <v>-0.02045634124758675</v>
       </c>
       <c r="C17" t="n">
-        <v>3.370848967158099e-07</v>
+        <v>7.730069114163102e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3422.685512986412</v>
+        <v>-5.051033048071565e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.087793710536196e-55</v>
+        <v>0.04486641322755662</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1507.39066144734</v>
+        <v>-12.58104534592443</v>
       </c>
       <c r="C19" t="n">
-        <v>9.073829468901956e-23</v>
+        <v>2.225563830097688e-23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.62884810699396</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.648801283787504e-11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3392.570948128269</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.507348979795321e-54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1614.917563189271</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.270268287045025e-26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>75.56770778460327</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7400337536997146</v>
+      <c r="B23" t="n">
+        <v>224.0085050308739</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3265382861105424</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +788,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10841.40921716004</v>
+        <v>10084.45268680887</v>
       </c>
       <c r="C2" t="n">
-        <v>2.665675446315834e-306</v>
+        <v>2.418049489708162e-272</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +801,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1139.210454185426</v>
+        <v>-1220.655073908245</v>
       </c>
       <c r="C3" t="n">
-        <v>2.409834479348333e-20</v>
+        <v>2.969943534235572e-23</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-646.3212636186322</v>
+        <v>-768.9834659548053</v>
       </c>
       <c r="C4" t="n">
-        <v>1.189192951395053e-17</v>
+        <v>2.515240275701952e-24</v>
       </c>
     </row>
     <row r="5">
@@ -788,205 +827,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-149.7205024121668</v>
+        <v>-216.4960858575028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02951349917229049</v>
+        <v>0.001646990936878903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1914.82539795016</v>
+        <v>46.15542337470166</v>
       </c>
       <c r="C6" t="n">
-        <v>5.222302124336077e-51</v>
+        <v>0.5378333643046296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1025.674851082658</v>
+        <v>-63.7995076917405</v>
       </c>
       <c r="C7" t="n">
-        <v>1.323845040437886e-15</v>
+        <v>0.5235607303080329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1527.789216978381</v>
+        <v>-322.8136031723171</v>
       </c>
       <c r="C8" t="n">
-        <v>3.064554803218582e-29</v>
+        <v>3.397875223837344e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.19378763760912</v>
+        <v>-1969.655073275215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09135634292310087</v>
+        <v>1.532385652302459e-51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1194.144943183744</v>
+        <v>-1197.840937139137</v>
       </c>
       <c r="C10" t="n">
-        <v>5.387088047405734e-179</v>
+        <v>2.646218811738014e-20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.92895836668912</v>
+        <v>-1859.42526858429</v>
       </c>
       <c r="C11" t="n">
-        <v>5.005302886189145e-26</v>
+        <v>1.126854782929185e-38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.5385429119717</v>
+        <v>22.70268462119851</v>
       </c>
       <c r="C12" t="n">
-        <v>4.049921073458111e-42</v>
+        <v>0.1881338273136408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>366.4225833837102</v>
+        <v>-1214.722261944112</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.143975597863099e-185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01995887048141784</v>
+        <v>-19.13193872545177</v>
       </c>
       <c r="C14" t="n">
-        <v>1.312191332635675e-08</v>
+        <v>1.437681161146971e-26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.601983920284274e-06</v>
+        <v>145.8536822754413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2105383875635153</v>
+        <v>5.890288919883858e-42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.06528626832868</v>
+        <v>371.3392358405202</v>
       </c>
       <c r="C16" t="n">
-        <v>5.253496619427668e-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.03193664835581</v>
+        <v>-0.02039379688660448</v>
       </c>
       <c r="C17" t="n">
-        <v>6.670732760833999e-10</v>
+        <v>8.474897979308623e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3230.117109703451</v>
+        <v>-5.173791942430197e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.086328535094313e-49</v>
+        <v>0.0405663844246937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1424.408358919973</v>
+        <v>-12.94698026957055</v>
       </c>
       <c r="C19" t="n">
-        <v>1.906251799105611e-20</v>
+        <v>1.269846093848403e-24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.273635202976156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.584680987793397e-08</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3277.59699635009</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.334161689313368e-51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1535.443613753618</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.800372225674672e-23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>189.1279506465739</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4064197756274281</v>
+      <c r="B23" t="n">
+        <v>260.9429002162485</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2545298803714434</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1110,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10589.79273860061</v>
+        <v>9810.656300907242</v>
       </c>
       <c r="C2" t="n">
-        <v>1.444069354612095e-295</v>
+        <v>9.502098459267502e-258</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1123,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1240.454342439138</v>
+        <v>-1299.510820445098</v>
       </c>
       <c r="C3" t="n">
-        <v>2.787475594749886e-24</v>
+        <v>3.633634638154525e-26</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1136,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-648.9235525532442</v>
+        <v>-750.0138678277885</v>
       </c>
       <c r="C4" t="n">
-        <v>5.569725621013247e-18</v>
+        <v>3.010494790449694e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1071,205 +1149,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-117.2644459096393</v>
+        <v>-179.232543239235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08624979829035463</v>
+        <v>0.009060175039805992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1822.275885542454</v>
+        <v>20.91992141064203</v>
       </c>
       <c r="C6" t="n">
-        <v>1.07964918050747e-46</v>
+        <v>0.779967269299312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-946.4278015814925</v>
+        <v>-165.715819366302</v>
       </c>
       <c r="C7" t="n">
-        <v>1.262029699572748e-13</v>
+        <v>0.09585469913724035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1394.055083174134</v>
+        <v>-356.4713903107764</v>
       </c>
       <c r="C8" t="n">
-        <v>8.26065284720128e-25</v>
+        <v>2.74571015594336e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.56327016441617</v>
+        <v>-1769.043074018652</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2779958081139782</v>
+        <v>5.05680675265012e-42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1184.773018285171</v>
+        <v>-1021.427981900328</v>
       </c>
       <c r="C10" t="n">
-        <v>2.926596613217533e-178</v>
+        <v>3.135572559084717e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.24259477850969</v>
+        <v>-1654.186863428455</v>
       </c>
       <c r="C11" t="n">
-        <v>1.42032096590876e-24</v>
+        <v>5.013704361112558e-31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.771334277973</v>
+        <v>33.69970257231529</v>
       </c>
       <c r="C12" t="n">
-        <v>4.856885746744666e-44</v>
+        <v>0.05084582561078858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>375.0771006789562</v>
+        <v>-1168.055571999082</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.144343773519352e-171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02239165098988287</v>
+        <v>-19.6034660712961</v>
       </c>
       <c r="C14" t="n">
-        <v>1.491534093784835e-10</v>
+        <v>8.705619503240654e-28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.400441629841929e-06</v>
+        <v>153.5956503671911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03098583007816276</v>
+        <v>1.618324342346258e-46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.552126007797</v>
+        <v>370.5936190625175</v>
       </c>
       <c r="C16" t="n">
-        <v>2.538678070467374e-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.122580615284786</v>
+        <v>-0.01990304236401001</v>
       </c>
       <c r="C17" t="n">
-        <v>3.655567793654355e-10</v>
+        <v>1.898025428270954e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3218.595453672564</v>
+        <v>-4.437994255433712e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>9.987706521149079e-50</v>
+        <v>0.07670596331590561</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1407.99668616921</v>
+        <v>-12.90691314848075</v>
       </c>
       <c r="C19" t="n">
-        <v>3.139036710406265e-20</v>
+        <v>1.521440319074497e-24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.822462824644628</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.638688803367205e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3363.184067106884</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.902123423106526e-53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1564.289265293549</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.968269988421878e-24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>572.6374820248382</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0119975112286988</v>
+      <c r="B23" t="n">
+        <v>250.2938625394086</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2717900232120699</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1432,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10692.27233627123</v>
+        <v>9867.831762570202</v>
       </c>
       <c r="C2" t="n">
-        <v>5.174555086062049e-299</v>
+        <v>2.700160097709771e-262</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1445,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1352.646369464315</v>
+        <v>-1255.178335248698</v>
       </c>
       <c r="C3" t="n">
-        <v>3.150446923953754e-28</v>
+        <v>2.602411378413879e-24</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1458,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-695.1726608953069</v>
+        <v>-694.0942574058545</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161500825762523e-20</v>
+        <v>3.651574927041322e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1354,205 +1471,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-162.3166805253594</v>
+        <v>-160.5066322722692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01807136745897541</v>
+        <v>0.01934537350374139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1865.54581862226</v>
+        <v>-7.526012882906976</v>
       </c>
       <c r="C6" t="n">
-        <v>1.145243366031876e-48</v>
+        <v>0.9198157371583289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-956.547539875648</v>
+        <v>-159.3882480229053</v>
       </c>
       <c r="C7" t="n">
-        <v>8.381752261920643e-14</v>
+        <v>0.1100486465786124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1532.241865579104</v>
+        <v>-340.4173760107034</v>
       </c>
       <c r="C8" t="n">
-        <v>1.396453128691871e-29</v>
+        <v>8.727548038102442e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.39608371533096</v>
+        <v>-1865.984705936577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4033758928551884</v>
+        <v>7.490065597298348e-47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1183.135669895725</v>
+        <v>-1058.001924489246</v>
       </c>
       <c r="C10" t="n">
-        <v>2.93344703775594e-176</v>
+        <v>2.582744357028173e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.66234828824526</v>
+        <v>-1610.733959985766</v>
       </c>
       <c r="C11" t="n">
-        <v>1.854043077581812e-25</v>
+        <v>1.207175287523071e-29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.2272691263977</v>
+        <v>-3.464251889374662</v>
       </c>
       <c r="C12" t="n">
-        <v>6.397820681989739e-38</v>
+        <v>0.8406949114826485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378.1761463601817</v>
+        <v>-1173.128026072646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.588587114347209e-173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0237817571530689</v>
+        <v>-19.36699068211325</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0190491801095e-11</v>
+        <v>3.028719302456937e-27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.075555705894273e-06</v>
+        <v>144.4709282631736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5950026614085013</v>
+        <v>2.109143788196584e-41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.12588986225277</v>
+        <v>372.3934161142266</v>
       </c>
       <c r="C16" t="n">
-        <v>5.376381095306594e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.444303206956278</v>
+        <v>-0.02096280358801943</v>
       </c>
       <c r="C17" t="n">
-        <v>1.11336888792305e-10</v>
+        <v>3.206139197778252e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3342.748845251112</v>
+        <v>-5.587592028862135e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>6.622857485546742e-53</v>
+        <v>0.02566781545097941</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1509.099384403193</v>
+        <v>-13.43656897642266</v>
       </c>
       <c r="C19" t="n">
-        <v>7.600321506592059e-23</v>
+        <v>1.40579262099312e-26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.09969822378133</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.853857576504282e-08</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3036.36645178668</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.096086030510595e-44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1256.992390702074</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.257042097185105e-16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>297.2834431385213</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1918500040013524</v>
+      <c r="B23" t="n">
+        <v>163.5548847721138</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4751108679742072</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1754,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10864.53361393671</v>
+        <v>9812.068427009559</v>
       </c>
       <c r="C2" t="n">
-        <v>3.223542403038826e-305</v>
+        <v>3.011539093636567e-257</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1767,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1181.680309027265</v>
+        <v>-1080.598206180976</v>
       </c>
       <c r="C3" t="n">
-        <v>1.058701923337732e-21</v>
+        <v>1.575862955396212e-18</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1780,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-702.0971950467697</v>
+        <v>-692.7113012861928</v>
       </c>
       <c r="C4" t="n">
-        <v>1.425633211802749e-20</v>
+        <v>6.563545027263914e-20</v>
       </c>
     </row>
     <row r="5">
@@ -1637,205 +1793,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-189.243570814229</v>
+        <v>-157.1149017549513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005858500913969261</v>
+        <v>0.02272180091163794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2010.298838993896</v>
+        <v>-12.31251023839087</v>
       </c>
       <c r="C6" t="n">
-        <v>1.677003311686085e-55</v>
+        <v>0.8697109164389478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1151.796223497249</v>
+        <v>-105.9944254592187</v>
       </c>
       <c r="C7" t="n">
-        <v>3.953681521804182e-19</v>
+        <v>0.2890968227686593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1612.996292549027</v>
+        <v>-353.6343057007252</v>
       </c>
       <c r="C8" t="n">
-        <v>3.704522336111086e-32</v>
+        <v>3.576751438989741e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.84307450779322</v>
+        <v>-1740.494731663622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3904642684572867</v>
+        <v>2.254600274107986e-40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1198.050999823798</v>
+        <v>-967.0984269623314</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193024242974883e-179</v>
+        <v>1.080931672980224e-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.50001885537123</v>
+        <v>-1527.958804779192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.072706645017206e-27</v>
+        <v>1.746628199122019e-26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.3870541459451</v>
+        <v>18.17255864318427</v>
       </c>
       <c r="C12" t="n">
-        <v>3.294345207814415e-44</v>
+        <v>0.2927196066133477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.9971158380008</v>
+        <v>-1193.349920815175</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.176727610879944e-178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02323526173344177</v>
+        <v>-19.41952973456577</v>
       </c>
       <c r="C14" t="n">
-        <v>3.732726554793839e-11</v>
+        <v>3.259765164388117e-27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.00209801818861e-06</v>
+        <v>152.0432126107808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1394074287249777</v>
+        <v>6.527373501356663e-45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.73070837260122</v>
+        <v>371.5129097908444</v>
       </c>
       <c r="C16" t="n">
-        <v>5.363027522296147e-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.49230917605027</v>
+        <v>-0.01923474643553832</v>
       </c>
       <c r="C17" t="n">
-        <v>9.837925391213005e-13</v>
+        <v>6.448769628043414e-08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3249.92121833273</v>
+        <v>-5.435439166229918e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>4.511577631637528e-50</v>
+        <v>0.03124591170610608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1491.647576442764</v>
+        <v>-13.37779950492716</v>
       </c>
       <c r="C19" t="n">
-        <v>3.097254025267623e-22</v>
+        <v>3.19492004243805e-26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.635242750590933</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.278564494760932e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3447.546712336319</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.642030352184246e-56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1552.841084893899</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.735057180364184e-24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>297.9328614761453</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1950081623216208</v>
+      <c r="B23" t="n">
+        <v>367.0187008583057</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1099951521831636</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +2076,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11186.9408255345</v>
+        <v>9749.517175811401</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.101185651845246e-255</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +2089,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1105.267655217962</v>
+        <v>-1151.633404813422</v>
       </c>
       <c r="C3" t="n">
-        <v>3.057666614294528e-19</v>
+        <v>6.577522111055699e-21</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +2102,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-724.7168462714467</v>
+        <v>-671.6111138056101</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05694599327683e-21</v>
+        <v>5.126319516849032e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1920,205 +2115,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-188.6911024837445</v>
+        <v>-149.9925749309848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006158741187228076</v>
+        <v>0.02877266768261105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1921.920773970049</v>
+        <v>-8.043810160003602</v>
       </c>
       <c r="C6" t="n">
-        <v>5.933047484869741e-51</v>
+        <v>0.9141764116821613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1061.126172007824</v>
+        <v>-222.4168649942185</v>
       </c>
       <c r="C7" t="n">
-        <v>1.916484008578326e-16</v>
+        <v>0.02559313527892125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1550.049546327524</v>
+        <v>-353.102194974777</v>
       </c>
       <c r="C8" t="n">
-        <v>6.82286539043193e-30</v>
+        <v>3.341079785042222e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.18786572486657</v>
+        <v>-1879.477967332911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2438705311497266</v>
+        <v>2.025647889044218e-47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1211.090095106159</v>
+        <v>-1107.455506302689</v>
       </c>
       <c r="C10" t="n">
-        <v>4.410180435680941e-183</v>
+        <v>1.029198844521303e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.47627175202422</v>
+        <v>-1675.56063743941</v>
       </c>
       <c r="C11" t="n">
-        <v>8.597227919471056e-25</v>
+        <v>6.475133761870066e-32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.7340441250632</v>
+        <v>21.32047472476322</v>
       </c>
       <c r="C12" t="n">
-        <v>2.764523791837284e-38</v>
+        <v>0.2146022331696382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370.6295312331313</v>
+        <v>-1133.134218223814</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.703927598455871e-162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02220679171006285</v>
+        <v>-19.31233964987491</v>
       </c>
       <c r="C14" t="n">
-        <v>2.6070305394795e-10</v>
+        <v>3.258467924312484e-27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.879652474394083e-06</v>
+        <v>151.0896185263566</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3549154650410842</v>
+        <v>4.488856828734076e-45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.06729936729798</v>
+        <v>373.9804834686414</v>
       </c>
       <c r="C16" t="n">
-        <v>6.602058392786329e-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.324480219852508</v>
+        <v>-0.01824950691367757</v>
       </c>
       <c r="C17" t="n">
-        <v>5.39655187497722e-07</v>
+        <v>2.607590560566457e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3277.496277861619</v>
+        <v>-5.214804445807742e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.321295086110122e-50</v>
+        <v>0.0374555850787077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1573.441518038312</v>
+        <v>-12.94216514356365</v>
       </c>
       <c r="C19" t="n">
-        <v>1.577212987548655e-24</v>
+        <v>7.909145571035854e-25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.152292299854945</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.866060388865476e-10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3229.150141566677</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.303573395608644e-49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1564.852409822101</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.638634992818792e-24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>207.4129050268091</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.364072068487852</v>
+      <c r="B23" t="n">
+        <v>308.820646832495</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1747878408857753</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2398,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10794.80200124791</v>
+        <v>9638.793635027199</v>
       </c>
       <c r="C2" t="n">
-        <v>2.52879721558106e-304</v>
+        <v>1.666789996266829e-246</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2411,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1244.419615004516</v>
+        <v>-1246.798284212027</v>
       </c>
       <c r="C3" t="n">
-        <v>3.14789137836158e-24</v>
+        <v>4.070774587160402e-24</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2424,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-645.1896641439098</v>
+        <v>-645.3365041640509</v>
       </c>
       <c r="C4" t="n">
-        <v>1.398225903822389e-17</v>
+        <v>1.808421498098663e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2203,205 +2437,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-156.9775042556167</v>
+        <v>-144.7512231265257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02247631571369447</v>
+        <v>0.03608969798984454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1824.528849031536</v>
+        <v>28.57574589863758</v>
       </c>
       <c r="C6" t="n">
-        <v>2.519344996692409e-46</v>
+        <v>0.7036782396262573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-939.1891131433986</v>
+        <v>-135.7074708267997</v>
       </c>
       <c r="C7" t="n">
-        <v>2.648538705460453e-13</v>
+        <v>0.1752365655428683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1426.882631164757</v>
+        <v>-320.4039482797058</v>
       </c>
       <c r="C8" t="n">
-        <v>1.237604968978898e-25</v>
+        <v>4.081420801204785e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.5219644515185</v>
+        <v>-1769.503425507719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1238663946479973</v>
+        <v>9.613185301496668e-42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1199.471965107248</v>
+        <v>-1048.1142337981</v>
       </c>
       <c r="C10" t="n">
-        <v>2.073066518038925e-180</v>
+        <v>7.229817709080291e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.91390461748441</v>
+        <v>-1653.256251746171</v>
       </c>
       <c r="C11" t="n">
-        <v>2.288328099916003e-31</v>
+        <v>9.124411538606253e-31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.3732416122801</v>
+        <v>22.65948334125458</v>
       </c>
       <c r="C12" t="n">
-        <v>3.812048857983767e-43</v>
+        <v>0.1890737626824182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.4890950557048</v>
+        <v>-1189.965234962869</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.543792270926348e-177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02345060381512545</v>
+        <v>-18.95881922539256</v>
       </c>
       <c r="C14" t="n">
-        <v>2.285527677163555e-11</v>
+        <v>4.524990469961667e-26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.863938228537909e-07</v>
+        <v>150.7940073345918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7363832546795144</v>
+        <v>9.763510289872004e-45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.2537158660034</v>
+        <v>374.3499445632093</v>
       </c>
       <c r="C16" t="n">
-        <v>5.318111736631501e-26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.036771739827715</v>
+        <v>-0.01854490504382837</v>
       </c>
       <c r="C17" t="n">
-        <v>5.596819817596207e-10</v>
+        <v>1.713341054769107e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3241.166602659973</v>
+        <v>-4.389224883827492e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>6.625086727372664e-50</v>
+        <v>0.08030421676851732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1399.681061955553</v>
+        <v>-12.40313029529523</v>
       </c>
       <c r="C19" t="n">
-        <v>8.183623869319423e-20</v>
+        <v>9.689081427247769e-23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10.15229501496844</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.199738049593092e-12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3526.010321790459</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.443701495524306e-58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1690.400129960631</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.251793244370173e-28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>220.5471636584487</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3346489893284547</v>
+      <c r="B23" t="n">
+        <v>296.0509542158907</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1957251127081746</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10959.01098172303</v>
+        <v>9700.307453877882</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.078028267550654e-253</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1261.063342837647</v>
+        <v>-1234.311774351828</v>
       </c>
       <c r="C3" t="n">
-        <v>1.474596085489284e-24</v>
+        <v>6.367252710575762e-24</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-723.0073637608207</v>
+        <v>-668.1303039786387</v>
       </c>
       <c r="C4" t="n">
-        <v>9.326241898339199e-22</v>
+        <v>7.234362267155637e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2486,205 +2759,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-188.2297963403307</v>
+        <v>-162.972237097095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006109435462816489</v>
+        <v>0.01739521594649765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1978.426937614189</v>
+        <v>13.70071812215403</v>
       </c>
       <c r="C6" t="n">
-        <v>4.57445374394704e-54</v>
+        <v>0.854538922692719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1120.419192720543</v>
+        <v>-135.9840534528213</v>
       </c>
       <c r="C7" t="n">
-        <v>3.085495061058635e-18</v>
+        <v>0.1727930116416576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1617.343153950038</v>
+        <v>-381.9833153067084</v>
       </c>
       <c r="C8" t="n">
-        <v>1.583013481050688e-32</v>
+        <v>3.474868776301038e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.703886659392595</v>
+        <v>-1831.097734193478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6545695406991441</v>
+        <v>3.117273645707762e-45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1163.131077867434</v>
+        <v>-1155.306874709391</v>
       </c>
       <c r="C10" t="n">
-        <v>2.676655033989618e-170</v>
+        <v>3.388457576697973e-19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.84768616637154</v>
+        <v>-1651.22591644504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.532749560830091e-28</v>
+        <v>3.720315569660791e-31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155.7933186859866</v>
+        <v>23.34450706647808</v>
       </c>
       <c r="C12" t="n">
-        <v>3.952572888177958e-48</v>
+        <v>0.1753284305191965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.0740422589286</v>
+        <v>-1193.743034868023</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.65034989581659e-179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02369071497209787</v>
+        <v>-18.94776294860595</v>
       </c>
       <c r="C14" t="n">
-        <v>1.575273101539001e-11</v>
+        <v>3.952838914633366e-26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.584058966659423e-07</v>
+        <v>154.4210840431857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7497298120889011</v>
+        <v>7.805802350085417e-47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.66589781032797</v>
+        <v>368.2693116028556</v>
       </c>
       <c r="C16" t="n">
-        <v>6.773944975562811e-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.947044486520561</v>
+        <v>-0.01798575089460603</v>
       </c>
       <c r="C17" t="n">
-        <v>8.518091398928262e-10</v>
+        <v>3.665943190854669e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3355.227585662338</v>
+        <v>-5.250940251046764e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.023082155236076e-53</v>
+        <v>0.03726173944122765</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1567.200223749049</v>
+        <v>-13.82939925421223</v>
       </c>
       <c r="C19" t="n">
-        <v>1.601134078059859e-24</v>
+        <v>5.346085944331097e-28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10.34552645804578</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.553957155789994e-12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3122.157061640347</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.215386927547556e-46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1544.556863745444</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.382363635340312e-24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>323.2551250044326</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1555362931583658</v>
+      <c r="B23" t="n">
+        <v>314.6325349596277</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1669210739593829</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +3010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +3042,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10897.829957522</v>
+        <v>9897.521399287492</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.730340702658624e-261</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +3055,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1196.976822269</v>
+        <v>-1268.730010301057</v>
       </c>
       <c r="C3" t="n">
-        <v>1.332134114614974e-22</v>
+        <v>4.350102217717693e-25</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +3068,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-688.2807118462358</v>
+        <v>-737.4432501737051</v>
       </c>
       <c r="C4" t="n">
-        <v>6.074142242856879e-20</v>
+        <v>1.915847338526868e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2769,205 +3081,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-167.2066503867929</v>
+        <v>-204.1382801955077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01468326094789102</v>
+        <v>0.002989573503644179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Country[T.France]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1893.736004671895</v>
+        <v>11.11338332424071</v>
       </c>
       <c r="C6" t="n">
-        <v>3.077747175249896e-50</v>
+        <v>0.8819594814401001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Country[T.Germany]</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1045.786011472705</v>
+        <v>-133.561507571111</v>
       </c>
       <c r="C7" t="n">
-        <v>3.00467063531608e-16</v>
+        <v>0.1815911292955126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Country[T.Spain]</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1517.352559258235</v>
+        <v>-319.4633797298584</v>
       </c>
       <c r="C8" t="n">
-        <v>4.55404058106199e-29</v>
+        <v>4.119032629437846e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Country[T.France]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.13531895819017</v>
+        <v>-1837.531779716148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2910325459850788</v>
+        <v>5.34847982837994e-45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Country[T.Germany]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1189.104915369609</v>
+        <v>-1094.701625219921</v>
       </c>
       <c r="C10" t="n">
-        <v>6.937033103113682e-179</v>
+        <v>3.528346033365683e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Country[T.Spain]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.13599929719262</v>
+        <v>-1661.237014913399</v>
       </c>
       <c r="C11" t="n">
-        <v>2.042338707186787e-29</v>
+        <v>3.821261262479006e-31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.5400183739047</v>
+        <v>26.14564076248128</v>
       </c>
       <c r="C12" t="n">
-        <v>1.111774965615352e-41</v>
+        <v>0.1293282139395703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>370.8731551386022</v>
+        <v>-1192.317778636344</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.426781377681877e-178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02109894277191973</v>
+        <v>-19.59677379015218</v>
       </c>
       <c r="C14" t="n">
-        <v>1.655044321092913e-09</v>
+        <v>9.177020463634362e-28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.040658139896859e-06</v>
+        <v>142.5541296986971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1422194745942773</v>
+        <v>2.527901363401935e-40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.11139531116317</v>
+        <v>368.2423309287404</v>
       </c>
       <c r="C16" t="n">
-        <v>1.263382996582135e-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.738343370365889</v>
+        <v>-0.0214248415372899</v>
       </c>
       <c r="C17" t="n">
-        <v>2.575400859133159e-11</v>
+        <v>1.419212204588613e-09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3439.632526701641</v>
+        <v>-4.219812604212756e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.843389938051545e-56</v>
+        <v>0.09572439022910642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1628.643462099101</v>
+        <v>-12.89109992606573</v>
       </c>
       <c r="C19" t="n">
-        <v>1.813401257405521e-26</v>
+        <v>1.597923495002545e-24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8.766004540192931</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.255317349561811e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3186.214823012045</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.31674836473813e-48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1541.444988562078</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.161500613952264e-23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>298.3813040571433</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1894760269950442</v>
+      <c r="B23" t="n">
+        <v>338.0450281111362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1379067979944381</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45596795" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ54307975" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ03859591" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ11665252" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ19378542" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30904350" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42791849" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ53533809" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03543543" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58101212" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ05221102" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12285998" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19136934" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ25758992" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32310473" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ39126782" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ46101698" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ54387278" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9775.768023736131</v>
+        <v>9938.795605283945</v>
       </c>
       <c r="C2" t="n">
-        <v>2.075684542651179e-255</v>
+        <v>1.22422570482303e-275</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1149.246552810493</v>
+        <v>-1254.703767228046</v>
       </c>
       <c r="C3" t="n">
-        <v>1.053692263298837e-20</v>
+        <v>2.335874823482613e-24</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-623.2866425669056</v>
+        <v>-703.2295690541806</v>
       </c>
       <c r="C4" t="n">
-        <v>1.678400148541322e-16</v>
+        <v>1.731241452027592e-20</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-134.3993086671417</v>
+        <v>-157.3691123613296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05076352485662478</v>
+        <v>0.02251342680584803</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.45997317822565</v>
+        <v>9.295162579459017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8889591708601026</v>
+        <v>0.9013173584028991</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-160.937130642773</v>
+        <v>-103.1195910945769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1079085032676634</v>
+        <v>0.3026196117157745</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-379.3116428226595</v>
+        <v>-347.8055016689595</v>
       </c>
       <c r="C8" t="n">
-        <v>4.532566148135785e-08</v>
+        <v>5.673719818054409e-07</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1820.218281795273</v>
+        <v>-1875.130426192924</v>
       </c>
       <c r="C9" t="n">
-        <v>1.229999153549695e-44</v>
+        <v>9.660031398784924e-47</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1103.354676352577</v>
+        <v>-1135.626567512169</v>
       </c>
       <c r="C10" t="n">
-        <v>1.405422033159878e-17</v>
+        <v>2.157899392622014e-18</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1673.575758853573</v>
+        <v>-1729.32362348874</v>
       </c>
       <c r="C11" t="n">
-        <v>7.752010702783338e-32</v>
+        <v>7.395782092318074e-35</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.654694354318963</v>
+        <v>23.22027852615493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7430442749630252</v>
+        <v>0.1779494322188043</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1212.548588852925</v>
+        <v>-1197.18799065438</v>
       </c>
       <c r="C13" t="n">
-        <v>2.126930980609474e-184</v>
+        <v>4.433261056818087e-179</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.33605363761876</v>
+        <v>-17.23429859597396</v>
       </c>
       <c r="C14" t="n">
-        <v>1.623509060681682e-24</v>
+        <v>9.265371375155554e-22</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.6255857099081</v>
+        <v>153.5713738796453</v>
       </c>
       <c r="C15" t="n">
-        <v>1.049910286596362e-47</v>
+        <v>2.518772616220292e-46</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.2212237734104</v>
+        <v>370.3834907817177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02045634124758675</v>
+        <v>-0.02090443924325472</v>
       </c>
       <c r="C17" t="n">
-        <v>7.730069114163102e-09</v>
+        <v>3.60496205640181e-09</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.051033048071565e-06</v>
+        <v>-4.079070143157461e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04486641322755662</v>
+        <v>0.1065438272012002</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.58104534592443</v>
+        <v>-13.3052591339153</v>
       </c>
       <c r="C19" t="n">
-        <v>2.225563830097688e-23</v>
+        <v>6.452932389445504e-26</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.62884810699396</v>
+        <v>7.851232998568974</v>
       </c>
       <c r="C20" t="n">
-        <v>5.648801283787504e-11</v>
+        <v>7.474471485991466e-08</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3392.570948128269</v>
+        <v>-3257.169255851396</v>
       </c>
       <c r="C21" t="n">
-        <v>2.507348979795321e-54</v>
+        <v>3.638275087240262e-50</v>
       </c>
     </row>
     <row r="22">
@@ -726,23 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1614.917563189271</v>
+        <v>-1540.790912776202</v>
       </c>
       <c r="C22" t="n">
-        <v>9.270268287045025e-26</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>224.0085050308739</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3265382861105424</v>
+        <v>1.917351919317428e-23</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10084.45268680887</v>
+        <v>10061.92562230139</v>
       </c>
       <c r="C2" t="n">
-        <v>2.418049489708162e-272</v>
+        <v>3.363339697538458e-285</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1220.655073908245</v>
+        <v>-1188.107770086515</v>
       </c>
       <c r="C3" t="n">
-        <v>2.969943534235572e-23</v>
+        <v>2.643433605452918e-22</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-768.9834659548053</v>
+        <v>-658.5722894522085</v>
       </c>
       <c r="C4" t="n">
-        <v>2.515240275701952e-24</v>
+        <v>2.642157538671356e-18</v>
       </c>
     </row>
     <row r="5">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-216.4960858575028</v>
+        <v>-160.3911872564615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001646990936878903</v>
+        <v>0.01942437722163936</v>
       </c>
     </row>
     <row r="6">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.15542337470166</v>
+        <v>-57.28242484234697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5378333643046296</v>
+        <v>0.4432649998613277</v>
       </c>
     </row>
     <row r="7">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-63.7995076917405</v>
+        <v>-248.2184580304761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5235607303080329</v>
+        <v>0.01287186341319204</v>
       </c>
     </row>
     <row r="8">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-322.8136031723171</v>
+        <v>-399.1522589069278</v>
       </c>
       <c r="C8" t="n">
-        <v>3.397875223837344e-06</v>
+        <v>7.960626186595868e-09</v>
       </c>
     </row>
     <row r="9">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1969.655073275215</v>
+        <v>-1876.201852721325</v>
       </c>
       <c r="C9" t="n">
-        <v>1.532385652302459e-51</v>
+        <v>4.70894548117082e-47</v>
       </c>
     </row>
     <row r="10">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1197.840937139137</v>
+        <v>-1122.005408122153</v>
       </c>
       <c r="C10" t="n">
-        <v>2.646218811738014e-20</v>
+        <v>5.076995995722542e-18</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1859.42526858429</v>
+        <v>-1721.686339681282</v>
       </c>
       <c r="C11" t="n">
-        <v>1.126854782929185e-38</v>
+        <v>9.847396941960658e-35</v>
       </c>
     </row>
     <row r="12">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.70268462119851</v>
+        <v>12.40499840831811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1881338273136408</v>
+        <v>0.470980046651404</v>
       </c>
     </row>
     <row r="13">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1214.722261944112</v>
+        <v>-1169.628176585388</v>
       </c>
       <c r="C13" t="n">
-        <v>6.143975597863099e-185</v>
+        <v>5.042762054205711e-172</v>
       </c>
     </row>
     <row r="14">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.13193872545177</v>
+        <v>-19.36069536666317</v>
       </c>
       <c r="C14" t="n">
-        <v>1.437681161146971e-26</v>
+        <v>3.226206678247136e-27</v>
       </c>
     </row>
     <row r="15">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.8536822754413</v>
+        <v>147.0311261810135</v>
       </c>
       <c r="C15" t="n">
-        <v>5.890288919883858e-42</v>
+        <v>1.468903181999782e-42</v>
       </c>
     </row>
     <row r="16">
@@ -970,7 +957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.3392358405202</v>
+        <v>368.333879639576</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -983,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02039379688660448</v>
+        <v>-0.02016523943335124</v>
       </c>
       <c r="C17" t="n">
-        <v>8.474897979308623e-09</v>
+        <v>1.12963238550122e-08</v>
       </c>
     </row>
     <row r="18">
@@ -996,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.173791942430197e-06</v>
+        <v>-3.870378629415408e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0405663844246937</v>
+        <v>0.1203705656425579</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.94698026957055</v>
+        <v>-13.50673298605257</v>
       </c>
       <c r="C19" t="n">
-        <v>1.269846093848403e-24</v>
+        <v>1.139535786498621e-26</v>
       </c>
     </row>
     <row r="20">
@@ -1022,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.273635202976156</v>
+        <v>8.340326100888483</v>
       </c>
       <c r="C20" t="n">
-        <v>1.584680987793397e-08</v>
+        <v>7.971443830770353e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1035,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3277.59699635009</v>
+        <v>-3305.904227522201</v>
       </c>
       <c r="C21" t="n">
-        <v>7.334161689313368e-51</v>
+        <v>9.896670158964776e-52</v>
       </c>
     </row>
     <row r="22">
@@ -1048,23 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1535.443613753618</v>
+        <v>-1522.192862729143</v>
       </c>
       <c r="C22" t="n">
-        <v>1.800372225674672e-23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>260.9429002162485</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2545298803714434</v>
+        <v>3.859326861320192e-23</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9810.656300907242</v>
+        <v>9824.2417620412</v>
       </c>
       <c r="C2" t="n">
-        <v>9.502098459267502e-258</v>
+        <v>8.865943084697785e-272</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1299.510820445098</v>
+        <v>-1246.209359446651</v>
       </c>
       <c r="C3" t="n">
-        <v>3.633634638154525e-26</v>
+        <v>3.645686392964908e-24</v>
       </c>
     </row>
     <row r="4">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-750.0138678277885</v>
+        <v>-709.4041123876812</v>
       </c>
       <c r="C4" t="n">
-        <v>3.010494790449694e-23</v>
+        <v>6.677510798718377e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-179.232543239235</v>
+        <v>-175.3960232721507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009060175039805992</v>
+        <v>0.01078606801889762</v>
       </c>
     </row>
     <row r="6">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.91992141064203</v>
+        <v>-26.74105906495367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.779967269299312</v>
+        <v>0.7210705538397689</v>
       </c>
     </row>
     <row r="7">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-165.715819366302</v>
+        <v>-85.02808384791371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09585469913724035</v>
+        <v>0.3943946372112097</v>
       </c>
     </row>
     <row r="8">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-356.4713903107764</v>
+        <v>-351.6855706889947</v>
       </c>
       <c r="C8" t="n">
-        <v>2.74571015594336e-07</v>
+        <v>4.053176862165111e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1769.043074018652</v>
+        <v>-1800.923585276354</v>
       </c>
       <c r="C9" t="n">
-        <v>5.05680675265012e-42</v>
+        <v>1.427856282551518e-43</v>
       </c>
     </row>
     <row r="10">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1021.427981900328</v>
+        <v>-1083.757137728107</v>
       </c>
       <c r="C10" t="n">
-        <v>3.135572559084717e-15</v>
+        <v>5.631694974960653e-17</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1654.186863428455</v>
+        <v>-1641.677182426532</v>
       </c>
       <c r="C11" t="n">
-        <v>5.013704361112558e-31</v>
+        <v>9.337351695607999e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.69970257231529</v>
+        <v>33.7713113844626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05084582561078858</v>
+        <v>0.05079099211342263</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1168.055571999082</v>
+        <v>-1151.40728741469</v>
       </c>
       <c r="C13" t="n">
-        <v>1.144343773519352e-171</v>
+        <v>1.984908166529436e-166</v>
       </c>
     </row>
     <row r="14">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.6034660712961</v>
+        <v>-18.81954343528321</v>
       </c>
       <c r="C14" t="n">
-        <v>8.705619503240654e-28</v>
+        <v>1.037172787182515e-25</v>
       </c>
     </row>
     <row r="15">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153.5956503671911</v>
+        <v>149.3481418561805</v>
       </c>
       <c r="C15" t="n">
-        <v>1.618324342346258e-46</v>
+        <v>8.933061603869682e-44</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1266,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.5936190625175</v>
+        <v>365.2721867898966</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1305,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01990304236401001</v>
+        <v>-0.01774325248010255</v>
       </c>
       <c r="C17" t="n">
-        <v>1.898025428270954e-08</v>
+        <v>4.827559977204077e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.437994255433712e-06</v>
+        <v>-6.465731369809509e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07670596331590561</v>
+        <v>0.01009780327785196</v>
       </c>
     </row>
     <row r="19">
@@ -1331,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.90691314848075</v>
+        <v>-13.18789369418882</v>
       </c>
       <c r="C19" t="n">
-        <v>1.521440319074497e-24</v>
+        <v>1.198860163425483e-25</v>
       </c>
     </row>
     <row r="20">
@@ -1344,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.822462824644628</v>
+        <v>9.184903170814497</v>
       </c>
       <c r="C20" t="n">
-        <v>1.638688803367205e-09</v>
+        <v>2.168730369420956e-10</v>
       </c>
     </row>
     <row r="21">
@@ -1357,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3363.184067106884</v>
+        <v>-3415.087385440356</v>
       </c>
       <c r="C21" t="n">
-        <v>1.902123423106526e-53</v>
+        <v>3.459974690316354e-55</v>
       </c>
     </row>
     <row r="22">
@@ -1370,23 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1564.289265293549</v>
+        <v>-1549.309552703999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.968269988421878e-24</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>250.2938625394086</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2717900232120699</v>
+        <v>6.786530378994551e-24</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9867.831762570202</v>
+        <v>10214.96113395842</v>
       </c>
       <c r="C2" t="n">
-        <v>2.700160097709771e-262</v>
+        <v>7.846928544007643e-293</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1255.178335248698</v>
+        <v>-1243.429612360507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.602411378413879e-24</v>
+        <v>4.164917254990115e-24</v>
       </c>
     </row>
     <row r="4">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-694.0942574058545</v>
+        <v>-760.0828540393228</v>
       </c>
       <c r="C4" t="n">
-        <v>3.651574927041322e-20</v>
+        <v>7.832375032074429e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-160.5066322722692</v>
+        <v>-187.4720213688737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01934537350374139</v>
+        <v>0.006337722615734192</v>
       </c>
     </row>
     <row r="6">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.526012882906976</v>
+        <v>87.48833476000419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9198157371583289</v>
+        <v>0.2422408827658526</v>
       </c>
     </row>
     <row r="7">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-159.3882480229053</v>
+        <v>-72.01084854164736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1100486465786124</v>
+        <v>0.4703394278611511</v>
       </c>
     </row>
     <row r="8">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-340.4173760107034</v>
+        <v>-253.68706185219</v>
       </c>
       <c r="C8" t="n">
-        <v>8.727548038102442e-07</v>
+        <v>0.0002524024755677769</v>
       </c>
     </row>
     <row r="9">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1865.984705936577</v>
+        <v>-1917.161149050979</v>
       </c>
       <c r="C9" t="n">
-        <v>7.490065597298348e-47</v>
+        <v>2.076850807580681e-49</v>
       </c>
     </row>
     <row r="10">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1058.001924489246</v>
+        <v>-1159.501928584503</v>
       </c>
       <c r="C10" t="n">
-        <v>2.582744357028173e-16</v>
+        <v>2.6659969772231e-19</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1610.733959985766</v>
+        <v>-1731.23779037948</v>
       </c>
       <c r="C11" t="n">
-        <v>1.207175287523071e-29</v>
+        <v>2.780674135538411e-35</v>
       </c>
     </row>
     <row r="12">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.464251889374662</v>
+        <v>21.52954375800758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8406949114826485</v>
+        <v>0.2117360167567206</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1173.128026072646</v>
+        <v>-1206.276563818761</v>
       </c>
       <c r="C13" t="n">
-        <v>1.588587114347209e-173</v>
+        <v>8.486013947339034e-183</v>
       </c>
     </row>
     <row r="14">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.36699068211325</v>
+        <v>-19.55155480771435</v>
       </c>
       <c r="C14" t="n">
-        <v>3.028719302456937e-27</v>
+        <v>1.062641876351964e-27</v>
       </c>
     </row>
     <row r="15">
@@ -1601,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.4709282631736</v>
+        <v>143.5276631176877</v>
       </c>
       <c r="C15" t="n">
-        <v>2.109143788196584e-41</v>
+        <v>7.601849854443038e-41</v>
       </c>
     </row>
     <row r="16">
@@ -1614,7 +1575,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.3934161142266</v>
+        <v>365.7095049973998</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02096280358801943</v>
+        <v>-0.02080129038392698</v>
       </c>
       <c r="C17" t="n">
-        <v>3.206139197778252e-09</v>
+        <v>3.805034727733184e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1640,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.587592028862135e-06</v>
+        <v>-6.599819432140695e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02566781545097941</v>
+        <v>0.008443766002475914</v>
       </c>
     </row>
     <row r="19">
@@ -1653,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.43656897642266</v>
+        <v>-14.44451048727126</v>
       </c>
       <c r="C19" t="n">
-        <v>1.40579262099312e-26</v>
+        <v>2.598202229439381e-30</v>
       </c>
     </row>
     <row r="20">
@@ -1666,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.09969822378133</v>
+        <v>7.471028900236165</v>
       </c>
       <c r="C20" t="n">
-        <v>2.853857576504282e-08</v>
+        <v>2.553849840292631e-07</v>
       </c>
     </row>
     <row r="21">
@@ -1679,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3036.36645178668</v>
+        <v>-3383.798666216392</v>
       </c>
       <c r="C21" t="n">
-        <v>3.096086030510595e-44</v>
+        <v>4.010140612025731e-54</v>
       </c>
     </row>
     <row r="22">
@@ -1692,23 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1256.992390702074</v>
+        <v>-1476.654249517131</v>
       </c>
       <c r="C22" t="n">
-        <v>2.257042097185105e-16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>163.5548847721138</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4751108679742072</v>
+        <v>6.89330605053689e-22</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9812.068427009559</v>
+        <v>9504.004706765787</v>
       </c>
       <c r="C2" t="n">
-        <v>3.011539093636567e-257</v>
+        <v>6.1346158022049e-253</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1080.598206180976</v>
+        <v>-1231.752947192762</v>
       </c>
       <c r="C3" t="n">
-        <v>1.575862955396212e-18</v>
+        <v>1.179587901117949e-23</v>
       </c>
     </row>
     <row r="4">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-692.7113012861928</v>
+        <v>-675.2726819655535</v>
       </c>
       <c r="C4" t="n">
-        <v>6.563545027263914e-20</v>
+        <v>3.037757544796046e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-157.1149017549513</v>
+        <v>-175.0859654607744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02272180091163794</v>
+        <v>0.01056301864590246</v>
       </c>
     </row>
     <row r="6">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.31251023839087</v>
+        <v>-59.10153957852296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8697109164389478</v>
+        <v>0.4295209269233758</v>
       </c>
     </row>
     <row r="7">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-105.9944254592187</v>
+        <v>-189.3102005249739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2890968227686593</v>
+        <v>0.057755865496726</v>
       </c>
     </row>
     <row r="8">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.6343057007252</v>
+        <v>-407.6711689658837</v>
       </c>
       <c r="C8" t="n">
-        <v>3.576751438989741e-07</v>
+        <v>4.193310654603028e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1740.494731663622</v>
+        <v>-1654.132374731496</v>
       </c>
       <c r="C9" t="n">
-        <v>2.254600274107986e-40</v>
+        <v>3.129870086787965e-37</v>
       </c>
     </row>
     <row r="10">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-967.0984269623314</v>
+        <v>-971.0283838679588</v>
       </c>
       <c r="C10" t="n">
-        <v>1.080931672980224e-13</v>
+        <v>5.16376308514888e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1527.958804779192</v>
+        <v>-1529.255285264747</v>
       </c>
       <c r="C11" t="n">
-        <v>1.746628199122019e-26</v>
+        <v>6.938560049838413e-28</v>
       </c>
     </row>
     <row r="12">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.17255864318427</v>
+        <v>28.25769209912718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2927196066133477</v>
+        <v>0.1002352504899664</v>
       </c>
     </row>
     <row r="13">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1193.349920815175</v>
+        <v>-1173.632645323419</v>
       </c>
       <c r="C13" t="n">
-        <v>5.176727610879944e-178</v>
+        <v>7.225183047242227e-174</v>
       </c>
     </row>
     <row r="14">
@@ -1910,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.41952973456577</v>
+        <v>-19.11636230706832</v>
       </c>
       <c r="C14" t="n">
-        <v>3.259765164388117e-27</v>
+        <v>1.129765117693883e-26</v>
       </c>
     </row>
     <row r="15">
@@ -1923,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>152.0432126107808</v>
+        <v>149.5144523486139</v>
       </c>
       <c r="C15" t="n">
-        <v>6.527373501356663e-45</v>
+        <v>3.45022883000852e-44</v>
       </c>
     </row>
     <row r="16">
@@ -1936,7 +1884,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.5129097908444</v>
+        <v>370.3898550036878</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1949,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01923474643553832</v>
+        <v>-0.01947092308363172</v>
       </c>
       <c r="C17" t="n">
-        <v>6.448769628043414e-08</v>
+        <v>3.237925555586249e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1962,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.435439166229918e-06</v>
+        <v>-2.807467202652275e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03124591170610608</v>
+        <v>0.2681671108692087</v>
       </c>
     </row>
     <row r="19">
@@ -1975,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.37779950492716</v>
+        <v>-12.39258146089847</v>
       </c>
       <c r="C19" t="n">
-        <v>3.19492004243805e-26</v>
+        <v>7.57424785576551e-23</v>
       </c>
     </row>
     <row r="20">
@@ -1988,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.635242750590933</v>
+        <v>10.74984409364984</v>
       </c>
       <c r="C20" t="n">
-        <v>4.278564494760932e-09</v>
+        <v>1.870230660987709e-13</v>
       </c>
     </row>
     <row r="21">
@@ -2001,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3447.546712336319</v>
+        <v>-3262.344528166748</v>
       </c>
       <c r="C21" t="n">
-        <v>5.642030352184246e-56</v>
+        <v>9.094335656507302e-51</v>
       </c>
     </row>
     <row r="22">
@@ -2014,23 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1552.841084893899</v>
+        <v>-1589.247175753558</v>
       </c>
       <c r="C22" t="n">
-        <v>7.735057180364184e-24</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>367.0187008583057</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1099951521831636</v>
+        <v>3.467879664840148e-25</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9749.517175811401</v>
+        <v>9699.086272006665</v>
       </c>
       <c r="C2" t="n">
-        <v>2.101185651845246e-255</v>
+        <v>2.126299119840806e-264</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1151.633404813422</v>
+        <v>-1132.428249879226</v>
       </c>
       <c r="C3" t="n">
-        <v>6.577522111055699e-21</v>
+        <v>2.036183306647104e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-671.6111138056101</v>
+        <v>-671.6012590992328</v>
       </c>
       <c r="C4" t="n">
-        <v>5.126319516849032e-19</v>
+        <v>6.22270743244193e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-149.9925749309848</v>
+        <v>-129.7706585144052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02877266768261105</v>
+        <v>0.0592190366662048</v>
       </c>
     </row>
     <row r="6">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.043810160003602</v>
+        <v>65.57192863922836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9141764116821613</v>
+        <v>0.3806914713394749</v>
       </c>
     </row>
     <row r="7">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-222.4168649942185</v>
+        <v>-133.864144975811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02559313527892125</v>
+        <v>0.1791941359037058</v>
       </c>
     </row>
     <row r="8">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-353.102194974777</v>
+        <v>-370.6005043030945</v>
       </c>
       <c r="C8" t="n">
-        <v>3.341079785042222e-07</v>
+        <v>9.220200683294134e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1879.477967332911</v>
+        <v>-1790.941844585483</v>
       </c>
       <c r="C9" t="n">
-        <v>2.025647889044218e-47</v>
+        <v>3.168039809789333e-43</v>
       </c>
     </row>
     <row r="10">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1107.455506302689</v>
+        <v>-1072.909042131232</v>
       </c>
       <c r="C10" t="n">
-        <v>1.029198844521303e-17</v>
+        <v>9.788028776100008e-17</v>
       </c>
     </row>
     <row r="11">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1675.56063743941</v>
+        <v>-1669.336453804807</v>
       </c>
       <c r="C11" t="n">
-        <v>6.475133761870066e-32</v>
+        <v>8.199729126092203e-33</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.32047472476322</v>
+        <v>4.450451935682466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2146022331696382</v>
+        <v>0.7956141172695299</v>
       </c>
     </row>
     <row r="13">
@@ -2219,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1133.134218223814</v>
+        <v>-1197.493551175089</v>
       </c>
       <c r="C13" t="n">
-        <v>2.703927598455871e-162</v>
+        <v>2.352842855696841e-180</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.31233964987491</v>
+        <v>-20.7482334345611</v>
       </c>
       <c r="C14" t="n">
-        <v>3.258467924312484e-27</v>
+        <v>5.375567550312097e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.0896185263566</v>
+        <v>151.6839384293018</v>
       </c>
       <c r="C15" t="n">
-        <v>4.488856828734076e-45</v>
+        <v>2.625405324316916e-45</v>
       </c>
     </row>
     <row r="16">
@@ -2258,7 +2193,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>373.9804834686414</v>
+        <v>373.8658459276057</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2271,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01824950691367757</v>
+        <v>-0.01942117107758671</v>
       </c>
       <c r="C17" t="n">
-        <v>2.607590560566457e-07</v>
+        <v>3.55197328003928e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2284,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.214804445807742e-06</v>
+        <v>-4.763102553659089e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0374555850787077</v>
+        <v>0.05818426854837878</v>
       </c>
     </row>
     <row r="19">
@@ -2297,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.94216514356365</v>
+        <v>-12.91389866839754</v>
       </c>
       <c r="C19" t="n">
-        <v>7.909145571035854e-25</v>
+        <v>1.257309579685218e-24</v>
       </c>
     </row>
     <row r="20">
@@ -2310,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.152292299854945</v>
+        <v>10.250648042813</v>
       </c>
       <c r="C20" t="n">
-        <v>3.866060388865476e-10</v>
+        <v>1.824022499539017e-12</v>
       </c>
     </row>
     <row r="21">
@@ -2323,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3229.150141566677</v>
+        <v>-3235.30621928203</v>
       </c>
       <c r="C21" t="n">
-        <v>1.303573395608644e-49</v>
+        <v>8.118222872388065e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2336,23 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1564.852409822101</v>
+        <v>-1461.800727607755</v>
       </c>
       <c r="C22" t="n">
-        <v>1.638634992818792e-24</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>308.820646832495</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1747878408857753</v>
+        <v>1.722799631367059e-21</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9638.793635027199</v>
+        <v>9794.062362436294</v>
       </c>
       <c r="C2" t="n">
-        <v>1.666789996266829e-246</v>
+        <v>2.972591452751035e-269</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1246.798284212027</v>
+        <v>-1165.262104794886</v>
       </c>
       <c r="C3" t="n">
-        <v>4.070774587160402e-24</v>
+        <v>3.566284676655075e-21</v>
       </c>
     </row>
     <row r="4">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-645.3365041640509</v>
+        <v>-701.1585684479851</v>
       </c>
       <c r="C4" t="n">
-        <v>1.808421498098663e-17</v>
+        <v>2.30524414237567e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-144.7512231265257</v>
+        <v>-179.5585505120687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03608969798984454</v>
+        <v>0.009224097814960159</v>
       </c>
     </row>
     <row r="6">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.57574589863758</v>
+        <v>-6.886340492325203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7036782396262573</v>
+        <v>0.9267439905457112</v>
       </c>
     </row>
     <row r="7">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-135.7074708267997</v>
+        <v>-199.6487086638212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1752365655428683</v>
+        <v>0.0461921292691554</v>
       </c>
     </row>
     <row r="8">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-320.4039482797058</v>
+        <v>-336.5516099794331</v>
       </c>
       <c r="C8" t="n">
-        <v>4.081420801204785e-06</v>
+        <v>1.278618603487723e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1769.503425507719</v>
+        <v>-1780.126548093496</v>
       </c>
       <c r="C9" t="n">
-        <v>9.613185301496668e-42</v>
+        <v>1.152727834931355e-42</v>
       </c>
     </row>
     <row r="10">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1048.1142337981</v>
+        <v>-1046.435792556169</v>
       </c>
       <c r="C10" t="n">
-        <v>7.229817709080291e-16</v>
+        <v>5.75957034942253e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1653.256251746171</v>
+        <v>-1651.873053195077</v>
       </c>
       <c r="C11" t="n">
-        <v>9.124411538606253e-31</v>
+        <v>3.414367270163551e-32</v>
       </c>
     </row>
     <row r="12">
@@ -2528,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.65948334125458</v>
+        <v>1.907883602666004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1890737626824182</v>
+        <v>0.9121052133872758</v>
       </c>
     </row>
     <row r="13">
@@ -2541,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1189.965234962869</v>
+        <v>-1208.71643005107</v>
       </c>
       <c r="C13" t="n">
-        <v>5.543792270926348e-177</v>
+        <v>1.66930004916968e-182</v>
       </c>
     </row>
     <row r="14">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.95881922539256</v>
+        <v>-18.4354724202131</v>
       </c>
       <c r="C14" t="n">
-        <v>4.524990469961667e-26</v>
+        <v>1.223803302621414e-24</v>
       </c>
     </row>
     <row r="15">
@@ -2567,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.7940073345918</v>
+        <v>148.9827459495576</v>
       </c>
       <c r="C15" t="n">
-        <v>9.763510289872004e-45</v>
+        <v>1.060938814460007e-43</v>
       </c>
     </row>
     <row r="16">
@@ -2580,7 +2502,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.3499445632093</v>
+        <v>370.4437693704373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2593,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01854490504382837</v>
+        <v>-0.01966715437267113</v>
       </c>
       <c r="C17" t="n">
-        <v>1.713341054769107e-07</v>
+        <v>2.584975684609003e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2606,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.389224883827492e-06</v>
+        <v>-5.199769024744631e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08030421676851732</v>
+        <v>0.03980564904487118</v>
       </c>
     </row>
     <row r="19">
@@ -2619,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.40313029529523</v>
+        <v>-12.60145861295287</v>
       </c>
       <c r="C19" t="n">
-        <v>9.689081427247769e-23</v>
+        <v>2.089763849539368e-23</v>
       </c>
     </row>
     <row r="20">
@@ -2632,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.15229501496844</v>
+        <v>9.130645283065201</v>
       </c>
       <c r="C20" t="n">
-        <v>7.199738049593092e-12</v>
+        <v>2.878687746554405e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2645,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3526.010321790459</v>
+        <v>-3241.421926192529</v>
       </c>
       <c r="C21" t="n">
-        <v>3.443701495524306e-58</v>
+        <v>7.341347553520021e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2658,23 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1690.400129960631</v>
+        <v>-1476.647469428251</v>
       </c>
       <c r="C22" t="n">
-        <v>4.251793244370173e-28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>296.0509542158907</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1957251127081746</v>
+        <v>8.784543312803021e-22</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9700.307453877882</v>
+        <v>9936.962380863857</v>
       </c>
       <c r="C2" t="n">
-        <v>3.078028267550654e-253</v>
+        <v>6.136003740600284e-277</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1234.311774351828</v>
+        <v>-1231.806383725329</v>
       </c>
       <c r="C3" t="n">
-        <v>6.367252710575762e-24</v>
+        <v>1.212091405579615e-23</v>
       </c>
     </row>
     <row r="4">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-668.1303039786387</v>
+        <v>-730.1664467327249</v>
       </c>
       <c r="C4" t="n">
-        <v>7.234362267155637e-19</v>
+        <v>4.213080954515656e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-162.972237097095</v>
+        <v>-208.2057382356608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01739521594649765</v>
+        <v>0.002460622606442145</v>
       </c>
     </row>
     <row r="6">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.70071812215403</v>
+        <v>0.008707806354010472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.854538922692719</v>
+        <v>0.9999071766067276</v>
       </c>
     </row>
     <row r="7">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-135.9840534528213</v>
+        <v>-122.1472351440262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1727930116416576</v>
+        <v>0.2216929671323503</v>
       </c>
     </row>
     <row r="8">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-381.9833153067084</v>
+        <v>-347.2894119191064</v>
       </c>
       <c r="C8" t="n">
-        <v>3.474868776301038e-08</v>
+        <v>5.466658920976687e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1831.097734193478</v>
+        <v>-1906.588382712473</v>
       </c>
       <c r="C9" t="n">
-        <v>3.117273645707762e-45</v>
+        <v>2.123554601515838e-48</v>
       </c>
     </row>
     <row r="10">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1155.306874709391</v>
+        <v>-1136.533332023522</v>
       </c>
       <c r="C10" t="n">
-        <v>3.388457576697973e-19</v>
+        <v>2.024422823647763e-18</v>
       </c>
     </row>
     <row r="11">
@@ -2837,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1651.22591644504</v>
+        <v>-1791.575483602926</v>
       </c>
       <c r="C11" t="n">
-        <v>3.720315569660791e-31</v>
+        <v>2.385459510325484e-37</v>
       </c>
     </row>
     <row r="12">
@@ -2850,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.34450706647808</v>
+        <v>20.47397473381855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1753284305191965</v>
+        <v>0.2343022586164513</v>
       </c>
     </row>
     <row r="13">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1193.743034868023</v>
+        <v>-1177.230641606489</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65034989581659e-179</v>
+        <v>5.686954162438935e-174</v>
       </c>
     </row>
     <row r="14">
@@ -2876,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.94776294860595</v>
+        <v>-19.80517601330434</v>
       </c>
       <c r="C14" t="n">
-        <v>3.952838914633366e-26</v>
+        <v>2.275380668456717e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2889,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.4210840431857</v>
+        <v>150.2378737368619</v>
       </c>
       <c r="C15" t="n">
-        <v>7.805802350085417e-47</v>
+        <v>1.469311466844299e-44</v>
       </c>
     </row>
     <row r="16">
@@ -2902,7 +2811,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.2693116028556</v>
+        <v>374.3019063171539</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2915,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01798575089460603</v>
+        <v>-0.01941049487011481</v>
       </c>
       <c r="C17" t="n">
-        <v>3.665943190854669e-07</v>
+        <v>3.889793232675998e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2928,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.250940251046764e-06</v>
+        <v>-4.727501247547152e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03726173944122765</v>
+        <v>0.06004850283175455</v>
       </c>
     </row>
     <row r="19">
@@ -2941,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.82939925421223</v>
+        <v>-12.34991706881708</v>
       </c>
       <c r="C19" t="n">
-        <v>5.346085944331097e-28</v>
+        <v>1.362929990026834e-22</v>
       </c>
     </row>
     <row r="20">
@@ -2954,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.34552645804578</v>
+        <v>9.001970218895252</v>
       </c>
       <c r="C20" t="n">
-        <v>1.553957155789994e-12</v>
+        <v>5.809101170055454e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2967,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3122.157061640347</v>
+        <v>-3248.681837814986</v>
       </c>
       <c r="C21" t="n">
-        <v>2.215386927547556e-46</v>
+        <v>3.540773406956261e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2980,23 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1544.556863745444</v>
+        <v>-1589.749208461335</v>
       </c>
       <c r="C22" t="n">
-        <v>8.382363635340312e-24</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>314.6325349596277</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1669210739593829</v>
+        <v>5.280606328785023e-25</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9897.521399287492</v>
+        <v>9948.477699713638</v>
       </c>
       <c r="C2" t="n">
-        <v>1.730340702658624e-261</v>
+        <v>6.842078733350387e-278</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1268.730010301057</v>
+        <v>-1222.233230096812</v>
       </c>
       <c r="C3" t="n">
-        <v>4.350102217717693e-25</v>
+        <v>5.036673842029984e-23</v>
       </c>
     </row>
     <row r="4">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-737.4432501737051</v>
+        <v>-658.7727731104201</v>
       </c>
       <c r="C4" t="n">
-        <v>1.915847338526868e-22</v>
+        <v>2.767898575315917e-18</v>
       </c>
     </row>
     <row r="5">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-204.1382801955077</v>
+        <v>-119.608687414527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002989573503644179</v>
+        <v>0.0820707164985218</v>
       </c>
     </row>
     <row r="6">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.11338332424071</v>
+        <v>27.65750318357648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8819594814401001</v>
+        <v>0.7117735256203295</v>
       </c>
     </row>
     <row r="7">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.561507571111</v>
+        <v>-169.9084959449715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1815911292955126</v>
+        <v>0.0895402408286638</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-319.4633797298584</v>
+        <v>-355.154318544075</v>
       </c>
       <c r="C8" t="n">
-        <v>4.119032629437846e-06</v>
+        <v>3.148883180566888e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1837.531779716148</v>
+        <v>-1903.46756664667</v>
       </c>
       <c r="C9" t="n">
-        <v>5.34847982837994e-45</v>
+        <v>3.97630102565232e-48</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1094.701625219921</v>
+        <v>-1112.818892650846</v>
       </c>
       <c r="C10" t="n">
-        <v>3.528346033365683e-17</v>
+        <v>1.042569833627018e-17</v>
       </c>
     </row>
     <row r="11">
@@ -3159,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1661.237014913399</v>
+        <v>-1741.939407579955</v>
       </c>
       <c r="C11" t="n">
-        <v>3.821261262479006e-31</v>
+        <v>2.236510928081066e-35</v>
       </c>
     </row>
     <row r="12">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.14564076248128</v>
+        <v>16.67202879775598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1293282139395703</v>
+        <v>0.3344526515815129</v>
       </c>
     </row>
     <row r="13">
@@ -3185,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1192.317778636344</v>
+        <v>-1193.599221732573</v>
       </c>
       <c r="C13" t="n">
-        <v>1.426781377681877e-178</v>
+        <v>1.737854747577846e-178</v>
       </c>
     </row>
     <row r="14">
@@ -3198,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.59677379015218</v>
+        <v>-19.72147503779615</v>
       </c>
       <c r="C14" t="n">
-        <v>9.177020463634362e-28</v>
+        <v>3.897018919304313e-28</v>
       </c>
     </row>
     <row r="15">
@@ -3211,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.5541296986971</v>
+        <v>149.5793451389989</v>
       </c>
       <c r="C15" t="n">
-        <v>2.527901363401935e-40</v>
+        <v>3.406070215355498e-44</v>
       </c>
     </row>
     <row r="16">
@@ -3224,7 +3120,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.2423309287404</v>
+        <v>371.3317030348686</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3237,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0214248415372899</v>
+        <v>-0.01786832231423537</v>
       </c>
       <c r="C17" t="n">
-        <v>1.419212204588613e-09</v>
+        <v>4.416137319513082e-07</v>
       </c>
     </row>
     <row r="18">
@@ -3250,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.219812604212756e-06</v>
+        <v>-6.2838037924763e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09572439022910642</v>
+        <v>0.01262594397840055</v>
       </c>
     </row>
     <row r="19">
@@ -3263,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.89109992606573</v>
+        <v>-13.08195732741139</v>
       </c>
       <c r="C19" t="n">
-        <v>1.597923495002545e-24</v>
+        <v>3.347955375167898e-25</v>
       </c>
     </row>
     <row r="20">
@@ -3276,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.766004540192931</v>
+        <v>8.655229798546305</v>
       </c>
       <c r="C20" t="n">
-        <v>2.255317349561811e-09</v>
+        <v>2.329948790672306e-09</v>
       </c>
     </row>
     <row r="21">
@@ -3289,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3186.214823012045</v>
+        <v>-3180.458859752185</v>
       </c>
       <c r="C21" t="n">
-        <v>3.31674836473813e-48</v>
+        <v>4.05005465242879e-48</v>
       </c>
     </row>
     <row r="22">
@@ -3302,23 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1541.444988562078</v>
+        <v>-1584.177414306189</v>
       </c>
       <c r="C22" t="n">
-        <v>1.161500613952264e-23</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>338.0450281111362</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1379067979944381</v>
+        <v>7.989227352363679e-25</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58101212" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ05221102" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12285998" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19136934" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ25758992" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32310473" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ39126782" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ46101698" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ54387278" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31109471" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52855637" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10042081" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18038994" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26374957" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34669728" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42575960" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50296179" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ59261357" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9938.795605283945</v>
+        <v>9938.795605283838</v>
       </c>
       <c r="C2" t="n">
-        <v>1.22422570482303e-275</v>
+        <v>1.224225704838073e-275</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1254.703767228046</v>
+        <v>-1254.703767228016</v>
       </c>
       <c r="C3" t="n">
-        <v>2.335874823482613e-24</v>
+        <v>2.335874823484993e-24</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-703.2295690541806</v>
+        <v>-703.2295690541619</v>
       </c>
       <c r="C4" t="n">
-        <v>1.731241452027592e-20</v>
+        <v>1.731241452031001e-20</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-157.3691123613296</v>
+        <v>-157.3691123613295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02251342680584803</v>
+        <v>0.02251342680584754</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.295162579459017</v>
+        <v>9.295162579489244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9013173584028991</v>
+        <v>0.90131735840258</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-103.1195910945769</v>
+        <v>-103.1195910945912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3026196117157745</v>
+        <v>0.3026196117157076</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-347.8055016689595</v>
+        <v>-347.8055016689519</v>
       </c>
       <c r="C8" t="n">
-        <v>5.673719818054409e-07</v>
+        <v>5.673719818057806e-07</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1875.130426192924</v>
+        <v>-1875.130426192851</v>
       </c>
       <c r="C9" t="n">
-        <v>9.660031398784924e-47</v>
+        <v>9.660031398860104e-47</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1135.626567512169</v>
+        <v>-1135.626567512023</v>
       </c>
       <c r="C10" t="n">
-        <v>2.157899392622014e-18</v>
+        <v>2.157899392643272e-18</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1729.32362348874</v>
+        <v>-1729.323623488715</v>
       </c>
       <c r="C11" t="n">
-        <v>7.395782092318074e-35</v>
+        <v>7.395782092333521e-35</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.22027852615493</v>
+        <v>23.22027852615415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1779494322188043</v>
+        <v>0.1779494322188193</v>
       </c>
     </row>
     <row r="13">
@@ -612,7 +612,7 @@
         <v>-1197.18799065438</v>
       </c>
       <c r="C13" t="n">
-        <v>4.433261056818087e-179</v>
+        <v>4.433261056811779e-179</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-17.23429859597396</v>
+        <v>-17.2342985959741</v>
       </c>
       <c r="C14" t="n">
-        <v>9.265371375155554e-22</v>
+        <v>9.2653713751497e-22</v>
       </c>
     </row>
     <row r="15">
@@ -638,7 +638,7 @@
         <v>153.5713738796453</v>
       </c>
       <c r="C15" t="n">
-        <v>2.518772616220292e-46</v>
+        <v>2.518772616220652e-46</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.3834907817177</v>
+        <v>370.3834907817185</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02090443924325472</v>
+        <v>-0.02090443924324253</v>
       </c>
       <c r="C17" t="n">
-        <v>3.60496205640181e-09</v>
+        <v>3.604962056457423e-09</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.079070143157461e-06</v>
+        <v>-4.079070143201705e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1065438272012002</v>
+        <v>0.1065438271975032</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.3052591339153</v>
+        <v>-13.30525913391522</v>
       </c>
       <c r="C19" t="n">
-        <v>6.452932389445504e-26</v>
+        <v>6.452932389450499e-26</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.851232998568974</v>
+        <v>7.851232998569001</v>
       </c>
       <c r="C20" t="n">
-        <v>7.474471485991466e-08</v>
+        <v>7.474471485990711e-08</v>
       </c>
     </row>
     <row r="21">
@@ -716,7 +716,7 @@
         <v>-3257.169255851396</v>
       </c>
       <c r="C21" t="n">
-        <v>3.638275087240262e-50</v>
+        <v>3.638275087240003e-50</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1540.790912776202</v>
+        <v>-1540.790912776203</v>
       </c>
       <c r="C22" t="n">
-        <v>1.917351919317428e-23</v>
+        <v>1.917351919317249e-23</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10061.92562230139</v>
+        <v>10061.92562230057</v>
       </c>
       <c r="C2" t="n">
-        <v>3.363339697538458e-285</v>
+        <v>3.363339697617669e-285</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1188.107770086515</v>
+        <v>-1188.107770087815</v>
       </c>
       <c r="C3" t="n">
-        <v>2.643433605452918e-22</v>
+        <v>2.643433605304189e-22</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-658.5722894522085</v>
+        <v>-658.5722894521861</v>
       </c>
       <c r="C4" t="n">
-        <v>2.642157538671356e-18</v>
+        <v>2.642157538669037e-18</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-160.3911872564615</v>
+        <v>-160.3911872564842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01942437722163936</v>
+        <v>0.01942437722162388</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57.28242484234697</v>
+        <v>-57.28242484211971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4432649998613277</v>
+        <v>0.4432649998631367</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-248.2184580304761</v>
+        <v>-248.2184580305279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01287186341319204</v>
+        <v>0.01287186341317309</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-399.1522589069278</v>
+        <v>-399.1522589070919</v>
       </c>
       <c r="C8" t="n">
-        <v>7.960626186595868e-09</v>
+        <v>7.960626186484467e-09</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1876.201852721325</v>
+        <v>-1876.201852720203</v>
       </c>
       <c r="C9" t="n">
-        <v>4.70894548117082e-47</v>
+        <v>4.708945481871167e-47</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1122.005408122153</v>
+        <v>-1122.005408120902</v>
       </c>
       <c r="C10" t="n">
-        <v>5.076995995722542e-18</v>
+        <v>5.076995996153763e-18</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1721.686339681282</v>
+        <v>-1721.68633968106</v>
       </c>
       <c r="C11" t="n">
-        <v>9.847396941960658e-35</v>
+        <v>9.84739694215983e-35</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.40499840831811</v>
+        <v>12.40499840836703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.470980046651404</v>
+        <v>0.4709800466496585</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1169.628176585388</v>
+        <v>-1169.62817658538</v>
       </c>
       <c r="C13" t="n">
-        <v>5.042762054205711e-172</v>
+        <v>5.04276205423183e-172</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.36069536666317</v>
+        <v>-19.36069536666152</v>
       </c>
       <c r="C14" t="n">
-        <v>3.226206678247136e-27</v>
+        <v>3.226206678279638e-27</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.0311261810135</v>
+        <v>147.031126181087</v>
       </c>
       <c r="C15" t="n">
-        <v>1.468903181999782e-42</v>
+        <v>1.468903181863129e-42</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.333879639576</v>
+        <v>368.3338796395998</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02016523943335124</v>
+        <v>-0.02016523943325712</v>
       </c>
       <c r="C17" t="n">
-        <v>1.12963238550122e-08</v>
+        <v>1.129632385672543e-08</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.870378629415408e-06</v>
+        <v>-3.870378664437671e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1203705656425579</v>
+        <v>0.1203705623262463</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.50673298605257</v>
+        <v>-13.50673298605259</v>
       </c>
       <c r="C19" t="n">
-        <v>1.139535786498621e-26</v>
+        <v>1.139535786498514e-26</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.340326100888483</v>
+        <v>8.340326100888436</v>
       </c>
       <c r="C20" t="n">
-        <v>7.971443830770353e-09</v>
+        <v>7.971443830772303e-09</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3305.904227522201</v>
+        <v>-3305.904227522195</v>
       </c>
       <c r="C21" t="n">
-        <v>9.896670158964776e-52</v>
+        <v>9.896670158967037e-52</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1522.192862729143</v>
+        <v>-1522.192862729138</v>
       </c>
       <c r="C22" t="n">
-        <v>3.859326861320192e-23</v>
+        <v>3.859326861321577e-23</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9824.2417620412</v>
+        <v>9824.241762039725</v>
       </c>
       <c r="C2" t="n">
-        <v>8.865943084697785e-272</v>
+        <v>8.865943085101285e-272</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1246.209359446651</v>
+        <v>-1246.209359447103</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645686392964908e-24</v>
+        <v>3.645686392888596e-24</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-709.4041123876812</v>
+        <v>-709.4041123876605</v>
       </c>
       <c r="C4" t="n">
-        <v>6.677510798718377e-21</v>
+        <v>6.677510798724232e-21</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-175.3960232721507</v>
+        <v>-175.3960232722384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01078606801889762</v>
+        <v>0.01078606801886631</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.74105906495367</v>
+        <v>-26.74105906517642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7210705538397689</v>
+        <v>0.7210705538375415</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-85.02808384791371</v>
+        <v>-85.02808384800522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3943946372112097</v>
+        <v>0.3943946372107002</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-351.6855706889947</v>
+        <v>-351.6855706888036</v>
       </c>
       <c r="C8" t="n">
-        <v>4.053176862165111e-07</v>
+        <v>4.053176862223239e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1800.923585276354</v>
+        <v>-1800.923585275372</v>
       </c>
       <c r="C9" t="n">
-        <v>1.427856282551518e-43</v>
+        <v>1.427856282729574e-43</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1083.757137728107</v>
+        <v>-1083.757137726821</v>
       </c>
       <c r="C10" t="n">
-        <v>5.631694974960653e-17</v>
+        <v>5.631694975438541e-17</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1641.677182426532</v>
+        <v>-1641.677182424985</v>
       </c>
       <c r="C11" t="n">
-        <v>9.337351695607999e-32</v>
+        <v>9.337351696877608e-32</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.7713113844626</v>
+        <v>33.77131138447079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05079099211342263</v>
+        <v>0.0507909921133675</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1151.40728741469</v>
+        <v>-1151.407287414698</v>
       </c>
       <c r="C13" t="n">
-        <v>1.984908166529436e-166</v>
+        <v>1.984908166519042e-166</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.81954343528321</v>
+        <v>-18.81954343528526</v>
       </c>
       <c r="C14" t="n">
-        <v>1.037172787182515e-25</v>
+        <v>1.037172787170075e-25</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.3481418561805</v>
+        <v>149.348141856133</v>
       </c>
       <c r="C15" t="n">
-        <v>8.933061603869682e-44</v>
+        <v>8.933061604413637e-44</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.2721867898966</v>
+        <v>365.2721867898842</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01774325248010255</v>
+        <v>-0.01774325248008451</v>
       </c>
       <c r="C17" t="n">
-        <v>4.827559977204077e-07</v>
+        <v>4.827559977320164e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.465731369809509e-06</v>
+        <v>-6.465731373162223e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01009780327785196</v>
+        <v>0.01009780323660053</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.18789369418882</v>
+        <v>-13.18789369418872</v>
       </c>
       <c r="C19" t="n">
-        <v>1.198860163425483e-25</v>
+        <v>1.198860163426627e-25</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.184903170814497</v>
+        <v>9.184903170814563</v>
       </c>
       <c r="C20" t="n">
-        <v>2.168730369420956e-10</v>
+        <v>2.16873036942023e-10</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3415.087385440356</v>
+        <v>-3415.087385440362</v>
       </c>
       <c r="C21" t="n">
-        <v>3.459974690316354e-55</v>
+        <v>3.459974690315021e-55</v>
       </c>
     </row>
     <row r="22">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10214.96113395842</v>
+        <v>10214.96113395667</v>
       </c>
       <c r="C2" t="n">
-        <v>7.846928544007643e-293</v>
+        <v>7.846928544308505e-293</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1243.429612360507</v>
+        <v>-1243.429612362447</v>
       </c>
       <c r="C3" t="n">
-        <v>4.164917254990115e-24</v>
+        <v>4.164917254598491e-24</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-760.0828540393228</v>
+        <v>-760.0828540393359</v>
       </c>
       <c r="C4" t="n">
-        <v>7.832375032074429e-24</v>
+        <v>7.832375032060267e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-187.4720213688737</v>
+        <v>-187.4720213689097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006337722615734192</v>
+        <v>0.006337722615724841</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.48833476000419</v>
+        <v>87.48833475953074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2422408827658526</v>
+        <v>0.2422408827684002</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-72.01084854164736</v>
+        <v>-72.0108485415908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4703394278611511</v>
+        <v>0.4703394278614996</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-253.68706185219</v>
+        <v>-253.68706185225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002524024755677769</v>
+        <v>0.0002524024755669333</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1917.161149050979</v>
+        <v>-1917.161149051576</v>
       </c>
       <c r="C9" t="n">
-        <v>2.076850807580681e-49</v>
+        <v>2.076850807411006e-49</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1159.501928584503</v>
+        <v>-1159.501928585041</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6659969772231e-19</v>
+        <v>2.665996977122483e-19</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1731.23779037948</v>
+        <v>-1731.237790381144</v>
       </c>
       <c r="C11" t="n">
-        <v>2.780674135538411e-35</v>
+        <v>2.780674135109495e-35</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.52954375800758</v>
+        <v>21.52954375807661</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2117360167567206</v>
+        <v>0.211736016755262</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1206.276563818761</v>
+        <v>-1206.276563818763</v>
       </c>
       <c r="C13" t="n">
-        <v>8.486013947339034e-183</v>
+        <v>8.486013947326962e-183</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.55155480771435</v>
+        <v>-19.55155480771268</v>
       </c>
       <c r="C14" t="n">
-        <v>1.062641876351964e-27</v>
+        <v>1.062641876362813e-27</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.5276631176877</v>
+        <v>143.5276631177575</v>
       </c>
       <c r="C15" t="n">
-        <v>7.601849854443038e-41</v>
+        <v>7.601849853780315e-41</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.7095049973998</v>
+        <v>365.7095049974536</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02080129038392698</v>
+        <v>-0.0208012903837849</v>
       </c>
       <c r="C17" t="n">
-        <v>3.805034727733184e-09</v>
+        <v>3.80503472865775e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.599819432140695e-06</v>
+        <v>-6.599819428970865e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008443766002475914</v>
+        <v>0.00844376603411651</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.44451048727126</v>
+        <v>-14.44451048727118</v>
       </c>
       <c r="C19" t="n">
-        <v>2.598202229439381e-30</v>
+        <v>2.598202229441242e-30</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.471028900236165</v>
+        <v>7.471028900236199</v>
       </c>
       <c r="C20" t="n">
-        <v>2.553849840292631e-07</v>
+        <v>2.553849840292246e-07</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3383.798666216392</v>
+        <v>-3383.798666216394</v>
       </c>
       <c r="C21" t="n">
-        <v>4.010140612025731e-54</v>
+        <v>4.010140612025101e-54</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1476.654249517131</v>
+        <v>-1476.654249517133</v>
       </c>
       <c r="C22" t="n">
-        <v>6.89330605053689e-22</v>
+        <v>6.893306050535948e-22</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9504.004706765787</v>
+        <v>9504.004706765765</v>
       </c>
       <c r="C2" t="n">
-        <v>6.1346158022049e-253</v>
+        <v>6.134615802185355e-253</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1231.752947192762</v>
+        <v>-1231.752947192795</v>
       </c>
       <c r="C3" t="n">
-        <v>1.179587901117949e-23</v>
+        <v>1.179587901117094e-23</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-675.2726819655535</v>
+        <v>-675.2726819655589</v>
       </c>
       <c r="C4" t="n">
-        <v>3.037757544796046e-19</v>
+        <v>3.037757544794736e-19</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-175.0859654607744</v>
+        <v>-175.0859654607779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01056301864590246</v>
+        <v>0.01056301864590117</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59.10153957852296</v>
+        <v>-59.1015395785281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4295209269233758</v>
+        <v>0.4295209269233371</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-189.3102005249739</v>
+        <v>-189.3102005249972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.057755865496726</v>
+        <v>0.0577558654966947</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-407.6711689658837</v>
+        <v>-407.6711689658852</v>
       </c>
       <c r="C8" t="n">
-        <v>4.193310654603028e-09</v>
+        <v>4.193310654602646e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1654.132374731496</v>
+        <v>-1654.132374731478</v>
       </c>
       <c r="C9" t="n">
-        <v>3.129870086787965e-37</v>
+        <v>3.129870086795752e-37</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-971.0283838679588</v>
+        <v>-971.0283838679406</v>
       </c>
       <c r="C10" t="n">
-        <v>5.16376308514888e-14</v>
+        <v>5.163763085155186e-14</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1529.255285264747</v>
+        <v>-1529.25528526474</v>
       </c>
       <c r="C11" t="n">
-        <v>6.938560049838413e-28</v>
+        <v>6.938560049842389e-28</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.25769209912718</v>
+        <v>28.25769209912677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002352504899664</v>
+        <v>0.1002352504899713</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1173.632645323419</v>
+        <v>-1173.632645323415</v>
       </c>
       <c r="C13" t="n">
-        <v>7.225183047242227e-174</v>
+        <v>7.225183047254564e-174</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.11636230706832</v>
+        <v>-19.11636230706807</v>
       </c>
       <c r="C14" t="n">
-        <v>1.129765117693883e-26</v>
+        <v>1.129765117695437e-26</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.5144523486139</v>
+        <v>149.5144523486144</v>
       </c>
       <c r="C15" t="n">
-        <v>3.45022883000852e-44</v>
+        <v>3.450228830006351e-44</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.3898550036878</v>
+        <v>370.3898550036876</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01947092308363172</v>
+        <v>-0.0194709230836263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.237925555586249e-08</v>
+        <v>3.237925555611453e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.807467202652275e-06</v>
+        <v>-2.807467202659995e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2681671108692087</v>
+        <v>0.2681671108678023</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.39258146089847</v>
+        <v>-12.3925814608986</v>
       </c>
       <c r="C19" t="n">
-        <v>7.57424785576551e-23</v>
+        <v>7.574247855760999e-23</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.74984409364984</v>
+        <v>10.74984409364992</v>
       </c>
       <c r="C20" t="n">
-        <v>1.870230660987709e-13</v>
+        <v>1.870230660986918e-13</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3262.344528166748</v>
+        <v>-3262.344528166745</v>
       </c>
       <c r="C21" t="n">
-        <v>9.094335656507302e-51</v>
+        <v>9.094335656510027e-51</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1589.247175753558</v>
+        <v>-1589.247175753552</v>
       </c>
       <c r="C22" t="n">
-        <v>3.467879664840148e-25</v>
+        <v>3.46787966484174e-25</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9699.086272006665</v>
+        <v>9699.086272008368</v>
       </c>
       <c r="C2" t="n">
-        <v>2.126299119840806e-264</v>
+        <v>2.126299119751533e-264</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1132.428249879226</v>
+        <v>-1132.428249879636</v>
       </c>
       <c r="C3" t="n">
-        <v>2.036183306647104e-20</v>
+        <v>2.03618330661238e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-671.6012590992328</v>
+        <v>-671.6012590993491</v>
       </c>
       <c r="C4" t="n">
-        <v>6.22270743244193e-19</v>
+        <v>6.2227074324422e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-129.7706585144052</v>
+        <v>-129.770658514416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0592190366662048</v>
+        <v>0.05921903666618648</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.57192863922836</v>
+        <v>65.57192863865596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3806914713394749</v>
+        <v>0.380691471343631</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.864144975811</v>
+        <v>-133.8641449758452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1791941359037058</v>
+        <v>0.1791941359035943</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-370.6005043030945</v>
+        <v>-370.600504303209</v>
       </c>
       <c r="C8" t="n">
-        <v>9.220200683294134e-08</v>
+        <v>9.22020068321039e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1790.941844585483</v>
+        <v>-1790.941844584777</v>
       </c>
       <c r="C9" t="n">
-        <v>3.168039809789333e-43</v>
+        <v>3.168039810069552e-43</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1072.909042131232</v>
+        <v>-1072.909042130916</v>
       </c>
       <c r="C10" t="n">
-        <v>9.788028776100008e-17</v>
+        <v>9.788028776302846e-17</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1669.336453804807</v>
+        <v>-1669.336453803191</v>
       </c>
       <c r="C11" t="n">
-        <v>8.199729126092203e-33</v>
+        <v>8.199729127273861e-33</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.450451935682466</v>
+        <v>4.450451935672469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7956141172695299</v>
+        <v>0.795614117269978</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1197.493551175089</v>
+        <v>-1197.493551175097</v>
       </c>
       <c r="C13" t="n">
-        <v>2.352842855696841e-180</v>
+        <v>2.352842855685726e-180</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.7482334345611</v>
+        <v>-20.74823343456319</v>
       </c>
       <c r="C14" t="n">
-        <v>5.375567550312097e-31</v>
+        <v>5.375567550239298e-31</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.6839384293018</v>
+        <v>151.683938429253</v>
       </c>
       <c r="C15" t="n">
-        <v>2.625405324316916e-45</v>
+        <v>2.625405324485078e-45</v>
       </c>
     </row>
     <row r="16">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>373.8658459276057</v>
+        <v>373.8658459275951</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01942117107758671</v>
+        <v>-0.01942117107749115</v>
       </c>
       <c r="C17" t="n">
-        <v>3.55197328003928e-08</v>
+        <v>3.551973280574168e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.763102553659089e-06</v>
+        <v>-4.763102552434075e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05818426854837878</v>
+        <v>0.05818426861012502</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.91389866839754</v>
+        <v>-12.91389866839742</v>
       </c>
       <c r="C19" t="n">
-        <v>1.257309579685218e-24</v>
+        <v>1.257309579686427e-24</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.250648042813</v>
+        <v>10.2506480428131</v>
       </c>
       <c r="C20" t="n">
-        <v>1.824022499539017e-12</v>
+        <v>1.824022499538158e-12</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3235.30621928203</v>
+        <v>-3235.306219282032</v>
       </c>
       <c r="C21" t="n">
-        <v>8.118222872388065e-50</v>
+        <v>8.118222872387138e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1461.800727607755</v>
+        <v>-1461.800727607756</v>
       </c>
       <c r="C22" t="n">
-        <v>1.722799631367059e-21</v>
+        <v>1.722799631367096e-21</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9794.062362436294</v>
+        <v>9794.0623624377</v>
       </c>
       <c r="C2" t="n">
-        <v>2.972591452751035e-269</v>
+        <v>2.972591452642468e-269</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1165.262104794886</v>
+        <v>-1165.262104796469</v>
       </c>
       <c r="C3" t="n">
-        <v>3.566284676655075e-21</v>
+        <v>3.566284676402379e-21</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-701.1585684479851</v>
+        <v>-701.1585684478767</v>
       </c>
       <c r="C4" t="n">
-        <v>2.30524414237567e-20</v>
+        <v>2.305244142377675e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-179.5585505120687</v>
+        <v>-179.5585505119603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009224097814960159</v>
+        <v>0.009224097814993703</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.886340492325203</v>
+        <v>-6.886340492693563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9267439905457112</v>
+        <v>0.9267439905418035</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-199.6487086638212</v>
+        <v>-199.6487086638324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0461921292691554</v>
+        <v>0.04619212926914346</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-336.5516099794331</v>
+        <v>-336.551609979537</v>
       </c>
       <c r="C8" t="n">
-        <v>1.278618603487723e-06</v>
+        <v>1.278618603478153e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1780.126548093496</v>
+        <v>-1780.126548094406</v>
       </c>
       <c r="C9" t="n">
-        <v>1.152727834931355e-42</v>
+        <v>1.152727834800865e-42</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1046.435792556169</v>
+        <v>-1046.435792557013</v>
       </c>
       <c r="C10" t="n">
-        <v>5.75957034942253e-16</v>
+        <v>5.759570349112541e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1651.873053195077</v>
+        <v>-1651.873053196599</v>
       </c>
       <c r="C11" t="n">
-        <v>3.414367270163551e-32</v>
+        <v>3.414367269704034e-32</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.907883602666004</v>
+        <v>1.907883602667383</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9121052133872758</v>
+        <v>0.9121052133872127</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1208.71643005107</v>
+        <v>-1208.716430051062</v>
       </c>
       <c r="C13" t="n">
-        <v>1.66930004916968e-182</v>
+        <v>1.66930004918222e-182</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.4354724202131</v>
+        <v>-18.4354724202105</v>
       </c>
       <c r="C14" t="n">
-        <v>1.223803302621414e-24</v>
+        <v>1.223803302639652e-24</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9827459495576</v>
+        <v>148.9827459495725</v>
       </c>
       <c r="C15" t="n">
-        <v>1.060938814460007e-43</v>
+        <v>1.060938814439685e-43</v>
       </c>
     </row>
     <row r="16">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.4437693704373</v>
+        <v>370.4437693704761</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01966715437267113</v>
+        <v>-0.0196671543725688</v>
       </c>
       <c r="C17" t="n">
-        <v>2.584975684609003e-08</v>
+        <v>2.584975685043271e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.199769024744631e-06</v>
+        <v>-5.199769021611962e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03980564904487118</v>
+        <v>0.03980564916190826</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.60145861295287</v>
+        <v>-12.60145861295293</v>
       </c>
       <c r="C19" t="n">
-        <v>2.089763849539368e-23</v>
+        <v>2.089763849538724e-23</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.130645283065201</v>
+        <v>9.130645283065149</v>
       </c>
       <c r="C20" t="n">
-        <v>2.878687746554405e-10</v>
+        <v>2.878687746555358e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3241.421926192529</v>
+        <v>-3241.421926192526</v>
       </c>
       <c r="C21" t="n">
-        <v>7.341347553520021e-50</v>
+        <v>7.341347553522012e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1476.647469428251</v>
+        <v>-1476.647469428249</v>
       </c>
       <c r="C22" t="n">
-        <v>8.784543312803021e-22</v>
+        <v>8.784543312804281e-22</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9936.962380863857</v>
+        <v>9936.962380863852</v>
       </c>
       <c r="C2" t="n">
-        <v>6.136003740600284e-277</v>
+        <v>6.136003740584925e-277</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1231.806383725329</v>
+        <v>-1231.806383725351</v>
       </c>
       <c r="C3" t="n">
-        <v>1.212091405579615e-23</v>
+        <v>1.21209140557872e-23</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-730.1664467327249</v>
+        <v>-730.1664467327205</v>
       </c>
       <c r="C4" t="n">
-        <v>4.213080954515656e-22</v>
+        <v>4.213080954516655e-22</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-208.2057382356608</v>
+        <v>-208.2057382356584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002460622606442145</v>
+        <v>0.002460622606442307</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008707806354010472</v>
+        <v>0.008707806362252768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999071766067276</v>
+        <v>0.9999071766066399</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-122.1472351440262</v>
+        <v>-122.1472351440187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2216929671323503</v>
+        <v>0.2216929671323781</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-347.2894119191064</v>
+        <v>-347.2894119190956</v>
       </c>
       <c r="C8" t="n">
-        <v>5.466658920976687e-07</v>
+        <v>5.466658920981087e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1906.588382712473</v>
+        <v>-1906.588382712493</v>
       </c>
       <c r="C9" t="n">
-        <v>2.123554601515838e-48</v>
+        <v>2.123554601509805e-48</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1136.533332023522</v>
+        <v>-1136.533332023551</v>
       </c>
       <c r="C10" t="n">
-        <v>2.024422823647763e-18</v>
+        <v>2.024422823643597e-18</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1791.575483602926</v>
+        <v>-1791.575483602951</v>
       </c>
       <c r="C11" t="n">
-        <v>2.385459510325484e-37</v>
+        <v>2.385459510319993e-37</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.47397473381855</v>
+        <v>20.47397473381995</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2343022586164513</v>
+        <v>0.2343022586164185</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1177.230641606489</v>
+        <v>-1177.230641606485</v>
       </c>
       <c r="C13" t="n">
-        <v>5.686954162438935e-174</v>
+        <v>5.68695416245091e-174</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.80517601330434</v>
+        <v>-19.80517601330437</v>
       </c>
       <c r="C14" t="n">
-        <v>2.275380668456717e-28</v>
+        <v>2.275380668455561e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2378737368619</v>
+        <v>150.2378737368616</v>
       </c>
       <c r="C15" t="n">
-        <v>1.469311466844299e-44</v>
+        <v>1.469311466845243e-44</v>
       </c>
     </row>
     <row r="16">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.3019063171539</v>
+        <v>374.3019063171544</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01941049487011481</v>
+        <v>-0.01941049487005576</v>
       </c>
       <c r="C17" t="n">
-        <v>3.889793232675998e-08</v>
+        <v>3.889793233046544e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.727501247547152e-06</v>
+        <v>-4.727501247334884e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06004850283175455</v>
+        <v>0.06004850284349199</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.34991706881708</v>
+        <v>-12.34991706881706</v>
       </c>
       <c r="C19" t="n">
-        <v>1.362929990026834e-22</v>
+        <v>1.362929990026952e-22</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.001970218895252</v>
+        <v>9.001970218895401</v>
       </c>
       <c r="C20" t="n">
-        <v>5.809101170055454e-10</v>
+        <v>5.809101170051201e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3248.681837814986</v>
+        <v>-3248.681837814987</v>
       </c>
       <c r="C21" t="n">
-        <v>3.540773406956261e-50</v>
+        <v>3.540773406956109e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2892,7 +2892,7 @@
         <v>-1589.749208461335</v>
       </c>
       <c r="C22" t="n">
-        <v>5.280606328785023e-25</v>
+        <v>5.280606328785364e-25</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9948.477699713638</v>
+        <v>9948.477699715615</v>
       </c>
       <c r="C2" t="n">
-        <v>6.842078733350387e-278</v>
+        <v>6.842078733049119e-278</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1222.233230096812</v>
+        <v>-1222.233230098465</v>
       </c>
       <c r="C3" t="n">
-        <v>5.036673842029984e-23</v>
+        <v>5.036673841677043e-23</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-658.7727731104201</v>
+        <v>-658.7727731104803</v>
       </c>
       <c r="C4" t="n">
-        <v>2.767898575315917e-18</v>
+        <v>2.767898575316316e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-119.608687414527</v>
+        <v>-119.6086874145237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0820707164985218</v>
+        <v>0.08207071649852857</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.65750318357648</v>
+        <v>27.65750318358573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7117735256203295</v>
+        <v>0.7117735256202375</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-169.9084959449715</v>
+        <v>-169.9084959449131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0895402408286638</v>
+        <v>0.08954024082877492</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-355.154318544075</v>
+        <v>-355.1543185441984</v>
       </c>
       <c r="C8" t="n">
-        <v>3.148883180566888e-07</v>
+        <v>3.148883180537497e-07</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1903.46756664667</v>
+        <v>-1903.467566646196</v>
       </c>
       <c r="C9" t="n">
-        <v>3.97630102565232e-48</v>
+        <v>3.976301025903471e-48</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1112.818892650846</v>
+        <v>-1112.818892650574</v>
       </c>
       <c r="C10" t="n">
-        <v>1.042569833627018e-17</v>
+        <v>1.042569833646279e-17</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1741.939407579955</v>
+        <v>-1741.939407579752</v>
       </c>
       <c r="C11" t="n">
-        <v>2.236510928081066e-35</v>
+        <v>2.236510928122552e-35</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.67202879775598</v>
+        <v>16.67202879778694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3344526515815129</v>
+        <v>0.3344526515806173</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1193.599221732573</v>
+        <v>-1193.599221732575</v>
       </c>
       <c r="C13" t="n">
-        <v>1.737854747577846e-178</v>
+        <v>1.737854747574681e-178</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.72147503779615</v>
+        <v>-19.72147503779623</v>
       </c>
       <c r="C14" t="n">
-        <v>3.897018919304313e-28</v>
+        <v>3.897018919301912e-28</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.5793451389989</v>
+        <v>149.5793451390287</v>
       </c>
       <c r="C15" t="n">
-        <v>3.406070215355498e-44</v>
+        <v>3.40607021522395e-44</v>
       </c>
     </row>
     <row r="16">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.3317030348686</v>
+        <v>371.3317030348815</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01786832231423537</v>
+        <v>-0.01786832231427493</v>
       </c>
       <c r="C17" t="n">
-        <v>4.416137319513082e-07</v>
+        <v>4.416137319281196e-07</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.2838037924763e-06</v>
+        <v>-6.283803788840437e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01262594397840055</v>
+        <v>0.01262594402904619</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.08195732741139</v>
+        <v>-13.08195732741151</v>
       </c>
       <c r="C19" t="n">
-        <v>3.347955375167898e-25</v>
+        <v>3.347955375165162e-25</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.655229798546305</v>
+        <v>8.655229798546255</v>
       </c>
       <c r="C20" t="n">
-        <v>2.329948790672306e-09</v>
+        <v>2.329948790672791e-09</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3180.458859752185</v>
+        <v>-3180.458859752187</v>
       </c>
       <c r="C21" t="n">
-        <v>4.05005465242879e-48</v>
+        <v>4.050054652428327e-48</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1584.177414306189</v>
+        <v>-1584.177414306186</v>
       </c>
       <c r="C22" t="n">
-        <v>7.989227352363679e-25</v>
+        <v>7.98922735236574e-25</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31109471" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52855637" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10042081" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18038994" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26374957" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ34669728" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ42575960" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50296179" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59261357" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ15521233" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26595024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36978498" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46876033" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ56495105" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ06128269" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ15792861" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ25115217" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37004755" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9938.795605283838</v>
+        <v>11243.79617795625</v>
       </c>
       <c r="C2" t="n">
-        <v>1.224225704838073e-275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1254.703767228016</v>
+        <v>-1087.598754232779</v>
       </c>
       <c r="C3" t="n">
-        <v>2.335874823484993e-24</v>
+        <v>7.883062979730674e-17</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-703.2295690541619</v>
+        <v>-629.9934058528731</v>
       </c>
       <c r="C4" t="n">
-        <v>1.731241452031001e-20</v>
+        <v>4.661414354048255e-15</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-157.3691123613295</v>
+        <v>-42.34593634253093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02251342680584754</v>
+        <v>0.5615324586307419</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.295162579489244</v>
+        <v>0.9772999840473346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.90131735840258</v>
+        <v>0.99017650071507</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-103.1195910945912</v>
+        <v>-108.4515537124643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3026196117157076</v>
+        <v>0.2997803427196951</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-347.8055016689519</v>
+        <v>-184.4369065427579</v>
       </c>
       <c r="C8" t="n">
-        <v>5.673719818057806e-07</v>
+        <v>0.01225590129741722</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1875.130426192851</v>
+        <v>-2033.315999996755</v>
       </c>
       <c r="C9" t="n">
-        <v>9.660031398860104e-47</v>
+        <v>3.175313032356555e-49</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1135.626567512023</v>
+        <v>-300.4052064396601</v>
       </c>
       <c r="C10" t="n">
-        <v>2.157899392643272e-18</v>
+        <v>0.02811004747364284</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1729.323623488715</v>
+        <v>-2035.188848360659</v>
       </c>
       <c r="C11" t="n">
-        <v>7.395782092333521e-35</v>
+        <v>8.304832608342858e-43</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.22027852615415</v>
+        <v>36.90557870749245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1779494322188193</v>
+        <v>0.04374053330405612</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1197.18799065438</v>
+        <v>-1414.938816026212</v>
       </c>
       <c r="C13" t="n">
-        <v>4.433261056811779e-179</v>
+        <v>1.922701840137425e-221</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-17.2342985959741</v>
+        <v>-21.62990845618092</v>
       </c>
       <c r="C14" t="n">
-        <v>9.2653713751497e-22</v>
+        <v>9.741292580234047e-30</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153.5713738796453</v>
+        <v>166.6146120143258</v>
       </c>
       <c r="C15" t="n">
-        <v>2.518772616220652e-46</v>
+        <v>1.172369748120113e-47</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.3834907817185</v>
+        <v>355.2483789869609</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02090443924324253</v>
+        <v>-0.01187159471277329</v>
       </c>
       <c r="C17" t="n">
-        <v>3.604962056457423e-09</v>
+        <v>0.001479231848008887</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.079070143201705e-06</v>
+        <v>-5.081232512475589e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1065438271975032</v>
+        <v>0.06037113129569731</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.30525913391522</v>
+        <v>-14.20001850220658</v>
       </c>
       <c r="C19" t="n">
-        <v>6.452932389450499e-26</v>
+        <v>4.719000756605821e-26</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.851232998569001</v>
+        <v>1.894324955612224</v>
       </c>
       <c r="C20" t="n">
-        <v>7.474471485990711e-08</v>
+        <v>0.2169200857165875</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3257.169255851396</v>
+        <v>-3410.987900042473</v>
       </c>
       <c r="C21" t="n">
-        <v>3.638275087240003e-50</v>
+        <v>5.910283370008218e-49</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1540.790912776203</v>
+        <v>-2106.987318221406</v>
       </c>
       <c r="C22" t="n">
-        <v>1.917351919317249e-23</v>
+        <v>1.314138304204614e-37</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10061.92562230057</v>
+        <v>11167.98468632668</v>
       </c>
       <c r="C2" t="n">
-        <v>3.363339697617669e-285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1188.107770087815</v>
+        <v>-1122.479929898641</v>
       </c>
       <c r="C3" t="n">
-        <v>2.643433605304189e-22</v>
+        <v>7.472379288695435e-18</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-658.5722894521861</v>
+        <v>-605.8827068638119</v>
       </c>
       <c r="C4" t="n">
-        <v>2.642157538669037e-18</v>
+        <v>4.895991359053396e-14</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-160.3911872564842</v>
+        <v>-3.950320892034341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01942437722162388</v>
+        <v>0.9568000532603806</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57.28242484211971</v>
+        <v>103.0508486883163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4432649998631367</v>
+        <v>0.1941131675007856</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-248.2184580305279</v>
+        <v>82.74115545392959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01287186341317309</v>
+        <v>0.4301430866021332</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-399.1522589070919</v>
+        <v>-126.1428649277336</v>
       </c>
       <c r="C8" t="n">
-        <v>7.960626186484467e-09</v>
+        <v>0.08668968115923678</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1876.201852720203</v>
+        <v>-2171.699485444579</v>
       </c>
       <c r="C9" t="n">
-        <v>4.708945481871167e-47</v>
+        <v>3.977909449446567e-56</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1122.005408120902</v>
+        <v>-390.5458239227846</v>
       </c>
       <c r="C10" t="n">
-        <v>5.076995996153763e-18</v>
+        <v>0.004252762555056547</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1721.68633968106</v>
+        <v>-2253.757367990875</v>
       </c>
       <c r="C11" t="n">
-        <v>9.84739694215983e-35</v>
+        <v>3.249861634128237e-52</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.40499840836703</v>
+        <v>39.65216240601684</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4709800466496585</v>
+        <v>0.03053267750596244</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1169.62817658538</v>
+        <v>-1350.29074465339</v>
       </c>
       <c r="C13" t="n">
-        <v>5.04276205423183e-172</v>
+        <v>4.375213873407448e-202</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.36069536666152</v>
+        <v>-21.18380653585208</v>
       </c>
       <c r="C14" t="n">
-        <v>3.226206678279638e-27</v>
+        <v>1.039425638206705e-28</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.031126181087</v>
+        <v>156.861753166799</v>
       </c>
       <c r="C15" t="n">
-        <v>1.468903181863129e-42</v>
+        <v>1.633926226383182e-42</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.3338796395998</v>
+        <v>359.0706880204943</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02016523943325712</v>
+        <v>-0.01187988037484579</v>
       </c>
       <c r="C17" t="n">
-        <v>1.129632385672543e-08</v>
+        <v>0.001423213129402359</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.870378664437671e-06</v>
+        <v>-4.997248222161392e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1203705623262463</v>
+        <v>0.06448324112343772</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.50673298605259</v>
+        <v>-13.76845334144969</v>
       </c>
       <c r="C19" t="n">
-        <v>1.139535786498514e-26</v>
+        <v>1.169728722237916e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.340326100888436</v>
+        <v>2.007932097422392</v>
       </c>
       <c r="C20" t="n">
-        <v>7.971443830772303e-09</v>
+        <v>0.1904980096653297</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3305.904227522195</v>
+        <v>-3357.273591625128</v>
       </c>
       <c r="C21" t="n">
-        <v>9.896670158967037e-52</v>
+        <v>1.81918983533962e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1522.192862729138</v>
+        <v>-2079.798905065328</v>
       </c>
       <c r="C22" t="n">
-        <v>3.859326861321577e-23</v>
+        <v>1.198957241735693e-36</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9824.241762039725</v>
+        <v>11196.65944754439</v>
       </c>
       <c r="C2" t="n">
-        <v>8.865943085101285e-272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1246.209359447103</v>
+        <v>-1214.890343121068</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645686392888596e-24</v>
+        <v>1.433107935373933e-20</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-709.4041123876605</v>
+        <v>-650.5175456772636</v>
       </c>
       <c r="C4" t="n">
-        <v>6.677510798724232e-21</v>
+        <v>7.364032164292536e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-175.3960232722384</v>
+        <v>-45.04274703866662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01078606801886631</v>
+        <v>0.5385342137254314</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.74105906517642</v>
+        <v>30.92506125994994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7210705538375415</v>
+        <v>0.6964678350856206</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-85.02808384800522</v>
+        <v>-78.29582830820775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3943946372107002</v>
+        <v>0.4550989805004411</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-351.6855706888036</v>
+        <v>-141.4086850194992</v>
       </c>
       <c r="C8" t="n">
-        <v>4.053176862223239e-07</v>
+        <v>0.0544480447071491</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1800.923585275372</v>
+        <v>-1965.134976963956</v>
       </c>
       <c r="C9" t="n">
-        <v>1.427856282729574e-43</v>
+        <v>5.827477726395934e-46</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1083.757137726821</v>
+        <v>-189.7349855820648</v>
       </c>
       <c r="C10" t="n">
-        <v>5.631694975438541e-17</v>
+        <v>0.1664333349633761</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1641.677182424985</v>
+        <v>-2049.562123671228</v>
       </c>
       <c r="C11" t="n">
-        <v>9.337351696877608e-32</v>
+        <v>2.547849399657772e-43</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.77131138447079</v>
+        <v>42.82660120582686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0507909921133675</v>
+        <v>0.01924861677819146</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1151.407287414698</v>
+        <v>-1404.176206088445</v>
       </c>
       <c r="C13" t="n">
-        <v>1.984908166519042e-166</v>
+        <v>2.855783499683493e-218</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.81954343528526</v>
+        <v>-21.3315035211351</v>
       </c>
       <c r="C14" t="n">
-        <v>1.037172787170075e-25</v>
+        <v>5.310207318212908e-29</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.348141856133</v>
+        <v>160.5347389763042</v>
       </c>
       <c r="C15" t="n">
-        <v>8.933061604413637e-44</v>
+        <v>2.329676958382297e-44</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.2721867898842</v>
+        <v>357.9186042813694</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01774325248008451</v>
+        <v>-0.009675315488275021</v>
       </c>
       <c r="C17" t="n">
-        <v>4.827559977320164e-07</v>
+        <v>0.009531414117897574</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.465731373162223e-06</v>
+        <v>-6.441339631744781e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01009780323660053</v>
+        <v>0.0176242854565849</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.18789369418872</v>
+        <v>-13.72713222903662</v>
       </c>
       <c r="C19" t="n">
-        <v>1.198860163426627e-25</v>
+        <v>2.43923960061793e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.184903170814563</v>
+        <v>1.42139707096741</v>
       </c>
       <c r="C20" t="n">
-        <v>2.16873036942023e-10</v>
+        <v>0.3551017723666504</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3415.087385440362</v>
+        <v>-3490.729181506121</v>
       </c>
       <c r="C21" t="n">
-        <v>3.459974690315021e-55</v>
+        <v>2.487218677973828e-51</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1549.309552703999</v>
+        <v>-2229.641190644832</v>
       </c>
       <c r="C22" t="n">
-        <v>6.786530378994551e-24</v>
+        <v>6.813677194858813e-42</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10214.96113395667</v>
+        <v>11237.66856428766</v>
       </c>
       <c r="C2" t="n">
-        <v>7.846928544308505e-293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1243.429612362447</v>
+        <v>-1002.703640651659</v>
       </c>
       <c r="C3" t="n">
-        <v>4.164917254598491e-24</v>
+        <v>3.312204593778047e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-760.0828540393359</v>
+        <v>-609.5513655827401</v>
       </c>
       <c r="C4" t="n">
-        <v>7.832375032060267e-24</v>
+        <v>3.915127005584314e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-187.4720213689097</v>
+        <v>-36.23670045552715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006337722615724841</v>
+        <v>0.6206119956802914</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.48833475953074</v>
+        <v>165.2325015926298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2422408827684002</v>
+        <v>0.03733551049862015</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-72.0108485415908</v>
+        <v>50.30729164457304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4703394278614996</v>
+        <v>0.6303050838627869</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-253.68706185225</v>
+        <v>-69.9197973945824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002524024755669333</v>
+        <v>0.3422919759453927</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1917.161149051576</v>
+        <v>-2191.452775428934</v>
       </c>
       <c r="C9" t="n">
-        <v>2.076850807411006e-49</v>
+        <v>4.922113825468657e-57</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1159.501928585041</v>
+        <v>-430.9084380999921</v>
       </c>
       <c r="C10" t="n">
-        <v>2.665996977122483e-19</v>
+        <v>0.0016216094225466</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1731.237790381144</v>
+        <v>-2323.978848949828</v>
       </c>
       <c r="C11" t="n">
-        <v>2.780674135109495e-35</v>
+        <v>1.955781924445735e-55</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.52954375807661</v>
+        <v>26.03514272915713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211736016755262</v>
+        <v>0.1553319902665611</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1206.276563818763</v>
+        <v>-1385.108485946829</v>
       </c>
       <c r="C13" t="n">
-        <v>8.486013947326962e-183</v>
+        <v>8.523412143191507e-212</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.55155480771268</v>
+        <v>-20.47174917748897</v>
       </c>
       <c r="C14" t="n">
-        <v>1.062641876362813e-27</v>
+        <v>7.88047578644924e-27</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.5276631177575</v>
+        <v>164.0088716112463</v>
       </c>
       <c r="C15" t="n">
-        <v>7.601849853780315e-41</v>
+        <v>5.10307953954546e-46</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365.7095049974536</v>
+        <v>357.5630523142514</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0208012903837849</v>
+        <v>-0.01112940130090236</v>
       </c>
       <c r="C17" t="n">
-        <v>3.80503472865775e-09</v>
+        <v>0.002858397604831751</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.599819428970865e-06</v>
+        <v>-4.666415598154401e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00844376603411651</v>
+        <v>0.08528196832658669</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.44451048727118</v>
+        <v>-14.19897687121607</v>
       </c>
       <c r="C19" t="n">
-        <v>2.598202229441242e-30</v>
+        <v>7.738764583650852e-26</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.471028900236199</v>
+        <v>1.026136715138648</v>
       </c>
       <c r="C20" t="n">
-        <v>2.553849840292246e-07</v>
+        <v>0.5055756644837019</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3383.798666216394</v>
+        <v>-3238.467747556037</v>
       </c>
       <c r="C21" t="n">
-        <v>4.010140612025101e-54</v>
+        <v>3.645301865379879e-44</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1476.654249517133</v>
+        <v>-1991.497217116284</v>
       </c>
       <c r="C22" t="n">
-        <v>6.893306050535948e-22</v>
+        <v>9.118684731176602e-34</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9504.004706765765</v>
+        <v>11108.53408868879</v>
       </c>
       <c r="C2" t="n">
-        <v>6.134615802185355e-253</v>
+        <v>1.231344949885142e-306</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1231.752947192795</v>
+        <v>-1112.401402627836</v>
       </c>
       <c r="C3" t="n">
-        <v>1.179587901117094e-23</v>
+        <v>1.503882913270819e-17</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-675.2726819655589</v>
+        <v>-590.8181345105146</v>
       </c>
       <c r="C4" t="n">
-        <v>3.037757544794736e-19</v>
+        <v>1.88871283189855e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-175.0859654607779</v>
+        <v>32.54258718246882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01056301864590117</v>
+        <v>0.6558383695960147</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59.1015395785281</v>
+        <v>93.83159482911216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4295209269233371</v>
+        <v>0.2362789371007143</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-189.3102005249972</v>
+        <v>-86.44533139204083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0577558654966947</v>
+        <v>0.4101199281257435</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-407.6711689658852</v>
+        <v>-72.54314184084139</v>
       </c>
       <c r="C8" t="n">
-        <v>4.193310654602646e-09</v>
+        <v>0.3226162461224734</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1654.132374731478</v>
+        <v>-2136.204074989936</v>
       </c>
       <c r="C9" t="n">
-        <v>3.129870086795752e-37</v>
+        <v>2.258455806129259e-54</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-971.0283838679406</v>
+        <v>-359.6537391393504</v>
       </c>
       <c r="C10" t="n">
-        <v>5.163763085155186e-14</v>
+        <v>0.008423854406967343</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1529.25528526474</v>
+        <v>-2135.17327844782</v>
       </c>
       <c r="C11" t="n">
-        <v>6.938560049842389e-28</v>
+        <v>5.552634852008516e-47</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.25769209912677</v>
+        <v>26.81212834849304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002352504899713</v>
+        <v>0.1422603156487685</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1173.632645323415</v>
+        <v>-1398.384144510922</v>
       </c>
       <c r="C13" t="n">
-        <v>7.225183047254564e-174</v>
+        <v>1.253004146546811e-216</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.11636230706807</v>
+        <v>-21.64652780590973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.129765117695437e-26</v>
+        <v>6.985761726004788e-30</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.5144523486144</v>
+        <v>162.8140643957958</v>
       </c>
       <c r="C15" t="n">
-        <v>3.450228830006351e-44</v>
+        <v>1.442167426976532e-45</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.3898550036876</v>
+        <v>358.6857802015351</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0194709230836263</v>
+        <v>-0.01524319652483125</v>
       </c>
       <c r="C17" t="n">
-        <v>3.237925555611453e-08</v>
+        <v>4.257759837870722e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.807467202659995e-06</v>
+        <v>-3.855299052876033e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2681671108678023</v>
+        <v>0.1538080058519756</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.3925814608986</v>
+        <v>-13.15238645141663</v>
       </c>
       <c r="C19" t="n">
-        <v>7.574247855760999e-23</v>
+        <v>1.335651240975053e-22</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.74984409364992</v>
+        <v>2.599704020062176</v>
       </c>
       <c r="C20" t="n">
-        <v>1.870230660986918e-13</v>
+        <v>0.09210149167142055</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3262.344528166745</v>
+        <v>-3467.699263848053</v>
       </c>
       <c r="C21" t="n">
-        <v>9.094335656510027e-51</v>
+        <v>1.020615270234315e-50</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1589.247175753552</v>
+        <v>-2092.841142857649</v>
       </c>
       <c r="C22" t="n">
-        <v>3.46787966484174e-25</v>
+        <v>4.208374313104247e-37</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9699.086272008368</v>
+        <v>11323.49562429782</v>
       </c>
       <c r="C2" t="n">
-        <v>2.126299119751533e-264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1132.428249879636</v>
+        <v>-1231.084613845567</v>
       </c>
       <c r="C3" t="n">
-        <v>2.03618330661238e-20</v>
+        <v>2.696602046788299e-21</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-671.6012590993491</v>
+        <v>-735.9702023629134</v>
       </c>
       <c r="C4" t="n">
-        <v>6.2227074324422e-19</v>
+        <v>4.934908567374518e-20</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-129.770658514416</v>
+        <v>-155.0529918136593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05921903666618648</v>
+        <v>0.0335181980856356</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.57192863865596</v>
+        <v>35.82645567218469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.380691471343631</v>
+        <v>0.6502074858154919</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.8641449758452</v>
+        <v>-202.5791405017224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1791941359035943</v>
+        <v>0.05185410846060034</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-370.600504303209</v>
+        <v>-205.5336465388248</v>
       </c>
       <c r="C8" t="n">
-        <v>9.22020068321039e-08</v>
+        <v>0.005030540482294551</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1790.941844584777</v>
+        <v>-2172.276848737347</v>
       </c>
       <c r="C9" t="n">
-        <v>3.168039810069552e-43</v>
+        <v>3.398764376581801e-56</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1072.909042130916</v>
+        <v>-483.0519222359526</v>
       </c>
       <c r="C10" t="n">
-        <v>9.788028776302846e-17</v>
+        <v>0.0003932941799561958</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1669.336453803191</v>
+        <v>-2203.81004730558</v>
       </c>
       <c r="C11" t="n">
-        <v>8.199729127273861e-33</v>
+        <v>3.586629517548519e-50</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.450451935672469</v>
+        <v>40.94982910055842</v>
       </c>
       <c r="C12" t="n">
-        <v>0.795614117269978</v>
+        <v>0.02497290861751431</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1197.493551175097</v>
+        <v>-1371.217280283944</v>
       </c>
       <c r="C13" t="n">
-        <v>2.352842855685726e-180</v>
+        <v>1.094713302134598e-209</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.74823343456319</v>
+        <v>-21.54767393891296</v>
       </c>
       <c r="C14" t="n">
-        <v>5.375567550239298e-31</v>
+        <v>9.201943463927159e-30</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.683938429253</v>
+        <v>175.9887129044791</v>
       </c>
       <c r="C15" t="n">
-        <v>2.625405324485078e-45</v>
+        <v>5.175535265255367e-53</v>
       </c>
     </row>
     <row r="16">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>373.8658459275951</v>
+        <v>350.6595976006168</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01942117107749115</v>
+        <v>-0.01170844674898279</v>
       </c>
       <c r="C17" t="n">
-        <v>3.551973280574168e-08</v>
+        <v>0.001627810139935379</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.763102552434075e-06</v>
+        <v>-3.775891650277461e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05818426861012502</v>
+        <v>0.159608650782976</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.91389866839742</v>
+        <v>-14.69779827371401</v>
       </c>
       <c r="C19" t="n">
-        <v>1.257309579686427e-24</v>
+        <v>6.523795031922052e-28</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.2506480428131</v>
+        <v>3.028660874268056</v>
       </c>
       <c r="C20" t="n">
-        <v>1.824022499538158e-12</v>
+        <v>0.04892483167692017</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3235.306219282032</v>
+        <v>-3318.119239442255</v>
       </c>
       <c r="C21" t="n">
-        <v>8.118222872387138e-50</v>
+        <v>1.213923239146536e-46</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1461.800727607756</v>
+        <v>-2078.994775111795</v>
       </c>
       <c r="C22" t="n">
-        <v>1.722799631367096e-21</v>
+        <v>7.188343901724091e-37</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9794.0623624377</v>
+        <v>10957.42578830064</v>
       </c>
       <c r="C2" t="n">
-        <v>2.972591452642468e-269</v>
+        <v>2.007045596937517e-299</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1165.262104796469</v>
+        <v>-1182.926458753302</v>
       </c>
       <c r="C3" t="n">
-        <v>3.566284676402379e-21</v>
+        <v>8.81084337493556e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-701.1585684478767</v>
+        <v>-713.3183254129</v>
       </c>
       <c r="C4" t="n">
-        <v>2.305244142377675e-20</v>
+        <v>6.854272115732759e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-179.5585505119603</v>
+        <v>-65.06023658897521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009224097814993703</v>
+        <v>0.3728359312823665</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.886340492693563</v>
+        <v>120.4707082974462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9267439905418035</v>
+        <v>0.1269139805572017</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-199.6487086638324</v>
+        <v>66.07772173403899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04619212926914346</v>
+        <v>0.5275398609569233</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-336.551609979537</v>
+        <v>-124.2704536016469</v>
       </c>
       <c r="C8" t="n">
-        <v>1.278618603478153e-06</v>
+        <v>0.08920677547771816</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1780.126548094406</v>
+        <v>-2030.115054738794</v>
       </c>
       <c r="C9" t="n">
-        <v>1.152727834800865e-42</v>
+        <v>3.307382614910409e-49</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1046.435792557013</v>
+        <v>-340.439651526076</v>
       </c>
       <c r="C10" t="n">
-        <v>5.759570349112541e-16</v>
+        <v>0.01256326283907694</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1651.873053196599</v>
+        <v>-2152.681291248075</v>
       </c>
       <c r="C11" t="n">
-        <v>3.414367269704034e-32</v>
+        <v>9.71605817564732e-48</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.907883602667383</v>
+        <v>32.37019968451828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9121052133872127</v>
+        <v>0.0757812986455047</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1208.716430051062</v>
+        <v>-1367.31061213677</v>
       </c>
       <c r="C13" t="n">
-        <v>1.66930004918222e-182</v>
+        <v>2.002363521140639e-208</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-18.4354724202105</v>
+        <v>-19.96992954971802</v>
       </c>
       <c r="C14" t="n">
-        <v>1.223803302639652e-24</v>
+        <v>8.054073676233656e-26</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9827459495725</v>
+        <v>164.9593940188297</v>
       </c>
       <c r="C15" t="n">
-        <v>1.060938814439685e-43</v>
+        <v>6.242170830364092e-47</v>
       </c>
     </row>
     <row r="16">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>370.4437693704761</v>
+        <v>356.3242614304127</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0196671543725688</v>
+        <v>-0.01208672102820959</v>
       </c>
       <c r="C17" t="n">
-        <v>2.584975685043271e-08</v>
+        <v>0.001141390183770221</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.199769021611962e-06</v>
+        <v>-3.857342082141795e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03980564916190826</v>
+        <v>0.1549582426834339</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.60145861295293</v>
+        <v>-13.71462594609402</v>
       </c>
       <c r="C19" t="n">
-        <v>2.089763849538724e-23</v>
+        <v>1.791877651506753e-24</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.130645283065149</v>
+        <v>2.903751596948024</v>
       </c>
       <c r="C20" t="n">
-        <v>2.878687746555358e-10</v>
+        <v>0.05884929228515778</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3241.421926192526</v>
+        <v>-3347.897545620197</v>
       </c>
       <c r="C21" t="n">
-        <v>7.341347553522012e-50</v>
+        <v>1.476111862291903e-47</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1476.647469428249</v>
+        <v>-2029.953129637202</v>
       </c>
       <c r="C22" t="n">
-        <v>8.784543312804281e-22</v>
+        <v>3.721521818471742e-35</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9936.962380863852</v>
+        <v>11261.11823795387</v>
       </c>
       <c r="C2" t="n">
-        <v>6.136003740584925e-277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1231.806383725351</v>
+        <v>-1164.100951635244</v>
       </c>
       <c r="C3" t="n">
-        <v>1.21209140557872e-23</v>
+        <v>5.939829136670214e-19</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-730.1664467327205</v>
+        <v>-686.8387938068531</v>
       </c>
       <c r="C4" t="n">
-        <v>4.213080954516655e-22</v>
+        <v>1.564596714269924e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-208.2057382356584</v>
+        <v>-53.32566670052447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002460622606442307</v>
+        <v>0.4663297537837197</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008707806362252768</v>
+        <v>20.47643765053232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999071766066399</v>
+        <v>0.7962788718347552</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-122.1472351440187</v>
+        <v>-68.10783057815159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2216929671323781</v>
+        <v>0.5158347899799289</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-347.2894119190956</v>
+        <v>-231.8119604805397</v>
       </c>
       <c r="C8" t="n">
-        <v>5.466658920981087e-07</v>
+        <v>0.001624804794525436</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1906.588382712493</v>
+        <v>-2216.338046277977</v>
       </c>
       <c r="C9" t="n">
-        <v>2.123554601509805e-48</v>
+        <v>7.826886631454748e-58</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1136.533332023551</v>
+        <v>-514.0200716192885</v>
       </c>
       <c r="C10" t="n">
-        <v>2.024422823643597e-18</v>
+        <v>0.0001805320920860159</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1791.575483602951</v>
+        <v>-2328.814049933241</v>
       </c>
       <c r="C11" t="n">
-        <v>2.385459510319993e-37</v>
+        <v>2.90537755086557e-55</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.47397473381995</v>
+        <v>39.68755172641701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2343022586164185</v>
+        <v>0.03008991892124577</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1177.230641606485</v>
+        <v>-1371.158904307154</v>
       </c>
       <c r="C13" t="n">
-        <v>5.68695416245091e-174</v>
+        <v>4.226705000930685e-208</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.80517601330437</v>
+        <v>-21.8085706427542</v>
       </c>
       <c r="C14" t="n">
-        <v>2.275380668455561e-28</v>
+        <v>2.786191282729311e-30</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2378737368616</v>
+        <v>162.4730611093852</v>
       </c>
       <c r="C15" t="n">
-        <v>1.469311466845243e-44</v>
+        <v>3.048586166096628e-45</v>
       </c>
     </row>
     <row r="16">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.3019063171544</v>
+        <v>359.2696811038834</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01941049487005576</v>
+        <v>-0.01225850469713484</v>
       </c>
       <c r="C17" t="n">
-        <v>3.889793233046544e-08</v>
+        <v>0.001003455148062617</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.727501247334884e-06</v>
+        <v>-4.100273273357493e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06004850284349199</v>
+        <v>0.1295830190915148</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.34991706881706</v>
+        <v>-13.45380154615612</v>
       </c>
       <c r="C19" t="n">
-        <v>1.362929990026952e-22</v>
+        <v>1.627573863759888e-23</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.001970218895401</v>
+        <v>2.723702230342407</v>
       </c>
       <c r="C20" t="n">
-        <v>5.809101170051201e-10</v>
+        <v>0.07571972211451229</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3248.681837814987</v>
+        <v>-3336.084722242872</v>
       </c>
       <c r="C21" t="n">
-        <v>3.540773406956109e-50</v>
+        <v>4.83374228071487e-47</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1589.749208461335</v>
+        <v>-1988.76191487816</v>
       </c>
       <c r="C22" t="n">
-        <v>5.280606328785364e-25</v>
+        <v>1.464212995551514e-33</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9948.477699715615</v>
+        <v>11002.58423222351</v>
       </c>
       <c r="C2" t="n">
-        <v>6.842078733049119e-278</v>
+        <v>9.347707062300088e-300</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1222.233230098465</v>
+        <v>-1023.163413345411</v>
       </c>
       <c r="C3" t="n">
-        <v>5.036673841677043e-23</v>
+        <v>6.634619292951506e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-658.7727731104803</v>
+        <v>-640.3943442921848</v>
       </c>
       <c r="C4" t="n">
-        <v>2.767898575316316e-18</v>
+        <v>1.741395433630001e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-119.6086874145237</v>
+        <v>-0.9743917677456295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08207071649852857</v>
+        <v>0.9893694015915296</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.65750318358573</v>
+        <v>28.30284418024547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7117735256202375</v>
+        <v>0.7216722189697069</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-169.9084959449131</v>
+        <v>-126.9973933344853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08954024082877492</v>
+        <v>0.2260422279812407</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-355.1543185441984</v>
+        <v>-161.9946947695452</v>
       </c>
       <c r="C8" t="n">
-        <v>3.148883180537497e-07</v>
+        <v>0.02802184467357456</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1903.467566646196</v>
+        <v>-2004.332456114353</v>
       </c>
       <c r="C9" t="n">
-        <v>3.976301025903471e-48</v>
+        <v>5.507419683267844e-48</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1112.818892650574</v>
+        <v>-223.1931735209328</v>
       </c>
       <c r="C10" t="n">
-        <v>1.042569833646279e-17</v>
+        <v>0.1025620721929681</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1741.939407579752</v>
+        <v>-2009.84064297729</v>
       </c>
       <c r="C11" t="n">
-        <v>2.236510928122552e-35</v>
+        <v>7.556492330393665e-42</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.67202879778694</v>
+        <v>29.54215047066098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3344526515806173</v>
+        <v>0.1070251220222598</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1193.599221732575</v>
+        <v>-1378.339511418271</v>
       </c>
       <c r="C13" t="n">
-        <v>1.737854747574681e-178</v>
+        <v>5.476202445268156e-210</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.72147503779623</v>
+        <v>-22.72266129628139</v>
       </c>
       <c r="C14" t="n">
-        <v>3.897018919301912e-28</v>
+        <v>1.229257959590328e-32</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.5793451390287</v>
+        <v>154.0893008717019</v>
       </c>
       <c r="C15" t="n">
-        <v>3.40607021522395e-44</v>
+        <v>5.868803125089956e-41</v>
       </c>
     </row>
     <row r="16">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.3317030348815</v>
+        <v>356.1971199433909</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01786832231427493</v>
+        <v>-0.01646177351392196</v>
       </c>
       <c r="C17" t="n">
-        <v>4.416137319281196e-07</v>
+        <v>1.066657488982354e-05</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.283803788840437e-06</v>
+        <v>-3.304473690466335e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01262594402904619</v>
+        <v>0.2224216834746623</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.08195732741151</v>
+        <v>-12.60547393007116</v>
       </c>
       <c r="C19" t="n">
-        <v>3.347955375165162e-25</v>
+        <v>8.544352062368619e-21</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.655229798546255</v>
+        <v>3.522517178952967</v>
       </c>
       <c r="C20" t="n">
-        <v>2.329948790672791e-09</v>
+        <v>0.02290250650565594</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3180.458859752187</v>
+        <v>-3440.14077488014</v>
       </c>
       <c r="C21" t="n">
-        <v>4.050054652428327e-48</v>
+        <v>1.595183588552137e-49</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1584.177414306186</v>
+        <v>-2096.828618613674</v>
       </c>
       <c r="C22" t="n">
-        <v>7.98922735236574e-25</v>
+        <v>3.392108233407974e-37</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ15521233" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26595024" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36978498" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46876033" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ56495105" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ06128269" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ15792861" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ25115217" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37004755" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59432399" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ07048744" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ14444587" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ22910129" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31131431" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39267020" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ46695534" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55194520" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03536360" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11243.79617795625</v>
+        <v>11501.2627196247</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1087.598754232779</v>
+        <v>-1188.167344156397</v>
       </c>
       <c r="C3" t="n">
-        <v>7.883062979730674e-17</v>
+        <v>1.034980230790248e-19</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-629.9934058528731</v>
+        <v>-636.20440206916</v>
       </c>
       <c r="C4" t="n">
-        <v>4.661414354048255e-15</v>
+        <v>1.965998349023609e-15</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-42.34593634253093</v>
+        <v>-66.06290659336669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5615324586307419</v>
+        <v>0.3636912621548478</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9772999840473346</v>
+        <v>26.6746455221878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.99017650071507</v>
+        <v>0.7358353259206269</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-108.4515537124643</v>
+        <v>-120.7678110847707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2997803427196951</v>
+        <v>0.2478804656318946</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-184.4369065427579</v>
+        <v>-139.8880792540348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01225590129741722</v>
+        <v>0.0564505958570365</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2033.315999996755</v>
+        <v>-2182.297550745297</v>
       </c>
       <c r="C9" t="n">
-        <v>3.175313032356555e-49</v>
+        <v>8.857871272653786e-57</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-300.4052064396601</v>
+        <v>-371.5353099751064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02811004747364284</v>
+        <v>0.006408813839983536</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2035.188848360659</v>
+        <v>-2218.00295073124</v>
       </c>
       <c r="C11" t="n">
-        <v>8.304832608342858e-43</v>
+        <v>8.196837046243333e-51</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36.90557870749245</v>
+        <v>35.5922168828432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04374053330405612</v>
+        <v>0.05154075971604366</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1414.938816026212</v>
+        <v>-1411.839915292809</v>
       </c>
       <c r="C13" t="n">
-        <v>1.922701840137425e-221</v>
+        <v>1.10077845020137e-221</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.62990845618092</v>
+        <v>-22.06855036214988</v>
       </c>
       <c r="C14" t="n">
-        <v>9.741292580234047e-30</v>
+        <v>3.863245851843993e-31</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.6146120143258</v>
+        <v>164.8228535242173</v>
       </c>
       <c r="C15" t="n">
-        <v>1.172369748120113e-47</v>
+        <v>4.310749827664267e-47</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.2483789869609</v>
+        <v>355.7788891946037</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01187159471277329</v>
+        <v>-0.0130125120115107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001479231848008887</v>
+        <v>0.0004693717002161277</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.081232512475589e-06</v>
+        <v>-5.051643288087908e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06037113129569731</v>
+        <v>0.06297552416416909</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.20001850220658</v>
+        <v>-13.80379706888783</v>
       </c>
       <c r="C19" t="n">
-        <v>4.719000756605821e-26</v>
+        <v>7.655528886012593e-25</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.894324955612224</v>
+        <v>1.052792953221782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2169200857165875</v>
+        <v>0.4911452383351153</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3410.987900042473</v>
+        <v>-3599.880839690127</v>
       </c>
       <c r="C21" t="n">
-        <v>5.910283370008218e-49</v>
+        <v>2.396373791939756e-54</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2106.987318221406</v>
+        <v>-2104.254182818264</v>
       </c>
       <c r="C22" t="n">
-        <v>1.314138304204614e-37</v>
+        <v>7.244366665798482e-38</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11167.98468632668</v>
+        <v>11055.97533569954</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.826781346809134e-304</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1122.479929898641</v>
+        <v>-1095.872318900168</v>
       </c>
       <c r="C3" t="n">
-        <v>7.472379288695435e-18</v>
+        <v>5.690520777514562e-17</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-605.8827068638119</v>
+        <v>-573.0054823456237</v>
       </c>
       <c r="C4" t="n">
-        <v>4.895991359053396e-14</v>
+        <v>1.165230924244949e-12</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.950320892034341</v>
+        <v>15.59460766268784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9568000532603806</v>
+        <v>0.8313177649429678</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.0508486883163</v>
+        <v>7.813033120282654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1941131675007856</v>
+        <v>0.9214413671343263</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.74115545392959</v>
+        <v>-132.9805511173097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4301430866021332</v>
+        <v>0.2045361446999081</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-126.1428649277336</v>
+        <v>-206.5909808631259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08668968115923678</v>
+        <v>0.004922704771270167</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2171.699485444579</v>
+        <v>-1951.475111760255</v>
       </c>
       <c r="C9" t="n">
-        <v>3.977909449446567e-56</v>
+        <v>1.54827535228587e-45</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-390.5458239227846</v>
+        <v>-196.4559306533283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004252762555056547</v>
+        <v>0.1511316755057953</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2253.757367990875</v>
+        <v>-2082.324496544682</v>
       </c>
       <c r="C11" t="n">
-        <v>3.249861634128237e-52</v>
+        <v>8.999572829872031e-45</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.65216240601684</v>
+        <v>45.21786150070479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03053267750596244</v>
+        <v>0.01353440238565759</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1350.29074465339</v>
+        <v>-1389.080106160019</v>
       </c>
       <c r="C13" t="n">
-        <v>4.375213873407448e-202</v>
+        <v>1.067780137401548e-213</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.18380653585208</v>
+        <v>-20.26439276844057</v>
       </c>
       <c r="C14" t="n">
-        <v>1.039425638206705e-28</v>
+        <v>2.743517145530727e-26</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.861753166799</v>
+        <v>168.2319509349963</v>
       </c>
       <c r="C15" t="n">
-        <v>1.633926226383182e-42</v>
+        <v>3.244470212920941e-49</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.0706880204943</v>
+        <v>357.3236303217906</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01187988037484579</v>
+        <v>-0.009217154348168603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001423213129402359</v>
+        <v>0.01349207265524163</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.997248222161392e-06</v>
+        <v>-6.394066427723104e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06448324112343772</v>
+        <v>0.01821631376591291</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.76845334144969</v>
+        <v>-13.80749588005606</v>
       </c>
       <c r="C19" t="n">
-        <v>1.169728722237916e-24</v>
+        <v>1.094651017638328e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.007932097422392</v>
+        <v>1.507314201058902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1904980096653297</v>
+        <v>0.328206005021395</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3357.273591625128</v>
+        <v>-3359.872341157419</v>
       </c>
       <c r="C21" t="n">
-        <v>1.81918983533962e-47</v>
+        <v>1.518475608215982e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2079.798905065328</v>
+        <v>-2179.391549807624</v>
       </c>
       <c r="C22" t="n">
-        <v>1.198957241735693e-36</v>
+        <v>2.016891372932582e-40</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11196.65944754439</v>
+        <v>11044.10968318824</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.393829106467506e-307</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1214.890343121068</v>
+        <v>-1130.232553204457</v>
       </c>
       <c r="C3" t="n">
-        <v>1.433107935373933e-20</v>
+        <v>3.512770933539234e-18</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-650.5175456772636</v>
+        <v>-674.0816086028751</v>
       </c>
       <c r="C4" t="n">
-        <v>7.364032164292536e-16</v>
+        <v>4.290683366577946e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-45.04274703866662</v>
+        <v>-72.18847133147156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5385342137254314</v>
+        <v>0.3217870802062867</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.92506125994994</v>
+        <v>27.98918430557273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6964678350856206</v>
+        <v>0.7223931415777208</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-78.29582830820775</v>
+        <v>-130.4570093550087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4550989805004411</v>
+        <v>0.2108906044249938</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-141.4086850194992</v>
+        <v>-159.150938698277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0544480447071491</v>
+        <v>0.02946205718910648</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1965.134976963956</v>
+        <v>-2066.04944281897</v>
       </c>
       <c r="C9" t="n">
-        <v>5.827477726395934e-46</v>
+        <v>3.421119866210206e-51</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-189.7349855820648</v>
+        <v>-403.6573553792477</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1664333349633761</v>
+        <v>0.003073670394572877</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2049.562123671228</v>
+        <v>-2103.512828115695</v>
       </c>
       <c r="C11" t="n">
-        <v>2.547849399657772e-43</v>
+        <v>5.110251261203207e-46</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.82660120582686</v>
+        <v>21.0319696611286</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01924861677819146</v>
+        <v>0.2476241752695472</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1404.176206088445</v>
+        <v>-1426.416160634019</v>
       </c>
       <c r="C13" t="n">
-        <v>2.855783499683493e-218</v>
+        <v>2.50328889019155e-227</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.3315035211351</v>
+        <v>-22.43126347951465</v>
       </c>
       <c r="C14" t="n">
-        <v>5.310207318212908e-29</v>
+        <v>2.456607868515059e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.5347389763042</v>
+        <v>165.9820403885031</v>
       </c>
       <c r="C15" t="n">
-        <v>2.329676958382297e-44</v>
+        <v>4.785654783110164e-48</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.9186042813694</v>
+        <v>357.1096906434951</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.009675315488275021</v>
+        <v>-0.01406870814784821</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009531414117897574</v>
+        <v>0.0001480304213544157</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.441339631744781e-06</v>
+        <v>-5.000895226213404e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0176242854565849</v>
+        <v>0.06205837517656641</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.72713222903662</v>
+        <v>-13.01258966832523</v>
       </c>
       <c r="C19" t="n">
-        <v>2.43923960061793e-24</v>
+        <v>2.349042435134988e-22</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.42139707096741</v>
+        <v>3.840098465923419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3551017723666504</v>
+        <v>0.01211755538024327</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3490.729181506121</v>
+        <v>-3310.560650891335</v>
       </c>
       <c r="C21" t="n">
-        <v>2.487218677973828e-51</v>
+        <v>1.101290441141603e-46</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2229.641190644832</v>
+        <v>-1963.00518845491</v>
       </c>
       <c r="C22" t="n">
-        <v>6.813677194858813e-42</v>
+        <v>3.074379329631937e-33</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11237.66856428766</v>
+        <v>11150.29722279682</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1002.703640651659</v>
+        <v>-1097.086856473323</v>
       </c>
       <c r="C3" t="n">
-        <v>3.312204593778047e-14</v>
+        <v>4.23679563572779e-17</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-609.5513655827401</v>
+        <v>-668.4244127686604</v>
       </c>
       <c r="C4" t="n">
-        <v>3.915127005584314e-14</v>
+        <v>9.566382500600122e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-36.23670045552715</v>
+        <v>-26.43607830961798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6206119956802914</v>
+        <v>0.7178407783119607</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2325015926298</v>
+        <v>66.44649982097123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03733551049862015</v>
+        <v>0.4003852704877756</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.30729164457304</v>
+        <v>-125.1509896849167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6303050838627869</v>
+        <v>0.2312187515307088</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-69.9197973945824</v>
+        <v>-192.9630036398586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3422919759453927</v>
+        <v>0.008439487925098582</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2191.452775428934</v>
+        <v>-2101.390946121455</v>
       </c>
       <c r="C9" t="n">
-        <v>4.922113825468657e-57</v>
+        <v>1.353737609291607e-52</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-430.9084380999921</v>
+        <v>-337.9023076153426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0016216094225466</v>
+        <v>0.01333659136982643</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2323.978848949828</v>
+        <v>-2178.173003074206</v>
       </c>
       <c r="C11" t="n">
-        <v>1.955781924445735e-55</v>
+        <v>6.361541454727585e-49</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.03514272915713</v>
+        <v>33.53531090443857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1553319902665611</v>
+        <v>0.06583216827633154</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1385.108485946829</v>
+        <v>-1379.99461102512</v>
       </c>
       <c r="C13" t="n">
-        <v>8.523412143191507e-212</v>
+        <v>1.671295062449062e-212</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.47174917748897</v>
+        <v>-22.37674460044812</v>
       </c>
       <c r="C14" t="n">
-        <v>7.88047578644924e-27</v>
+        <v>5.94813979087784e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.0088716112463</v>
+        <v>173.0477278464237</v>
       </c>
       <c r="C15" t="n">
-        <v>5.10307953954546e-46</v>
+        <v>4.830625835012299e-52</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.5630523142514</v>
+        <v>359.3291819346196</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01112940130090236</v>
+        <v>-0.0111047650361603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002858397604831751</v>
+        <v>0.002793032808182858</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.666415598154401e-06</v>
+        <v>-4.628333339484511e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08528196832658669</v>
+        <v>0.08761551621884728</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.19897687121607</v>
+        <v>-14.01521590273432</v>
       </c>
       <c r="C19" t="n">
-        <v>7.738764583650852e-26</v>
+        <v>1.906381955586276e-25</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.026136715138648</v>
+        <v>1.782827935542035</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5055756644837019</v>
+        <v>0.2459758090142087</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3238.467747556037</v>
+        <v>-3187.915205390502</v>
       </c>
       <c r="C21" t="n">
-        <v>3.645301865379879e-44</v>
+        <v>3.992993560935711e-43</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1991.497217116284</v>
+        <v>-1930.616080468343</v>
       </c>
       <c r="C22" t="n">
-        <v>9.118684731176602e-34</v>
+        <v>3.65836897349437e-32</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11108.53408868879</v>
+        <v>11105.50830593322</v>
       </c>
       <c r="C2" t="n">
-        <v>1.231344949885142e-306</v>
+        <v>2.250620791192009e-308</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1112.401402627836</v>
+        <v>-1055.636985266921</v>
       </c>
       <c r="C3" t="n">
-        <v>1.503882913270819e-17</v>
+        <v>6.690758081014973e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-590.8181345105146</v>
+        <v>-645.1816217792904</v>
       </c>
       <c r="C4" t="n">
-        <v>1.88871283189855e-13</v>
+        <v>1.070953415408705e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.54258718246882</v>
+        <v>-34.26088336763594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6558383695960147</v>
+        <v>0.6391079333640697</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.83159482911216</v>
+        <v>37.49537414988859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2362789371007143</v>
+        <v>0.6351483186013378</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-86.44533139204083</v>
+        <v>-89.29395278477331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4101199281257435</v>
+        <v>0.3940988512998072</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-72.54314184084139</v>
+        <v>-173.8637559129022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3226162461224734</v>
+        <v>0.01749654311518857</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2136.204074989936</v>
+        <v>-2145.275951457166</v>
       </c>
       <c r="C9" t="n">
-        <v>2.258455806129259e-54</v>
+        <v>8.334709422661838e-55</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-359.6537391393504</v>
+        <v>-369.7685885310657</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008423854406967343</v>
+        <v>0.006830022327345343</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2135.17327844782</v>
+        <v>-2190.753725352716</v>
       </c>
       <c r="C11" t="n">
-        <v>5.552634852008516e-47</v>
+        <v>2.420855251960504e-49</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.81212834849304</v>
+        <v>25.51053218466592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1422603156487685</v>
+        <v>0.1628473019245841</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1398.384144510922</v>
+        <v>-1353.17873297055</v>
       </c>
       <c r="C13" t="n">
-        <v>1.253004146546811e-216</v>
+        <v>1.818759863543671e-203</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.64652780590973</v>
+        <v>-21.68299205092672</v>
       </c>
       <c r="C14" t="n">
-        <v>6.985761726004788e-30</v>
+        <v>4.579521544463203e-30</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.8140643957958</v>
+        <v>162.6627667915036</v>
       </c>
       <c r="C15" t="n">
-        <v>1.442167426976532e-45</v>
+        <v>4.014297642581289e-46</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.6857802015351</v>
+        <v>359.4419909857898</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01524319652483125</v>
+        <v>-0.01311865846770457</v>
       </c>
       <c r="C17" t="n">
-        <v>4.257759837870722e-05</v>
+        <v>0.0004313051960061846</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.855299052876033e-06</v>
+        <v>-2.848235277777672e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1538080058519756</v>
+        <v>0.2932062356727072</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.15238645141663</v>
+        <v>-13.61126376909411</v>
       </c>
       <c r="C19" t="n">
-        <v>1.335651240975053e-22</v>
+        <v>5.986495707496356e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.599704020062176</v>
+        <v>2.858835385744338</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09210149167142055</v>
+        <v>0.06251252211843947</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3467.699263848053</v>
+        <v>-3322.903005763201</v>
       </c>
       <c r="C21" t="n">
-        <v>1.020615270234315e-50</v>
+        <v>8.148328488580546e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2092.841142857649</v>
+        <v>-1994.870191749048</v>
       </c>
       <c r="C22" t="n">
-        <v>4.208374313104247e-37</v>
+        <v>4.088134417059401e-34</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11323.49562429782</v>
+        <v>11247.90127458471</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1231.084613845567</v>
+        <v>-1128.980384537869</v>
       </c>
       <c r="C3" t="n">
-        <v>2.696602046788299e-21</v>
+        <v>7.451573739223499e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-735.9702023629134</v>
+        <v>-726.7210559714533</v>
       </c>
       <c r="C4" t="n">
-        <v>4.934908567374518e-20</v>
+        <v>1.784850397766457e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-155.0529918136593</v>
+        <v>-75.94653819549973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0335181980856356</v>
+        <v>0.2990249550563507</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.82645567218469</v>
+        <v>46.50511926984099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6502074858154919</v>
+        <v>0.5568086770081959</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-202.5791405017224</v>
+        <v>16.49167410133207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05185410846060034</v>
+        <v>0.8750251313413759</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-205.5336465388248</v>
+        <v>-208.6816919463522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005030540482294551</v>
+        <v>0.004483286493466429</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2172.276848737347</v>
+        <v>-2088.256336369252</v>
       </c>
       <c r="C9" t="n">
-        <v>3.398764376581801e-56</v>
+        <v>1.38894448338682e-51</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-483.0519222359526</v>
+        <v>-407.8982123138139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003932941799561958</v>
+        <v>0.002944833160489966</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2203.81004730558</v>
+        <v>-2177.193868708177</v>
       </c>
       <c r="C11" t="n">
-        <v>3.586629517548519e-50</v>
+        <v>1.525600497328617e-48</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.94982910055842</v>
+        <v>38.74328105482076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02497290861751431</v>
+        <v>0.03385817781387055</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1371.217280283944</v>
+        <v>-1348.379068350253</v>
       </c>
       <c r="C13" t="n">
-        <v>1.094713302134598e-209</v>
+        <v>7.500014213528146e-202</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.54767393891296</v>
+        <v>-20.21317206561586</v>
       </c>
       <c r="C14" t="n">
-        <v>9.201943463927159e-30</v>
+        <v>2.876881183423861e-26</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175.9887129044791</v>
+        <v>157.928261785934</v>
       </c>
       <c r="C15" t="n">
-        <v>5.175535265255367e-53</v>
+        <v>2.285883720233153e-43</v>
       </c>
     </row>
     <row r="16">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350.6595976006168</v>
+        <v>354.8139258131494</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01170844674898279</v>
+        <v>-0.01232583223757252</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001627810139935379</v>
+        <v>0.0009518871826963821</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.775891650277461e-06</v>
+        <v>-4.197459532924023e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.159608650782976</v>
+        <v>0.1204196319472432</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.69779827371401</v>
+        <v>-14.31658296134514</v>
       </c>
       <c r="C19" t="n">
-        <v>6.523795031922052e-28</v>
+        <v>2.244849420864208e-26</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.028660874268056</v>
+        <v>2.044692629370324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04892483167692017</v>
+        <v>0.1817757976323812</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3318.119239442255</v>
+        <v>-3277.84327692099</v>
       </c>
       <c r="C21" t="n">
-        <v>1.213923239146536e-46</v>
+        <v>1.381861408641461e-45</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2078.994775111795</v>
+        <v>-2058.649006921977</v>
       </c>
       <c r="C22" t="n">
-        <v>7.188343901724091e-37</v>
+        <v>3.101137038764085e-36</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10957.42578830064</v>
+        <v>10871.67406235802</v>
       </c>
       <c r="C2" t="n">
-        <v>2.007045596937517e-299</v>
+        <v>1.879340713190054e-295</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1182.926458753302</v>
+        <v>-1100.171658575437</v>
       </c>
       <c r="C3" t="n">
-        <v>8.81084337493556e-20</v>
+        <v>2.689378505303611e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-713.3183254129</v>
+        <v>-644.0907155997994</v>
       </c>
       <c r="C4" t="n">
-        <v>6.854272115732759e-19</v>
+        <v>1.129917272300866e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-65.06023658897521</v>
+        <v>0.2033572377269053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3728359312823665</v>
+        <v>0.9977792052872099</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.4707082974462</v>
+        <v>124.0977033982747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1269139805572017</v>
+        <v>0.1168480132123579</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.07772173403899</v>
+        <v>-19.78627071250348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5275398609569233</v>
+        <v>0.8502314978491414</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-124.2704536016469</v>
+        <v>-106.4854809848412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08920677547771816</v>
+        <v>0.1472820245660222</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2030.115054738794</v>
+        <v>-2084.204449107134</v>
       </c>
       <c r="C9" t="n">
-        <v>3.307382614910409e-49</v>
+        <v>7.249392364949789e-52</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-340.439651526076</v>
+        <v>-392.7593900036536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01256326283907694</v>
+        <v>0.00406346229469794</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2152.681291248075</v>
+        <v>-2154.567873642463</v>
       </c>
       <c r="C11" t="n">
-        <v>9.71605817564732e-48</v>
+        <v>6.690420260877751e-48</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.37019968451828</v>
+        <v>40.69333446572907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0757812986455047</v>
+        <v>0.02559434715172099</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1367.31061213677</v>
+        <v>-1368.073379099108</v>
       </c>
       <c r="C13" t="n">
-        <v>2.002363521140639e-208</v>
+        <v>3.28712426743838e-208</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.96992954971802</v>
+        <v>-20.83588236871937</v>
       </c>
       <c r="C14" t="n">
-        <v>8.054073676233656e-26</v>
+        <v>8.00989715301117e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.9593940188297</v>
+        <v>163.0450893181458</v>
       </c>
       <c r="C15" t="n">
-        <v>6.242170830364092e-47</v>
+        <v>5.124891917856504e-46</v>
       </c>
     </row>
     <row r="16">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.3242614304127</v>
+        <v>355.0525173307717</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01208672102820959</v>
+        <v>-0.01583524843431632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001141390183770221</v>
+        <v>2.169279864296018e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.857342082141795e-06</v>
+        <v>-3.615610075523626e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1549582426834339</v>
+        <v>0.1813348765466456</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.71462594609402</v>
+        <v>-13.57642220920587</v>
       </c>
       <c r="C19" t="n">
-        <v>1.791877651506753e-24</v>
+        <v>5.350318234002911e-24</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.903751596948024</v>
+        <v>3.900717067221431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05884929228515778</v>
+        <v>0.01085672707858901</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3347.897545620197</v>
+        <v>-3207.632804717391</v>
       </c>
       <c r="C21" t="n">
-        <v>1.476111862291903e-47</v>
+        <v>1.230026684674294e-43</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2029.953129637202</v>
+        <v>-1976.662716079653</v>
       </c>
       <c r="C22" t="n">
-        <v>3.721521818471742e-35</v>
+        <v>1.426851612425194e-33</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11261.11823795387</v>
+        <v>11171.94597151328</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1164.100951635244</v>
+        <v>-1127.307984907655</v>
       </c>
       <c r="C3" t="n">
-        <v>5.939829136670214e-19</v>
+        <v>4.992336915875776e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-686.8387938068531</v>
+        <v>-643.5460385518485</v>
       </c>
       <c r="C4" t="n">
-        <v>1.564596714269924e-17</v>
+        <v>1.262881077598904e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-53.32566670052447</v>
+        <v>-42.0528922943425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4663297537837197</v>
+        <v>0.565111237377752</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.47643765053232</v>
+        <v>89.29516843774002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7962788718347552</v>
+        <v>0.2599350423953053</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-68.10783057815159</v>
+        <v>44.2353711278097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5158347899799289</v>
+        <v>0.672975117374027</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-231.8119604805397</v>
+        <v>-187.919955271266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001624804794525436</v>
+        <v>0.01054206916054036</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2216.338046277977</v>
+        <v>-2104.361923109002</v>
       </c>
       <c r="C9" t="n">
-        <v>7.826886631454748e-58</v>
+        <v>1.604494066794561e-52</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-514.0200716192885</v>
+        <v>-392.5558551178601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001805320920860159</v>
+        <v>0.004131336627244257</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2328.814049933241</v>
+        <v>-2213.283294439324</v>
       </c>
       <c r="C11" t="n">
-        <v>2.90537755086557e-55</v>
+        <v>3.720507551374014e-50</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.68755172641701</v>
+        <v>32.46642844255462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03008991892124577</v>
+        <v>0.07538188347122017</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1371.158904307154</v>
+        <v>-1375.626350459003</v>
       </c>
       <c r="C13" t="n">
-        <v>4.226705000930685e-208</v>
+        <v>1.632744767213523e-209</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.8085706427542</v>
+        <v>-21.01957872948269</v>
       </c>
       <c r="C14" t="n">
-        <v>2.786191282729311e-30</v>
+        <v>3.809829190848648e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.4730611093852</v>
+        <v>156.8605003255526</v>
       </c>
       <c r="C15" t="n">
-        <v>3.048586166096628e-45</v>
+        <v>1.113732967545545e-42</v>
       </c>
     </row>
     <row r="16">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.2696811038834</v>
+        <v>359.7843416630387</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01225850469713484</v>
+        <v>-0.0128645410109849</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001003455148062617</v>
+        <v>0.0005527787720154141</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.100273273357493e-06</v>
+        <v>-3.194121793323545e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1295830190915148</v>
+        <v>0.237514717298817</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.45380154615612</v>
+        <v>-14.04642164409766</v>
       </c>
       <c r="C19" t="n">
-        <v>1.627573863759888e-23</v>
+        <v>1.55318212446124e-25</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.723702230342407</v>
+        <v>2.801543108301039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07571972211451229</v>
+        <v>0.06766759628699751</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3336.084722242872</v>
+        <v>-3469.541803762627</v>
       </c>
       <c r="C21" t="n">
-        <v>4.83374228071487e-47</v>
+        <v>1.032206638037661e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1988.76191487816</v>
+        <v>-2089.677172344502</v>
       </c>
       <c r="C22" t="n">
-        <v>1.464212995551514e-33</v>
+        <v>5.800087921980961e-37</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11002.58423222351</v>
+        <v>11327.09299666059</v>
       </c>
       <c r="C2" t="n">
-        <v>9.347707062300088e-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1023.163413345411</v>
+        <v>-1139.840816187501</v>
       </c>
       <c r="C3" t="n">
-        <v>6.634619292951506e-15</v>
+        <v>3.500282056457543e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-640.3943442921848</v>
+        <v>-698.4794877285991</v>
       </c>
       <c r="C4" t="n">
-        <v>1.741395433630001e-15</v>
+        <v>3.194549836497115e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9743917677456295</v>
+        <v>-52.9058132683255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9893694015915296</v>
+        <v>0.4685185052752233</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.30284418024547</v>
+        <v>56.74508094685385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7216722189697069</v>
+        <v>0.471241057388366</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-126.9973933344853</v>
+        <v>-14.63412235202343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2260422279812407</v>
+        <v>0.8883901154247436</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-161.9946947695452</v>
+        <v>-128.6629162756543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02802184467357456</v>
+        <v>0.0780205218296597</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2004.332456114353</v>
+        <v>-2134.634339795899</v>
       </c>
       <c r="C9" t="n">
-        <v>5.507419683267844e-48</v>
+        <v>2.211332963098697e-54</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-223.1931735209328</v>
+        <v>-412.013685805734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1025620721929681</v>
+        <v>0.002541097349993177</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2009.84064297729</v>
+        <v>-2162.909225716451</v>
       </c>
       <c r="C11" t="n">
-        <v>7.556492330393665e-42</v>
+        <v>2.176334175506183e-48</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.54215047066098</v>
+        <v>30.4820413521908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1070251220222598</v>
+        <v>0.09466466748406777</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1378.339511418271</v>
+        <v>-1379.688929328237</v>
       </c>
       <c r="C13" t="n">
-        <v>5.476202445268156e-210</v>
+        <v>7.29030988359805e-213</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.72266129628139</v>
+        <v>-21.53749400716158</v>
       </c>
       <c r="C14" t="n">
-        <v>1.229257959590328e-32</v>
+        <v>7.744207650678922e-30</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.0893008717019</v>
+        <v>151.2839986007433</v>
       </c>
       <c r="C15" t="n">
-        <v>5.868803125089956e-41</v>
+        <v>2.490554329580402e-40</v>
       </c>
     </row>
     <row r="16">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.1971199433909</v>
+        <v>360.4199858737766</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01646177351392196</v>
+        <v>-0.01405012995137167</v>
       </c>
       <c r="C17" t="n">
-        <v>1.066657488982354e-05</v>
+        <v>0.0001569876020784758</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.304473690466335e-06</v>
+        <v>-3.968013850105395e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2224216834746623</v>
+        <v>0.1415103867519258</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-12.60547393007116</v>
+        <v>-13.86790195523209</v>
       </c>
       <c r="C19" t="n">
-        <v>8.544352062368619e-21</v>
+        <v>4.070383774290656e-25</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.522517178952967</v>
+        <v>1.399601796981429</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02290250650565594</v>
+        <v>0.3579620752216816</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3440.14077488014</v>
+        <v>-3426.633493254007</v>
       </c>
       <c r="C21" t="n">
-        <v>1.595183588552137e-49</v>
+        <v>9.145167909350371e-50</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2096.828618613674</v>
+        <v>-2032.027192657024</v>
       </c>
       <c r="C22" t="n">
-        <v>3.392108233407974e-37</v>
+        <v>1.42818328045398e-35</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59432399" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ07048744" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ14444587" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ22910129" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31131431" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ39267020" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ46695534" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55194520" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03536360" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44536427" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51382313" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58285398" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05652311" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13629612" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ21565165" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29674514" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ39809244" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ49939229" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11501.2627196247</v>
+        <v>11501.16230372147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1188.167344156397</v>
+        <v>-1188.152050114414</v>
       </c>
       <c r="C3" t="n">
-        <v>1.034980230790248e-19</v>
+        <v>1.036078483668851e-19</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-636.20440206916</v>
+        <v>-636.2023442212405</v>
       </c>
       <c r="C4" t="n">
-        <v>1.965998349023609e-15</v>
+        <v>1.966383437775565e-15</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-66.06290659336669</v>
+        <v>-66.06234101937316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3636912621548478</v>
+        <v>0.3636952878285516</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.6746455221878</v>
+        <v>26.67462338032915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7358353259206269</v>
+        <v>0.7358354935350537</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-120.7678110847707</v>
+        <v>-120.7716811325927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2478804656318946</v>
+        <v>0.2478652442539122</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-139.8880792540348</v>
+        <v>-139.8692172247596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0564505958570365</v>
+        <v>0.05648379237812269</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2182.297550745297</v>
+        <v>-2182.324508289832</v>
       </c>
       <c r="C9" t="n">
-        <v>8.857871272653786e-57</v>
+        <v>8.829989637612088e-57</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-371.5353099751064</v>
+        <v>-371.5106756510741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006408813839983536</v>
+        <v>0.006412300776729515</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2218.00295073124</v>
+        <v>-2217.894155908205</v>
       </c>
       <c r="C11" t="n">
-        <v>8.196837046243333e-51</v>
+        <v>8.287052272282158e-51</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.5922168828432</v>
+        <v>35.58789342151073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05154075971604366</v>
+        <v>0.05156908233860756</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1411.839915292809</v>
+        <v>-1411.841421579324</v>
       </c>
       <c r="C13" t="n">
-        <v>1.10077845020137e-221</v>
+        <v>1.099418064947811e-221</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.06855036214988</v>
+        <v>-22.06908217995203</v>
       </c>
       <c r="C14" t="n">
-        <v>3.863245851843993e-31</v>
+        <v>3.850659513600015e-31</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.8228535242173</v>
+        <v>164.8163847727935</v>
       </c>
       <c r="C15" t="n">
-        <v>4.310749827664267e-47</v>
+        <v>4.343827588701056e-47</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.7788891946037</v>
+        <v>355.7785184886224</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0130125120115107</v>
+        <v>-0.01303100394693674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004693717002161277</v>
+        <v>0.0004606689783136791</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.051643288087908e-06</v>
+        <v>-5.048176993557597e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06297552416416909</v>
+        <v>0.0631567852638167</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.80379706888783</v>
+        <v>-13.8018436548613</v>
       </c>
       <c r="C19" t="n">
-        <v>7.655528886012593e-25</v>
+        <v>7.770607366448869e-25</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.052792953221782</v>
+        <v>1.053195673544132</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4911452383351153</v>
+        <v>0.490978948721233</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3599.880839690127</v>
+        <v>-3599.893097589418</v>
       </c>
       <c r="C21" t="n">
-        <v>2.396373791939756e-54</v>
+        <v>2.394331080875054e-54</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2104.254182818264</v>
+        <v>-2103.926743270909</v>
       </c>
       <c r="C22" t="n">
-        <v>7.244366665798482e-38</v>
+        <v>7.43270384706268e-38</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11055.97533569954</v>
+        <v>11055.8674854272</v>
       </c>
       <c r="C2" t="n">
-        <v>2.826781346809134e-304</v>
+        <v>2.862006031346395e-304</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1095.872318900168</v>
+        <v>-1095.85416123044</v>
       </c>
       <c r="C3" t="n">
-        <v>5.690520777514562e-17</v>
+        <v>5.697174701903996e-17</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-573.0054823456237</v>
+        <v>-573.0036850313818</v>
       </c>
       <c r="C4" t="n">
-        <v>1.165230924244949e-12</v>
+        <v>1.165411068567238e-12</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.59460766268784</v>
+        <v>15.5941623261767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8313177649429678</v>
+        <v>0.8313224884934594</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.813033120282654</v>
+        <v>7.813719002468559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9214413671343263</v>
+        <v>0.9214344825958389</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-132.9805511173097</v>
+        <v>-132.9827475000338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2045361446999081</v>
+        <v>0.204528619336545</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-206.5909808631259</v>
+        <v>-206.5709328746389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004922704771270167</v>
+        <v>0.00492687073534635</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1951.475111760255</v>
+        <v>-1951.502170554792</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54827535228587e-45</v>
+        <v>1.543934134310667e-45</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-196.4559306533283</v>
+        <v>-196.4295529645879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1511316755057953</v>
+        <v>0.1511864096931655</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2082.324496544682</v>
+        <v>-2082.211041685759</v>
       </c>
       <c r="C11" t="n">
-        <v>8.999572829872031e-45</v>
+        <v>9.096449087063631e-45</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.21786150070479</v>
+        <v>45.21360517210037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01353440238565759</v>
+        <v>0.01354319299619404</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1389.080106160019</v>
+        <v>-1389.081576458708</v>
       </c>
       <c r="C13" t="n">
-        <v>1.067780137401548e-213</v>
+        <v>1.066567090640763e-213</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.26439276844057</v>
+        <v>-20.26492264704796</v>
       </c>
       <c r="C14" t="n">
-        <v>2.743517145530727e-26</v>
+        <v>2.735394227972624e-26</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.2319509349963</v>
+        <v>168.2251536490692</v>
       </c>
       <c r="C15" t="n">
-        <v>3.244470212920941e-49</v>
+        <v>3.271400954923081e-49</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.3236303217906</v>
+        <v>357.3231773253131</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.009217154348168603</v>
+        <v>-0.0092362703052178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01349207265524163</v>
+        <v>0.01329963554423196</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.394066427723104e-06</v>
+        <v>-6.390568217288148e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01821631376591291</v>
+        <v>0.01828001349619066</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.80749588005606</v>
+        <v>-13.80546672340712</v>
       </c>
       <c r="C19" t="n">
-        <v>1.094651017638328e-24</v>
+        <v>1.111652274150929e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.507314201058902</v>
+        <v>1.507758306383102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.328206005021395</v>
+        <v>0.3280629716787605</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3359.872341157419</v>
+        <v>-3359.882579796786</v>
       </c>
       <c r="C21" t="n">
-        <v>1.518475608215982e-47</v>
+        <v>1.517474000050097e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2179.391549807624</v>
+        <v>-2179.053060664968</v>
       </c>
       <c r="C22" t="n">
-        <v>2.016891372932582e-40</v>
+        <v>2.073142080915911e-40</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11044.10968318824</v>
+        <v>11043.99071581688</v>
       </c>
       <c r="C2" t="n">
-        <v>3.393829106467506e-307</v>
+        <v>3.440784675054763e-307</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1130.232553204457</v>
+        <v>-1130.214775324032</v>
       </c>
       <c r="C3" t="n">
-        <v>3.512770933539234e-18</v>
+        <v>3.516928878123786e-18</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-674.0816086028751</v>
+        <v>-674.0785414587291</v>
       </c>
       <c r="C4" t="n">
-        <v>4.290683366577946e-17</v>
+        <v>4.292006759680356e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-72.18847133147156</v>
+        <v>-72.1878402842155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3217870802062867</v>
+        <v>0.3217912087607613</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.98918430557273</v>
+        <v>27.98936412248577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7223931415777208</v>
+        <v>0.7223913716937067</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-130.4570093550087</v>
+        <v>-130.4605791924725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2108906044249938</v>
+        <v>0.2108780262372827</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-159.150938698277</v>
+        <v>-159.1278069561097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02946205718910648</v>
+        <v>0.02948559663189688</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2066.04944281897</v>
+        <v>-2066.081610699395</v>
       </c>
       <c r="C9" t="n">
-        <v>3.421119866210206e-51</v>
+        <v>3.408911565671509e-51</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-403.6573553792477</v>
+        <v>-403.6288862000292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003073670394572877</v>
+        <v>0.003075739524448405</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2103.512828115695</v>
+        <v>-2103.381543605941</v>
       </c>
       <c r="C11" t="n">
-        <v>5.110251261203207e-46</v>
+        <v>5.175014501410901e-46</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.0319696611286</v>
+        <v>21.02671925539424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2476241752695472</v>
+        <v>0.2477421403551958</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1426.416160634019</v>
+        <v>-1426.418226087149</v>
       </c>
       <c r="C13" t="n">
-        <v>2.50328889019155e-227</v>
+        <v>2.498999271607309e-227</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.43126347951465</v>
+        <v>-22.4318832518703</v>
       </c>
       <c r="C14" t="n">
-        <v>2.456607868515059e-32</v>
+        <v>2.447013170728068e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.9820403885031</v>
+        <v>165.9742374943507</v>
       </c>
       <c r="C15" t="n">
-        <v>4.785654783110164e-48</v>
+        <v>4.830994305679596e-48</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.1096906434951</v>
+        <v>357.1091509367845</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01406870814784821</v>
+        <v>-0.01409081998252052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001480304213544157</v>
+        <v>0.0001445012119185607</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.000895226213404e-06</v>
+        <v>-4.996867272474943e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06205837517656641</v>
+        <v>0.06226928943355581</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.01258966832523</v>
+        <v>-13.01026324747841</v>
       </c>
       <c r="C19" t="n">
-        <v>2.349042435134988e-22</v>
+        <v>2.389012261326066e-22</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.840098465923419</v>
+        <v>3.840574172716634</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01211755538024327</v>
+        <v>0.01210678819099211</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3310.560650891335</v>
+        <v>-3310.574945815829</v>
       </c>
       <c r="C21" t="n">
-        <v>1.101290441141603e-46</v>
+        <v>1.100268019732087e-46</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1963.00518845491</v>
+        <v>-1962.610339178672</v>
       </c>
       <c r="C22" t="n">
-        <v>3.074379329631937e-33</v>
+        <v>3.165115749423968e-33</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11150.29722279682</v>
+        <v>11150.19635985061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1097.086856473323</v>
+        <v>-1097.073007568163</v>
       </c>
       <c r="C3" t="n">
-        <v>4.23679563572779e-17</v>
+        <v>4.240577061474017e-17</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-668.4244127686604</v>
+        <v>-668.421149721833</v>
       </c>
       <c r="C4" t="n">
-        <v>9.566382500600122e-17</v>
+        <v>9.569550560719603e-17</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26.43607830961798</v>
+        <v>-26.43528405280941</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7178407783119607</v>
+        <v>0.7178488543784294</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.44649982097123</v>
+        <v>66.44624354782877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4003852704877756</v>
+        <v>0.4003870212081682</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-125.1509896849167</v>
+        <v>-125.1550226710905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2312187515307088</v>
+        <v>0.2312036633789088</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-192.9630036398586</v>
+        <v>-192.9437493830511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008439487925098582</v>
+        <v>0.008446010892670171</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2101.390946121455</v>
+        <v>-2101.418897426943</v>
       </c>
       <c r="C9" t="n">
-        <v>1.353737609291607e-52</v>
+        <v>1.349524536312081e-52</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-337.9023076153426</v>
+        <v>-337.8780603685536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01333659136982643</v>
+        <v>0.01334318249632912</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2178.173003074206</v>
+        <v>-2178.063549816678</v>
       </c>
       <c r="C11" t="n">
-        <v>6.361541454727585e-49</v>
+        <v>6.430409766893225e-49</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.53531090443857</v>
+        <v>33.53129282670984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06583216827633154</v>
+        <v>0.06586453447031229</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1379.99461102512</v>
+        <v>-1379.996086084172</v>
       </c>
       <c r="C13" t="n">
-        <v>1.671295062449062e-212</v>
+        <v>1.669349135723087e-212</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.37674460044812</v>
+        <v>-22.37724727100075</v>
       </c>
       <c r="C14" t="n">
-        <v>5.94813979087784e-32</v>
+        <v>5.929558022912194e-32</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.0477278464237</v>
+        <v>173.0412580725315</v>
       </c>
       <c r="C15" t="n">
-        <v>4.830625835012299e-52</v>
+        <v>4.86958000927942e-52</v>
       </c>
     </row>
     <row r="16">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.3291819346196</v>
+        <v>359.3287728435121</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0111047650361603</v>
+        <v>-0.01112331483814866</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002793032808182858</v>
+        <v>0.002747593848465834</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.628333339484511e-06</v>
+        <v>-4.624951723213071e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08761551621884728</v>
+        <v>0.08784769435845657</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.01521590273432</v>
+        <v>-14.0132593493412</v>
       </c>
       <c r="C19" t="n">
-        <v>1.906381955586276e-25</v>
+        <v>1.935305687556581e-25</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.782827935542035</v>
+        <v>1.783214574836018</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2459758090142087</v>
+        <v>0.2458727788591076</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3187.915205390502</v>
+        <v>-3187.925479071075</v>
       </c>
       <c r="C21" t="n">
-        <v>3.992993560935711e-43</v>
+        <v>3.990460577180773e-43</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1930.616080468343</v>
+        <v>-1930.286265489967</v>
       </c>
       <c r="C22" t="n">
-        <v>3.65836897349437e-32</v>
+        <v>3.746834359179576e-32</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11105.50830593322</v>
+        <v>11105.38733514067</v>
       </c>
       <c r="C2" t="n">
-        <v>2.250620791192009e-308</v>
+        <v>2.282615139924804e-308</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1055.636985266921</v>
+        <v>-1055.620345955348</v>
       </c>
       <c r="C3" t="n">
-        <v>6.690758081014973e-16</v>
+        <v>6.697639791935122e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-645.1816217792904</v>
+        <v>-645.1786264324994</v>
       </c>
       <c r="C4" t="n">
-        <v>1.070953415408705e-15</v>
+        <v>1.071263514219943e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-34.26088336763594</v>
+        <v>-34.26127625985983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6391079333640697</v>
+        <v>0.6391040226262892</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.49537414988859</v>
+        <v>37.4951766540251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6351483186013378</v>
+        <v>0.6351500355502631</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-89.29395278477331</v>
+        <v>-89.29649878251224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3940988512998072</v>
+        <v>0.3940852828421032</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-173.8637559129022</v>
+        <v>-173.84169709868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01749654311518857</v>
+        <v>0.0175108029550212</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2145.275951457166</v>
+        <v>-2145.304431937437</v>
       </c>
       <c r="C9" t="n">
-        <v>8.334709422661838e-55</v>
+        <v>8.307498079574406e-55</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-369.7685885310657</v>
+        <v>-369.7389637730939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006830022327345343</v>
+        <v>0.006834451027529972</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2190.753725352716</v>
+        <v>-2190.625812004213</v>
       </c>
       <c r="C11" t="n">
-        <v>2.420855251960504e-49</v>
+        <v>2.451660955535619e-49</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.51053218466592</v>
+        <v>25.50566495460667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1628473019245841</v>
+        <v>0.1629274690871495</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1353.17873297055</v>
+        <v>-1353.181013904835</v>
       </c>
       <c r="C13" t="n">
-        <v>1.818759863543671e-203</v>
+        <v>1.815617803017362e-203</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.68299205092672</v>
+        <v>-21.68355978590798</v>
       </c>
       <c r="C14" t="n">
-        <v>4.579521544463203e-30</v>
+        <v>4.563809254545078e-30</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.6627667915036</v>
+        <v>162.6554530365445</v>
       </c>
       <c r="C15" t="n">
-        <v>4.014297642581289e-46</v>
+        <v>4.048922040816446e-46</v>
       </c>
     </row>
     <row r="16">
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.4419909857898</v>
+        <v>359.441485111767</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01311865846770457</v>
+        <v>-0.01313990132701422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004313051960061846</v>
+        <v>0.0004220982344564173</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.848235277777672e-06</v>
+        <v>-2.844319499102686e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2932062356727072</v>
+        <v>0.2938709821809024</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.61126376909411</v>
+        <v>-13.60900998896844</v>
       </c>
       <c r="C19" t="n">
-        <v>5.986495707496356e-24</v>
+        <v>6.088004448483004e-24</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.858835385744338</v>
+        <v>2.859316246016975</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06251252211843947</v>
+        <v>0.06246809312837734</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3322.903005763201</v>
+        <v>-3322.913598564519</v>
       </c>
       <c r="C21" t="n">
-        <v>8.148328488580546e-47</v>
+        <v>8.142669036461201e-47</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1994.870191749048</v>
+        <v>-1994.494336299343</v>
       </c>
       <c r="C22" t="n">
-        <v>4.088134417059401e-34</v>
+        <v>4.204303801164371e-34</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11247.90127458471</v>
+        <v>11247.80655708197</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1128.980384537869</v>
+        <v>-1128.965825229356</v>
       </c>
       <c r="C3" t="n">
-        <v>7.451573739223499e-18</v>
+        <v>7.45867277778737e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-726.7210559714533</v>
+        <v>-726.7193014191103</v>
       </c>
       <c r="C4" t="n">
-        <v>1.784850397766457e-19</v>
+        <v>1.785180343522627e-19</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-75.94653819549973</v>
+        <v>-75.94575308366855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2990249550563507</v>
+        <v>0.2990298815706814</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.50511926984099</v>
+        <v>46.50497288339729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5568086770081959</v>
+        <v>0.5568098558076088</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.49167410133207</v>
+        <v>16.48895946761453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8750251313413759</v>
+        <v>0.8750455175249406</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-208.6816919463522</v>
+        <v>-208.6636864801663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004483286493466429</v>
+        <v>0.004486724751859534</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2088.256336369252</v>
+        <v>-2088.280395461201</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38894448338682e-51</v>
+        <v>1.385252659024515e-51</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-407.8982123138139</v>
+        <v>-407.8743612852504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002944833160489966</v>
+        <v>0.00294648986889393</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2177.193868708177</v>
+        <v>-2177.089111334859</v>
       </c>
       <c r="C11" t="n">
-        <v>1.525600497328617e-48</v>
+        <v>1.541339232664504e-48</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74328105482076</v>
+        <v>38.73912725392695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03385817781387055</v>
+        <v>0.03387726980674461</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1348.379068350253</v>
+        <v>-1348.381129371882</v>
       </c>
       <c r="C13" t="n">
-        <v>7.500014213528146e-202</v>
+        <v>7.488596311791163e-202</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.21317206561586</v>
+        <v>-20.21366628196899</v>
       </c>
       <c r="C14" t="n">
-        <v>2.876881183423861e-26</v>
+        <v>2.868900431539591e-26</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.928261785934</v>
+        <v>157.9222147850378</v>
       </c>
       <c r="C15" t="n">
-        <v>2.285883720233153e-43</v>
+        <v>2.301602454018365e-43</v>
       </c>
     </row>
     <row r="16">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.8139258131494</v>
+        <v>354.8135624416667</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01232583223757252</v>
+        <v>-0.0123433095547839</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009518871826963821</v>
+        <v>0.0009360468611119089</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.197459532924023e-06</v>
+        <v>-4.194251724725321e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1204196319472432</v>
+        <v>0.1207038731006009</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.31658296134514</v>
+        <v>-14.31473298742842</v>
       </c>
       <c r="C19" t="n">
-        <v>2.244849420864208e-26</v>
+        <v>2.277601856865697e-26</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.044692629370324</v>
+        <v>2.045067150640537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1817757976323812</v>
+        <v>0.181695261921162</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3277.84327692099</v>
+        <v>-3277.855139042789</v>
       </c>
       <c r="C21" t="n">
-        <v>1.381861408641461e-45</v>
+        <v>1.380824412182222e-45</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2058.649006921977</v>
+        <v>-2058.340676318415</v>
       </c>
       <c r="C22" t="n">
-        <v>3.101137038764085e-36</v>
+        <v>3.175262488817927e-36</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10871.67406235802</v>
+        <v>10871.55917747086</v>
       </c>
       <c r="C2" t="n">
-        <v>1.879340713190054e-295</v>
+        <v>1.903834499138705e-295</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1100.171658575437</v>
+        <v>-1100.154914004066</v>
       </c>
       <c r="C3" t="n">
-        <v>2.689378505303611e-17</v>
+        <v>2.692299511891841e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-644.0907155997994</v>
+        <v>-644.0884523274344</v>
       </c>
       <c r="C4" t="n">
-        <v>1.129917272300866e-15</v>
+        <v>1.130158159747669e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2033572377269053</v>
+        <v>0.2037837975808401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9977792052872099</v>
+        <v>0.9977745464656766</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.0977033982747</v>
+        <v>124.0973295295229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1168480132123579</v>
+        <v>0.1168490292328816</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.78627071250348</v>
+        <v>-19.79125390117898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8502314978491414</v>
+        <v>0.850194195015993</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-106.4854809848412</v>
+        <v>-106.4633383609038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1472820245660222</v>
+        <v>0.1473660252493673</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2084.204449107134</v>
+        <v>-2084.234978602773</v>
       </c>
       <c r="C9" t="n">
-        <v>7.249392364949789e-52</v>
+        <v>7.224699093143123e-52</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-392.7593900036536</v>
+        <v>-392.7311948260576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00406346229469794</v>
+        <v>0.004066097655441411</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2154.567873642463</v>
+        <v>-2154.440859051449</v>
       </c>
       <c r="C11" t="n">
-        <v>6.690420260877751e-48</v>
+        <v>6.773904014057251e-48</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.69333446572907</v>
+        <v>40.68818421564952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02559434715172099</v>
+        <v>0.02561299007499041</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1368.073379099108</v>
+        <v>-1368.075525277577</v>
       </c>
       <c r="C13" t="n">
-        <v>3.28712426743838e-208</v>
+        <v>3.281563033614011e-208</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.83588236871937</v>
+        <v>-20.83648906160219</v>
       </c>
       <c r="C14" t="n">
-        <v>8.00989715301117e-28</v>
+        <v>7.981823212140008e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163.0450893181458</v>
+        <v>163.0377615093279</v>
       </c>
       <c r="C15" t="n">
-        <v>5.124891917856504e-46</v>
+        <v>5.169124533615612e-46</v>
       </c>
     </row>
     <row r="16">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.0525173307717</v>
+        <v>355.0521284818735</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01583524843431632</v>
+        <v>-0.01585656592207962</v>
       </c>
       <c r="C17" t="n">
-        <v>2.169279864296018e-05</v>
+        <v>2.114440095391209e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.615610075523626e-06</v>
+        <v>-3.611679328135997e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1813348765466456</v>
+        <v>0.1818103953218752</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.57642220920587</v>
+        <v>-13.57417071897717</v>
       </c>
       <c r="C19" t="n">
-        <v>5.350318234002911e-24</v>
+        <v>5.441392375548887e-24</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.900717067221431</v>
+        <v>3.901172611289282</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01085672707858901</v>
+        <v>0.01084737624577238</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3207.632804717391</v>
+        <v>-3207.646136436688</v>
       </c>
       <c r="C21" t="n">
-        <v>1.230026684674294e-43</v>
+        <v>1.228995796421684e-43</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1976.662716079653</v>
+        <v>-1976.285458871545</v>
       </c>
       <c r="C22" t="n">
-        <v>1.426851612425194e-33</v>
+        <v>1.46718913610624e-33</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11171.94597151328</v>
+        <v>11171.8484494206</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1127.307984907655</v>
+        <v>-1127.292815930947</v>
       </c>
       <c r="C3" t="n">
-        <v>4.992336915875776e-18</v>
+        <v>4.997363819450772e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-643.5460385518485</v>
+        <v>-643.5430022427727</v>
       </c>
       <c r="C4" t="n">
-        <v>1.262881077598904e-15</v>
+        <v>1.26325350168249e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-42.0528922943425</v>
+        <v>-42.05147450948381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.565111237377752</v>
+        <v>0.5651242935623995</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.29516843774002</v>
+        <v>89.29545997674698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2599350423953053</v>
+        <v>0.2599334076767339</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.2353711278097</v>
+        <v>44.2332409334381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.672975117374027</v>
+        <v>0.6729899056859774</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-187.919955271266</v>
+        <v>-187.9003632439876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01054206916054036</v>
+        <v>0.01055013233321884</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2104.361923109002</v>
+        <v>-2104.388635733274</v>
       </c>
       <c r="C9" t="n">
-        <v>1.604494066794561e-52</v>
+        <v>1.599720221749888e-52</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-392.5558551178601</v>
+        <v>-392.5326772431545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004131336627244257</v>
+        <v>0.004133531806468168</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2213.283294439324</v>
+        <v>-2213.175808957758</v>
       </c>
       <c r="C11" t="n">
-        <v>3.720507551374014e-50</v>
+        <v>3.760445244348763e-50</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.46642844255462</v>
+        <v>32.46244592738989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07538188347122017</v>
+        <v>0.07541766160788715</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1375.626350459003</v>
+        <v>-1375.628172504878</v>
       </c>
       <c r="C13" t="n">
-        <v>1.632744767213523e-209</v>
+        <v>1.630448418032397e-209</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.01957872948269</v>
+        <v>-21.02009411946019</v>
       </c>
       <c r="C14" t="n">
-        <v>3.809829190848648e-28</v>
+        <v>3.798440565947349e-28</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.8605003255526</v>
+        <v>156.8542005893</v>
       </c>
       <c r="C15" t="n">
-        <v>1.113732967545545e-42</v>
+        <v>1.121618362797392e-42</v>
       </c>
     </row>
     <row r="16">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.7843416630387</v>
+        <v>359.7839064712324</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0128645410109849</v>
+        <v>-0.01288253900872176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005527787720154141</v>
+        <v>0.0005429253781646611</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.194121793323545e-06</v>
+        <v>-3.190839688372851e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237514717298817</v>
+        <v>0.2379976838769788</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.04642164409766</v>
+        <v>-14.04454725712133</v>
       </c>
       <c r="C19" t="n">
-        <v>1.55318212446124e-25</v>
+        <v>1.575802208436781e-25</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.801543108301039</v>
+        <v>2.801919691142714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06766759628699751</v>
+        <v>0.06763034147885234</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3469.541803762627</v>
+        <v>-3469.552860521436</v>
       </c>
       <c r="C21" t="n">
-        <v>1.032206638037661e-50</v>
+        <v>1.031437587521049e-50</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2089.677172344502</v>
+        <v>-2089.353208625615</v>
       </c>
       <c r="C22" t="n">
-        <v>5.800087921980961e-37</v>
+        <v>5.947060967770548e-37</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11327.09299666059</v>
+        <v>11326.98143983388</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1139.840816187501</v>
+        <v>-1139.826512565528</v>
       </c>
       <c r="C3" t="n">
-        <v>3.500282056457543e-18</v>
+        <v>3.503584180246501e-18</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-698.4794877285991</v>
+        <v>-698.4770664032256</v>
       </c>
       <c r="C4" t="n">
-        <v>3.194549836497115e-18</v>
+        <v>3.195348163779362e-18</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-52.9058132683255</v>
+        <v>-52.90468342086794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4685185052752233</v>
+        <v>0.4685279200844031</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.74508094685385</v>
+        <v>56.74481047443865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471241057388366</v>
+        <v>0.471243086315435</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.63412235202343</v>
+        <v>-14.63754126812821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8883901154247436</v>
+        <v>0.888364192020928</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-128.6629162756543</v>
+        <v>-128.6423255231168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0780205218296597</v>
+        <v>0.07806807473029921</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2134.634339795899</v>
+        <v>-2134.662123055565</v>
       </c>
       <c r="C9" t="n">
-        <v>2.211332963098697e-54</v>
+        <v>2.204318269055184e-54</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-412.013685805734</v>
+        <v>-411.9871635083873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002541097349993177</v>
+        <v>0.00254271446759325</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2162.909225716451</v>
+        <v>-2162.791218257949</v>
       </c>
       <c r="C11" t="n">
-        <v>2.176334175506183e-48</v>
+        <v>2.20166062305678e-48</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.4820413521908</v>
+        <v>30.47739260590065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09466466748406777</v>
+        <v>0.09471493604525223</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1379.688929328237</v>
+        <v>-1379.691848187751</v>
       </c>
       <c r="C13" t="n">
-        <v>7.29030988359805e-213</v>
+        <v>7.274279148294373e-213</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.53749400716158</v>
+        <v>-21.53802299823352</v>
       </c>
       <c r="C14" t="n">
-        <v>7.744207650678922e-30</v>
+        <v>7.719513193141833e-30</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.2839986007433</v>
+        <v>151.2773011137843</v>
       </c>
       <c r="C15" t="n">
-        <v>2.490554329580402e-40</v>
+        <v>2.50900847669233e-40</v>
       </c>
     </row>
     <row r="16">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360.4199858737766</v>
+        <v>360.4196053634473</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01405012995137167</v>
+        <v>-0.01406992109652946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001569876020784758</v>
+        <v>0.0001536523159390818</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.968013850105395e-06</v>
+        <v>-3.964344132381443e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1415103867519258</v>
+        <v>0.1418794009268428</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.86790195523209</v>
+        <v>-13.86579942698309</v>
       </c>
       <c r="C19" t="n">
-        <v>4.070383774290656e-25</v>
+        <v>4.136732811984949e-25</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.399601796981429</v>
+        <v>1.400034496483963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3579620752216816</v>
+        <v>0.3578128650173545</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3426.633493254007</v>
+        <v>-3426.646322170125</v>
       </c>
       <c r="C21" t="n">
-        <v>9.145167909350371e-50</v>
+        <v>9.137299906367371e-50</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2032.027192657024</v>
+        <v>-2031.675379238925</v>
       </c>
       <c r="C22" t="n">
-        <v>1.42818328045398e-35</v>
+        <v>1.467076152644494e-35</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/All.xlsx
+++ b/outputs/ML_Results/dist_commute/All.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ44536427" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51382313" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58285398" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ05652311" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13629612" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ21565165" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29674514" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ39809244" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ49939229" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ13829729" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ20595446" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ27677314" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ35185454" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42003903" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48743599" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ56270374" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04172432" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ11066276" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11501.16230372147</v>
+        <v>9200.95926392064</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.101716598482862e-200</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1188.152050114414</v>
+        <v>-1263.738556581065</v>
       </c>
       <c r="C3" t="n">
-        <v>1.036078483668851e-19</v>
+        <v>5.166077945042149e-22</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-636.2023442212405</v>
+        <v>-804.5982499157922</v>
       </c>
       <c r="C4" t="n">
-        <v>1.966383437775565e-15</v>
+        <v>1.120517024615822e-23</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-66.06234101937316</v>
+        <v>-100.2509190176577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3636952878285516</v>
+        <v>0.1686982535987273</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.67462338032915</v>
+        <v>70.17028136418242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7358354935350537</v>
+        <v>0.3756111816713783</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-120.7716811325927</v>
+        <v>-97.84974370687107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2478652442539122</v>
+        <v>0.3499983347336617</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-139.8692172247596</v>
+        <v>1.267669678714697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05648379237812269</v>
+        <v>0.9862167299317308</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2182.324508289832</v>
+        <v>-1903.891451376771</v>
       </c>
       <c r="C9" t="n">
-        <v>8.829989637612088e-57</v>
+        <v>1.995786630534614e-43</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-371.5106756510741</v>
+        <v>28.6993050568235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006412300776729515</v>
+        <v>0.8342141421460046</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2217.894155908205</v>
+        <v>-737.532534566029</v>
       </c>
       <c r="C11" t="n">
-        <v>8.287052272282158e-51</v>
+        <v>3.837972383426824e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.58789342151073</v>
+        <v>23.95597309234576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05156908233860756</v>
+        <v>0.1910985037934186</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1411.841421579324</v>
+        <v>-1412.609367953889</v>
       </c>
       <c r="C13" t="n">
-        <v>1.099418064947811e-221</v>
+        <v>3.740826653615813e-221</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.06908217995203</v>
+        <v>-25.11103036113053</v>
       </c>
       <c r="C14" t="n">
-        <v>3.850659513600015e-31</v>
+        <v>1.126201244926495e-39</v>
       </c>
     </row>
     <row r="15">
@@ -635,20 +635,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.8163847727935</v>
+        <v>171.9935166100901</v>
       </c>
       <c r="C15" t="n">
-        <v>4.343827588701056e-47</v>
+        <v>5.407032675055149e-51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.7785184886224</v>
+        <v>30.12537938714206</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01303100394693674</v>
+        <v>-0.5640037915937506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004606689783136791</v>
+        <v>0.1305657578224173</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.048176993557597e-06</v>
+        <v>-6.292112883197426</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0631567852638167</v>
+        <v>0.02091607787879536</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.8018436548613</v>
+        <v>-12.86079233633475</v>
       </c>
       <c r="C19" t="n">
-        <v>7.770607366448869e-25</v>
+        <v>2.129976325232202e-21</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.053195673544132</v>
+        <v>5.188167685059931</v>
       </c>
       <c r="C20" t="n">
-        <v>0.490978948721233</v>
+        <v>0.0007140302957124244</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3599.893097589418</v>
+        <v>-17.21230059938559</v>
       </c>
       <c r="C21" t="n">
-        <v>2.394331080875054e-54</v>
+        <v>1.895521215862351e-13</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2103.926743270909</v>
+        <v>-7.662537749558027</v>
       </c>
       <c r="C22" t="n">
-        <v>7.43270384706268e-38</v>
+        <v>2.666230117475044e-06</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11055.8674854272</v>
+        <v>8750.635971792432</v>
       </c>
       <c r="C2" t="n">
-        <v>2.862006031346395e-304</v>
+        <v>6.60312339113128e-180</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1095.85416123044</v>
+        <v>-1178.575800053084</v>
       </c>
       <c r="C3" t="n">
-        <v>5.697174701903996e-17</v>
+        <v>2.591359650885788e-19</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-573.0036850313818</v>
+        <v>-734.7124011188664</v>
       </c>
       <c r="C4" t="n">
-        <v>1.165411068567238e-12</v>
+        <v>9.056213911538843e-20</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.5941623261767</v>
+        <v>-18.22935562631984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8313224884934594</v>
+        <v>0.8036709481369938</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.813719002468559</v>
+        <v>54.88836947524419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9214344825958389</v>
+        <v>0.4891892331407043</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-132.9827475000338</v>
+        <v>-97.21372661562616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.204528619336545</v>
+        <v>0.3545656028022345</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-206.5709328746389</v>
+        <v>-56.97677976816095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00492687073534635</v>
+        <v>0.4383074388523948</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1951.502170554792</v>
+        <v>-1677.303879368299</v>
       </c>
       <c r="C9" t="n">
-        <v>1.543934134310667e-45</v>
+        <v>6.51684252947527e-34</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-196.4295529645879</v>
+        <v>202.0154041693913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1511864096931655</v>
+        <v>0.1423809264522918</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2082.211041685759</v>
+        <v>-594.030280504413</v>
       </c>
       <c r="C11" t="n">
-        <v>9.096449087063631e-45</v>
+        <v>4.578950367800706e-05</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45.21360517210037</v>
+        <v>35.59021638371198</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01354319299619404</v>
+        <v>0.05251079352631016</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1389.081576458708</v>
+        <v>-1389.813387649258</v>
       </c>
       <c r="C13" t="n">
-        <v>1.066567090640763e-213</v>
+        <v>3.932894226732513e-213</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.26492264704796</v>
+        <v>-23.41389368341243</v>
       </c>
       <c r="C14" t="n">
-        <v>2.735394227972624e-26</v>
+        <v>2.086025216827444e-34</v>
       </c>
     </row>
     <row r="15">
@@ -944,20 +944,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.2251536490692</v>
+        <v>175.4559842965901</v>
       </c>
       <c r="C15" t="n">
-        <v>3.271400954923081e-49</v>
+        <v>3.145747534931313e-53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.3231773253131</v>
+        <v>30.1776136604659</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0092362703052178</v>
+        <v>-0.1987307878762161</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01329963554423196</v>
+        <v>0.5953203407971333</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.390568217288148e-06</v>
+        <v>-7.772351265664064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01828001349619066</v>
+        <v>0.004210878724242094</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.80546672340712</v>
+        <v>-12.92364333769564</v>
       </c>
       <c r="C19" t="n">
-        <v>1.111652274150929e-24</v>
+        <v>1.91512241775423e-21</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.507758306383102</v>
+        <v>5.647806408131489</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3280629716787605</v>
+        <v>0.0002587984512005898</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3359.882579796786</v>
+        <v>-14.74565499351401</v>
       </c>
       <c r="C21" t="n">
-        <v>1.517474000050097e-47</v>
+        <v>2.984469562904648e-10</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2179.053060664968</v>
+        <v>-8.243093056741539</v>
       </c>
       <c r="C22" t="n">
-        <v>2.073142080915911e-40</v>
+        <v>4.545312592208594e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11043.99071581688</v>
+        <v>8693.505747486684</v>
       </c>
       <c r="C2" t="n">
-        <v>3.440784675054763e-307</v>
+        <v>1.219804938140688e-179</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1130.214775324032</v>
+        <v>-1207.217492474553</v>
       </c>
       <c r="C3" t="n">
-        <v>3.516928878123786e-18</v>
+        <v>1.908162661517248e-20</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-674.0785414587291</v>
+        <v>-832.2559266454352</v>
       </c>
       <c r="C4" t="n">
-        <v>4.292006759680356e-17</v>
+        <v>3.830106765334525e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-72.1878402842155</v>
+        <v>-102.6931223186295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3217912087607613</v>
+        <v>0.1593895200121818</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.98936412248577</v>
+        <v>72.21254468499487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7223913716937067</v>
+        <v>0.3602139091293525</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-130.4605791924725</v>
+        <v>-104.8771273842924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2108780262372827</v>
+        <v>0.3154121648970472</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-159.1278069561097</v>
+        <v>-12.84625812318077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02948559663189688</v>
+        <v>0.8605950094243142</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2066.081610699395</v>
+        <v>-1796.549564040844</v>
       </c>
       <c r="C9" t="n">
-        <v>3.408911565671509e-51</v>
+        <v>6.091366784660914e-39</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-403.6288862000292</v>
+        <v>-24.37104710537278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003075739524448405</v>
+        <v>0.8589723453722282</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2103.381543605941</v>
+        <v>-616.7891120263976</v>
       </c>
       <c r="C11" t="n">
-        <v>5.175014501410901e-46</v>
+        <v>2.116037601382644e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.02671925539424</v>
+        <v>9.725569231218714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2477421403551958</v>
+        <v>0.5938353945719526</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1426.418226087149</v>
+        <v>-1429.209848925479</v>
       </c>
       <c r="C13" t="n">
-        <v>2.498999271607309e-227</v>
+        <v>2.27594414970586e-227</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.4318832518703</v>
+        <v>-25.47816643296786</v>
       </c>
       <c r="C14" t="n">
-        <v>2.447013170728068e-32</v>
+        <v>4.578484101455915e-41</v>
       </c>
     </row>
     <row r="15">
@@ -1253,20 +1253,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.9742374943507</v>
+        <v>172.6181097398325</v>
       </c>
       <c r="C15" t="n">
-        <v>4.830994305679596e-48</v>
+        <v>1.140855534398138e-51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>357.1091509367845</v>
+        <v>30.14659920453303</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01409081998252052</v>
+        <v>-0.7031862003372122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001445012119185607</v>
+        <v>0.0586109872427445</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.996867272474943e-06</v>
+        <v>-6.475541634421475</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06226928943355581</v>
+        <v>0.01597024705292723</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.01026324747841</v>
+        <v>-12.00492853915783</v>
       </c>
       <c r="C19" t="n">
-        <v>2.389012261326066e-22</v>
+        <v>6.454466508634598e-19</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.840574172716634</v>
+        <v>8.464469839603199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01210678819099211</v>
+        <v>3.493773646697312e-08</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3310.574945815829</v>
+        <v>-14.21561611038165</v>
       </c>
       <c r="C21" t="n">
-        <v>1.100268019732087e-46</v>
+        <v>1.015704291140951e-09</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1962.610339178672</v>
+        <v>-6.010596482643227</v>
       </c>
       <c r="C22" t="n">
-        <v>3.165115749423968e-33</v>
+        <v>0.0002284277846669748</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11150.19635985061</v>
+        <v>8878.005069591769</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.398417614928366e-186</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1097.073007568163</v>
+        <v>-1185.024205388341</v>
       </c>
       <c r="C3" t="n">
-        <v>4.240577061474017e-17</v>
+        <v>1.31507776117535e-19</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-668.421149721833</v>
+        <v>-834.2257762396946</v>
       </c>
       <c r="C4" t="n">
-        <v>9.569550560719603e-17</v>
+        <v>4.12071461513938e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26.43528405280941</v>
+        <v>-59.53018054939522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7178488543784294</v>
+        <v>0.4167229330289201</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.44624354782877</v>
+        <v>106.2495464806051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4003870212081682</v>
+        <v>0.1796185185837078</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-125.1550226710905</v>
+        <v>-105.7773207470495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2312036633789088</v>
+        <v>0.312619655897669</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-192.9437493830511</v>
+        <v>-56.98073064550306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008446010892670171</v>
+        <v>0.4371864890344744</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2101.418897426943</v>
+        <v>-1826.517140129035</v>
       </c>
       <c r="C9" t="n">
-        <v>1.349524536312081e-52</v>
+        <v>6.127566123846519e-40</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-337.8780603685536</v>
+        <v>50.4311842302086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01334318249632912</v>
+        <v>0.7136335316089254</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2178.063549816678</v>
+        <v>-677.3146070087191</v>
       </c>
       <c r="C11" t="n">
-        <v>6.430409766893225e-49</v>
+        <v>3.285342297637807e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.53129282670984</v>
+        <v>22.37159362396217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06586453447031229</v>
+        <v>0.2210301849733241</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1379.996086084172</v>
+        <v>-1384.611350780536</v>
       </c>
       <c r="C13" t="n">
-        <v>1.669349135723087e-212</v>
+        <v>5.210729900576536e-213</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-22.37724727100075</v>
+        <v>-25.59292719428417</v>
       </c>
       <c r="C14" t="n">
-        <v>5.929558022912194e-32</v>
+        <v>4.293979818855034e-41</v>
       </c>
     </row>
     <row r="15">
@@ -1562,20 +1562,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.0412580725315</v>
+        <v>181.0387141031324</v>
       </c>
       <c r="C15" t="n">
-        <v>4.86958000927942e-52</v>
+        <v>1.317716396427762e-56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.3287728435121</v>
+        <v>30.18242334296158</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01112331483814866</v>
+        <v>-0.3847652944278153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002747593848465834</v>
+        <v>0.3017710662905674</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.624951723213071e-06</v>
+        <v>-6.074069314270332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08784769435845657</v>
+        <v>0.02548133940203984</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.0132593493412</v>
+        <v>-13.33252762086331</v>
       </c>
       <c r="C19" t="n">
-        <v>1.935305687556581e-25</v>
+        <v>9.194421637425663e-23</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.783214574836018</v>
+        <v>5.947857311387944</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2458727788591076</v>
+        <v>0.000113900014782411</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3187.925479071075</v>
+        <v>-12.97782792113317</v>
       </c>
       <c r="C21" t="n">
-        <v>3.990460577180773e-43</v>
+        <v>2.80447390178758e-08</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1930.286265489967</v>
+        <v>-5.599664752371432</v>
       </c>
       <c r="C22" t="n">
-        <v>3.746834359179576e-32</v>
+        <v>0.00060000058246765</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11105.38733514067</v>
+        <v>8767.123609874016</v>
       </c>
       <c r="C2" t="n">
-        <v>2.282615139924804e-308</v>
+        <v>1.792527256792064e-181</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1055.620345955348</v>
+        <v>-1132.330083874617</v>
       </c>
       <c r="C3" t="n">
-        <v>6.697639791935122e-16</v>
+        <v>5.285907159467985e-18</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-645.1786264324994</v>
+        <v>-812.2459532871221</v>
       </c>
       <c r="C4" t="n">
-        <v>1.071263514219943e-15</v>
+        <v>6.833026496201337e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-34.26127625985983</v>
+        <v>-68.63428406422246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6391040226262892</v>
+        <v>0.3481694724718005</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.4951766540251</v>
+        <v>78.33675686463505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6351500355502631</v>
+        <v>0.3222899419437492</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-89.29649878251224</v>
+        <v>-65.17190257989478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3940852828421032</v>
+        <v>0.5346283414141602</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-173.84169709868</v>
+        <v>-26.47638643243225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0175108029550212</v>
+        <v>0.7176073315736191</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2145.304431937437</v>
+        <v>-1869.749172289603</v>
       </c>
       <c r="C9" t="n">
-        <v>8.307498079574406e-55</v>
+        <v>7.425484740664308e-42</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-369.7389637730939</v>
+        <v>33.59759250661227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006834451027529972</v>
+        <v>0.8069985132551476</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2190.625812004213</v>
+        <v>-693.0094056631979</v>
       </c>
       <c r="C11" t="n">
-        <v>2.451660955535619e-49</v>
+        <v>1.969561849154324e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.50566495460667</v>
+        <v>14.79026477136962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1629274690871495</v>
+        <v>0.4195022748525311</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1353.181013904835</v>
+        <v>-1355.741490690421</v>
       </c>
       <c r="C13" t="n">
-        <v>1.815617803017362e-203</v>
+        <v>1.483872872113516e-203</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.68355978590798</v>
+        <v>-24.75139572279491</v>
       </c>
       <c r="C14" t="n">
-        <v>4.563809254545078e-30</v>
+        <v>1.559690621364433e-38</v>
       </c>
     </row>
     <row r="15">
@@ -1871,20 +1871,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162.6554530365445</v>
+        <v>169.5957725219839</v>
       </c>
       <c r="C15" t="n">
-        <v>4.048922040816446e-46</v>
+        <v>7.21800499121095e-50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.441485111767</v>
+        <v>30.46621117847311</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01313990132701422</v>
+        <v>-0.5709339905676085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004220982344564173</v>
+        <v>0.1265466402188123</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.844319499102686e-06</v>
+        <v>-4.024223352083013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2938709821809024</v>
+        <v>0.1385460301608114</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.60900998896844</v>
+        <v>-12.68219463464066</v>
       </c>
       <c r="C19" t="n">
-        <v>6.088004448483004e-24</v>
+        <v>1.172862535745066e-20</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.859316246016975</v>
+        <v>6.9929971214587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06246809312837734</v>
+        <v>5.496641311494199e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3322.913598564519</v>
+        <v>-13.94815463423266</v>
       </c>
       <c r="C21" t="n">
-        <v>8.142669036461201e-47</v>
+        <v>2.271103427550596e-09</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1994.494336299343</v>
+        <v>-6.208382855865594</v>
       </c>
       <c r="C22" t="n">
-        <v>4.204303801164371e-34</v>
+        <v>0.0001450662060919991</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11247.80655708197</v>
+        <v>8938.932042143537</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.248245821309612e-188</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1128.965825229356</v>
+        <v>-1203.503618159627</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45867277778737e-18</v>
+        <v>5.239572922362042e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-726.7193014191103</v>
+        <v>-891.8113739671799</v>
       </c>
       <c r="C4" t="n">
-        <v>1.785180343522627e-19</v>
+        <v>1.981062535255634e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-75.94575308366855</v>
+        <v>-109.7408756504495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2990298815706814</v>
+        <v>0.1339851719493396</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.50497288339729</v>
+        <v>80.24331982401434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5568098558076088</v>
+        <v>0.3114150205216504</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.48895946761453</v>
+        <v>32.96835246239983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8750455175249406</v>
+        <v>0.75360373759498</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-208.6636864801663</v>
+        <v>-72.34439277132185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004486724751859534</v>
+        <v>0.3247720026033689</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2088.280395461201</v>
+        <v>-1814.183661258368</v>
       </c>
       <c r="C9" t="n">
-        <v>1.385252659024515e-51</v>
+        <v>3.566164572656108e-39</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-407.8743612852504</v>
+        <v>-12.47903821796535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00294648986889393</v>
+        <v>0.9279469711119469</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2177.089111334859</v>
+        <v>-699.2457893744863</v>
       </c>
       <c r="C11" t="n">
-        <v>1.541339232664504e-48</v>
+        <v>1.697140125630726e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.73912725392695</v>
+        <v>27.77105265606814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03387726980674461</v>
+        <v>0.1291666912266457</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1348.381129371882</v>
+        <v>-1346.624794487469</v>
       </c>
       <c r="C13" t="n">
-        <v>7.488596311791163e-202</v>
+        <v>1.138793058406705e-200</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.21366628196899</v>
+        <v>-23.22500147863609</v>
       </c>
       <c r="C14" t="n">
-        <v>2.868900431539591e-26</v>
+        <v>5.015301069703018e-34</v>
       </c>
     </row>
     <row r="15">
@@ -2180,20 +2180,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.9222147850378</v>
+        <v>164.3886833757288</v>
       </c>
       <c r="C15" t="n">
-        <v>2.301602454018365e-43</v>
+        <v>1.000245503680375e-46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.8135624416667</v>
+        <v>30.08996604005848</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0123433095547839</v>
+        <v>-0.5073329341726054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009360468611119089</v>
+        <v>0.1749313258508009</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.194251724725321e-06</v>
+        <v>-5.406503561492222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1207038731006009</v>
+        <v>0.046028875301117</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.31473298742842</v>
+        <v>-13.34245626945</v>
       </c>
       <c r="C19" t="n">
-        <v>2.277601856865697e-26</v>
+        <v>9.995716559130093e-23</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.045067150640537</v>
+        <v>6.179919471848846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.181695261921162</v>
+        <v>5.686566653745883e-05</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3277.855139042789</v>
+        <v>-13.86851865285038</v>
       </c>
       <c r="C21" t="n">
-        <v>1.380824412182222e-45</v>
+        <v>2.810642471588421e-09</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2058.340676318415</v>
+        <v>-7.047297403724237</v>
       </c>
       <c r="C22" t="n">
-        <v>3.175262488817927e-36</v>
+        <v>1.618005669842885e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10871.55917747086</v>
+        <v>8595.926342396291</v>
       </c>
       <c r="C2" t="n">
-        <v>1.903834499138705e-295</v>
+        <v>2.138375971392322e-174</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1100.154914004066</v>
+        <v>-1183.767554135878</v>
       </c>
       <c r="C3" t="n">
-        <v>2.692299511891841e-17</v>
+        <v>1.052698476969798e-19</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-644.0884523274344</v>
+        <v>-806.672884516412</v>
       </c>
       <c r="C4" t="n">
-        <v>1.130158159747669e-15</v>
+        <v>1.291987448246567e-23</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2037837975808401</v>
+        <v>-33.34786339626133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9977745464656766</v>
+        <v>0.6486121582296027</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.0973295295229</v>
+        <v>164.0293114384917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1168490292328816</v>
+        <v>0.03854271798620624</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.79125390117898</v>
+        <v>-3.185755477504088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.850194195015993</v>
+        <v>0.9757917633368391</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-106.4633383609038</v>
+        <v>37.86708128782102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1473660252493673</v>
+        <v>0.6065592826205654</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2084.234978602773</v>
+        <v>-1816.126631332365</v>
       </c>
       <c r="C9" t="n">
-        <v>7.224699093143123e-52</v>
+        <v>1.337135876614923e-39</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-392.7311948260576</v>
+        <v>-5.008618511874374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004066097655441411</v>
+        <v>0.9709505014776105</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2154.440859051449</v>
+        <v>-674.4698082074538</v>
       </c>
       <c r="C11" t="n">
-        <v>6.773904014057251e-48</v>
+        <v>3.594086081762492e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.68818421564952</v>
+        <v>30.52492035489129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02561299007499041</v>
+        <v>0.09484665217713786</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1368.075525277577</v>
+        <v>-1365.285710864804</v>
       </c>
       <c r="C13" t="n">
-        <v>3.281563033614011e-208</v>
+        <v>1.322048741306665e-206</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-20.83648906160219</v>
+        <v>-23.94011223124595</v>
       </c>
       <c r="C14" t="n">
-        <v>7.981823212140008e-28</v>
+        <v>4.692882335689347e-36</v>
       </c>
     </row>
     <row r="15">
@@ -2489,20 +2489,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163.0377615093279</v>
+        <v>170.0161224117747</v>
       </c>
       <c r="C15" t="n">
-        <v>5.169124533615612e-46</v>
+        <v>9.711434895318903e-50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.0521284818735</v>
+        <v>29.92565081259195</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01585656592207962</v>
+        <v>-0.8627077198444812</v>
       </c>
       <c r="C17" t="n">
-        <v>2.114440095391209e-05</v>
+        <v>0.02104277364290017</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.611679328135997e-06</v>
+        <v>-5.102706751979042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1818103953218752</v>
+        <v>0.0599483550887172</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.57417071897717</v>
+        <v>-12.7846816570381</v>
       </c>
       <c r="C19" t="n">
-        <v>5.441392375548887e-24</v>
+        <v>4.297086286912737e-21</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.901172611289282</v>
+        <v>8.012064298968685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01084737624577238</v>
+        <v>1.811181847198674e-07</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3207.646136436688</v>
+        <v>-13.03230423872441</v>
       </c>
       <c r="C21" t="n">
-        <v>1.228995796421684e-43</v>
+        <v>2.475895346468413e-08</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1976.285458871545</v>
+        <v>-6.255584358347263</v>
       </c>
       <c r="C22" t="n">
-        <v>1.46718913610624e-33</v>
+        <v>0.000128900563348046</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11171.8484494206</v>
+        <v>8865.335670556535</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.249965285952021e-185</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1127.292815930947</v>
+        <v>-1202.320379161612</v>
       </c>
       <c r="C3" t="n">
-        <v>4.997363819450772e-18</v>
+        <v>3.276294165062858e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-643.5430022427727</v>
+        <v>-811.7281426089504</v>
       </c>
       <c r="C4" t="n">
-        <v>1.26325350168249e-15</v>
+        <v>7.539559969253631e-24</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-42.05147450948381</v>
+        <v>-77.75163217530346</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5651242935623995</v>
+        <v>0.2883255740042223</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.29545997674698</v>
+        <v>132.6929453278217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2599334076767339</v>
+        <v>0.09473716678091396</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.2332409334381</v>
+        <v>62.44963779275513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6729899056859774</v>
+        <v>0.5520533787640838</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-187.9003632439876</v>
+        <v>-46.53036561104352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01055013233321884</v>
+        <v>0.5269088006618592</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2104.388635733274</v>
+        <v>-1826.194951476065</v>
       </c>
       <c r="C9" t="n">
-        <v>1.599720221749888e-52</v>
+        <v>8.948485620351605e-40</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-392.5326772431545</v>
+        <v>0.5526724690516858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004133531806468168</v>
+        <v>0.9967983928732507</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2213.175808957758</v>
+        <v>-712.5868973364823</v>
       </c>
       <c r="C11" t="n">
-        <v>3.760445244348763e-50</v>
+        <v>1.056899705329972e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.46244592738989</v>
+        <v>21.06273772548336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07541766160788715</v>
+        <v>0.2499117697640978</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1375.628172504878</v>
+        <v>-1382.283659267105</v>
       </c>
       <c r="C13" t="n">
-        <v>1.630448418032397e-209</v>
+        <v>1.06729775448696e-210</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.02009411946019</v>
+        <v>-24.09699921167854</v>
       </c>
       <c r="C14" t="n">
-        <v>3.798440565947349e-28</v>
+        <v>2.549689423334354e-36</v>
       </c>
     </row>
     <row r="15">
@@ -2798,20 +2798,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.8542005893</v>
+        <v>164.9243406262016</v>
       </c>
       <c r="C15" t="n">
-        <v>1.121618362797392e-42</v>
+        <v>7.266607954170558e-47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.7839064712324</v>
+        <v>30.31427922083922</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01288253900872176</v>
+        <v>-0.5522564148494649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005429253781646611</v>
+        <v>0.1393564982245055</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.190839688372851e-06</v>
+        <v>-4.615712876982293</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2379976838769788</v>
+        <v>0.08881182562788091</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.04454725712133</v>
+        <v>-13.23142380888152</v>
       </c>
       <c r="C19" t="n">
-        <v>1.575802208436781e-25</v>
+        <v>1.957879405007543e-22</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.801919691142714</v>
+        <v>7.080485576372116</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06763034147885234</v>
+        <v>4.122765898317683e-06</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3469.552860521436</v>
+        <v>-15.86575884928487</v>
       </c>
       <c r="C21" t="n">
-        <v>1.031437587521049e-50</v>
+        <v>1.162428691536891e-11</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2089.353208625615</v>
+        <v>-7.283704681509827</v>
       </c>
       <c r="C22" t="n">
-        <v>5.947060967770548e-37</v>
+        <v>9.113572975157946e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11326.98143983388</v>
+        <v>8976.067106567392</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.148290424389884e-192</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1139.826512565528</v>
+        <v>-1221.352347780637</v>
       </c>
       <c r="C3" t="n">
-        <v>3.503584180246501e-18</v>
+        <v>1.42213477575408e-20</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-698.4770664032256</v>
+        <v>-860.8653235430104</v>
       </c>
       <c r="C4" t="n">
-        <v>3.195348163779362e-18</v>
+        <v>9.040552765351026e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-52.90468342086794</v>
+        <v>-82.72557561877822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4685279200844031</v>
+        <v>0.257694572023563</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.74481047443865</v>
+        <v>95.08672420298856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471243086315435</v>
+        <v>0.2280557225080407</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.63754126812821</v>
+        <v>9.397828780179054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.888364192020928</v>
+        <v>0.9283051640994937</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-128.6423255231168</v>
+        <v>13.51561558574389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07806807473029921</v>
+        <v>0.8532098099614106</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2134.662123055565</v>
+        <v>-1865.28139491228</v>
       </c>
       <c r="C9" t="n">
-        <v>2.204318269055184e-54</v>
+        <v>9.485724478770579e-42</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-411.9871635083873</v>
+        <v>-16.28537642003721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00254271446759325</v>
+        <v>0.9055759005055505</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2162.791218257949</v>
+        <v>-672.6291901672271</v>
       </c>
       <c r="C11" t="n">
-        <v>2.20166062305678e-48</v>
+        <v>3.693292236220288e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.47739260590065</v>
+        <v>21.36217534550311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09471493604525223</v>
+        <v>0.2425239935398017</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1379.691848187751</v>
+        <v>-1383.873709683699</v>
       </c>
       <c r="C13" t="n">
-        <v>7.274279148294373e-213</v>
+        <v>1.913183586477565e-213</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.53802299823352</v>
+        <v>-24.54015597716221</v>
       </c>
       <c r="C14" t="n">
-        <v>7.719513193141833e-30</v>
+        <v>4.191579450891312e-38</v>
       </c>
     </row>
     <row r="15">
@@ -3107,20 +3107,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.2773011137843</v>
+        <v>158.5335549068349</v>
       </c>
       <c r="C15" t="n">
-        <v>2.50900847669233e-40</v>
+        <v>5.066067521973458e-44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistCenter_res_pc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>360.4196053634473</v>
+        <v>30.58916961480465</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01406992109652946</v>
+        <v>-0.6796174011888301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001536523159390818</v>
+        <v>0.06820589821284995</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.964344132381443e-06</v>
+        <v>-5.073025116677989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1418794009268428</v>
+        <v>0.06083595553876965</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-13.86579942698309</v>
+        <v>-12.92787012166056</v>
       </c>
       <c r="C19" t="n">
-        <v>4.136732811984949e-25</v>
+        <v>1.109148674624777e-21</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.400034496483963</v>
+        <v>5.509335388956537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3578128650173545</v>
+        <v>0.0003062727070820554</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3426.646322170125</v>
+        <v>-14.79427936523732</v>
       </c>
       <c r="C21" t="n">
-        <v>9.137299906367371e-50</v>
+        <v>2.202646337152803e-10</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2031.675379238925</v>
+        <v>-6.408834956811411</v>
       </c>
       <c r="C22" t="n">
-        <v>1.467076152644494e-35</v>
+        <v>8.338093548710253e-05</v>
       </c>
     </row>
   </sheetData>
